--- a/Data/Quality_A549_28_.xlsx
+++ b/Data/Quality_A549_28_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9886739779842372</v>
       </c>
       <c r="D2">
-        <v>-0.291210981042165</v>
+        <v>-5.539360881953499</v>
       </c>
       <c r="E2">
         <v>0.1039493287480384</v>
@@ -459,7 +459,7 @@
         <v>0.9711128856596548</v>
       </c>
       <c r="D3">
-        <v>-0.5357887634012246</v>
+        <v>-1.646468496486829</v>
       </c>
       <c r="E3">
         <v>0.1660103131160039</v>
@@ -482,7 +482,7 @@
         <v>0.9596832917895588</v>
       </c>
       <c r="D4">
-        <v>-0.1279796261708663</v>
+        <v>-0.6198749441758042</v>
       </c>
       <c r="E4">
         <v>0.1961216422577987</v>
@@ -505,7 +505,7 @@
         <v>0.9334057381342007</v>
       </c>
       <c r="D5">
-        <v>0.07623088833916714</v>
+        <v>-0.488173515094328</v>
       </c>
       <c r="E5">
         <v>0.2520585265870134</v>
@@ -528,7 +528,7 @@
         <v>0.9148236502199081</v>
       </c>
       <c r="D6">
-        <v>-0.2971893561920562</v>
+        <v>-0.4590141337844174</v>
       </c>
       <c r="E6">
         <v>0.2850640826383036</v>
@@ -551,7 +551,7 @@
         <v>0.8867337344331044</v>
       </c>
       <c r="D7">
-        <v>-0.5343846148711524</v>
+        <v>-0.09842786469938769</v>
       </c>
       <c r="E7">
         <v>0.3287254128081327</v>
@@ -574,7 +574,7 @@
         <v>0.8160814078288114</v>
       </c>
       <c r="D8">
-        <v>0.3297046658212115</v>
+        <v>0.15727379971039</v>
       </c>
       <c r="E8">
         <v>0.4188859612413687</v>
@@ -597,7 +597,7 @@
         <v>0.7121553124659211</v>
       </c>
       <c r="D9">
-        <v>-0.03342035937998489</v>
+        <v>-0.03185690033648347</v>
       </c>
       <c r="E9">
         <v>0.5240371761805744</v>
@@ -620,7 +620,7 @@
         <v>0.7104373012749805</v>
       </c>
       <c r="D10">
-        <v>-0.08234001789419754</v>
+        <v>-0.02981986342057219</v>
       </c>
       <c r="E10">
         <v>0.5255987168229517</v>
@@ -643,7 +643,7 @@
         <v>0.6678628334205303</v>
       </c>
       <c r="D11">
-        <v>-0.8053634364520013</v>
+        <v>-0.1581839539188443</v>
       </c>
       <c r="E11">
         <v>0.5629135810132607</v>
@@ -666,7 +666,7 @@
         <v>0.6534445010694772</v>
       </c>
       <c r="D12">
-        <v>-0.7269876880360537</v>
+        <v>-0.05030023156007957</v>
       </c>
       <c r="E12">
         <v>0.5750020402283803</v>
@@ -689,7 +689,7 @@
         <v>0.6340972228735859</v>
       </c>
       <c r="D13">
-        <v>-0.4060379693517229</v>
+        <v>0.09177311075187344</v>
       </c>
       <c r="E13">
         <v>0.5908344927035958</v>
@@ -712,7 +712,7 @@
         <v>0.6340972228735859</v>
       </c>
       <c r="D14">
-        <v>-0.4060379693517229</v>
+        <v>0.09177311075187344</v>
       </c>
       <c r="E14">
         <v>0.5908344927035958</v>
@@ -735,7 +735,7 @@
         <v>0.6074763417678778</v>
       </c>
       <c r="D15">
-        <v>-0.4506425607336857</v>
+        <v>0.1564890457973444</v>
       </c>
       <c r="E15">
         <v>0.6119499552207988</v>
@@ -758,7 +758,7 @@
         <v>0.5673091773896766</v>
       </c>
       <c r="D16">
-        <v>0.1122946052296684</v>
+        <v>0.4435742939677739</v>
       </c>
       <c r="E16">
         <v>0.6424980744393357</v>
@@ -781,7 +781,7 @@
         <v>0.538457470613332</v>
       </c>
       <c r="D17">
-        <v>0.09892161997212578</v>
+        <v>0.4261368142722509</v>
       </c>
       <c r="E17">
         <v>0.6635732209289072</v>
@@ -804,7 +804,7 @@
         <v>0.5113867138574442</v>
       </c>
       <c r="D18">
-        <v>-0.2482379456699342</v>
+        <v>0.3567959469800155</v>
       </c>
       <c r="E18">
         <v>0.6827561557584324</v>
@@ -827,7 +827,7 @@
         <v>0.5008978125943887</v>
       </c>
       <c r="D19">
-        <v>-0.2765195344520472</v>
+        <v>0.3263597901499842</v>
       </c>
       <c r="E19">
         <v>0.6900454953161479</v>
@@ -850,7 +850,7 @@
         <v>0.5008978125943887</v>
       </c>
       <c r="D20">
-        <v>-0.2765195344520472</v>
+        <v>0.3263597901499842</v>
       </c>
       <c r="E20">
         <v>0.6900454953161479</v>
@@ -873,7 +873,7 @@
         <v>0.5008831317176081</v>
       </c>
       <c r="D21">
-        <v>-0.2742896670201862</v>
+        <v>0.3280661554536681</v>
       </c>
       <c r="E21">
         <v>0.6900556439376633</v>
@@ -896,7 +896,7 @@
         <v>0.4896521468499652</v>
       </c>
       <c r="D22">
-        <v>-0.3923877648351299</v>
+        <v>0.2569838412393648</v>
       </c>
       <c r="E22">
         <v>0.6977761715358844</v>
@@ -955,7 +955,7 @@
         <v>0.7108931932897576</v>
       </c>
       <c r="D2">
-        <v>-2.594509202457194</v>
+        <v>-0.3144261311655274</v>
       </c>
       <c r="E2">
         <v>0.5251847984432012</v>
@@ -981,7 +981,7 @@
         <v>0.7930328660114093</v>
       </c>
       <c r="D3">
-        <v>-2.47292222218497</v>
+        <v>-0.4028217445035771</v>
       </c>
       <c r="E3">
         <v>0.4443586936682756</v>
@@ -1007,7 +1007,7 @@
         <v>0.8575550877559663</v>
       </c>
       <c r="D4">
-        <v>-1.798831722927418</v>
+        <v>-0.1963663859681892</v>
       </c>
       <c r="E4">
         <v>0.3686433970773841</v>
@@ -1033,7 +1033,7 @@
         <v>0.8968737515502272</v>
       </c>
       <c r="D5">
-        <v>-0.9751872240002624</v>
+        <v>-0.2812185857993923</v>
       </c>
       <c r="E5">
         <v>0.31366611007782</v>
@@ -1059,7 +1059,7 @@
         <v>0.9416614620552104</v>
       </c>
       <c r="D6">
-        <v>-0.4424604848727804</v>
+        <v>-0.07664363114051254</v>
       </c>
       <c r="E6">
         <v>0.2359178267530585</v>
@@ -1085,7 +1085,7 @@
         <v>0.9655762805368469</v>
       </c>
       <c r="D7">
-        <v>-0.463838992247916</v>
+        <v>-0.349140241146157</v>
       </c>
       <c r="E7">
         <v>0.1812224032297106</v>
@@ -1111,7 +1111,7 @@
         <v>0.9791208711532727</v>
       </c>
       <c r="D8">
-        <v>-0.3800027488314321</v>
+        <v>-0.1879982387517156</v>
       </c>
       <c r="E8">
         <v>0.1411364455220392</v>
@@ -1137,7 +1137,7 @@
         <v>0.9879444332249664</v>
       </c>
       <c r="D9">
-        <v>-0.5070894833807134</v>
+        <v>-0.534525069751097</v>
       </c>
       <c r="E9">
         <v>0.1072449386072519</v>
@@ -1163,7 +1163,7 @@
         <v>0.9941093403012919</v>
       </c>
       <c r="D10">
-        <v>-0.5044175282739669</v>
+        <v>-0.2507476134696267</v>
       </c>
       <c r="E10">
         <v>0.07496610652248982</v>
@@ -1189,7 +1189,7 @@
         <v>0.9967807196199806</v>
       </c>
       <c r="D11">
-        <v>-0.5033470526434132</v>
+        <v>-0.3480579235905821</v>
       </c>
       <c r="E11">
         <v>0.05541947277528707</v>
@@ -1215,7 +1215,7 @@
         <v>0.9980246466698481</v>
       </c>
       <c r="D12">
-        <v>-0.4087206066213698</v>
+        <v>-0.2532071180574502</v>
       </c>
       <c r="E12">
         <v>0.04341155903786557</v>
@@ -1241,7 +1241,7 @@
         <v>0.9987203129251467</v>
       </c>
       <c r="D13">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E13">
         <v>0.03494096379845099</v>
@@ -1267,7 +1267,7 @@
         <v>0.9990471718364978</v>
       </c>
       <c r="D14">
-        <v>-0.3323569029857862</v>
+        <v>-0.09899231860678648</v>
       </c>
       <c r="E14">
         <v>0.03015020582115595</v>
@@ -1293,7 +1293,7 @@
         <v>0.9991443454955085</v>
       </c>
       <c r="D15">
-        <v>-0.4505548505032577</v>
+        <v>-0.2467725727661871</v>
       </c>
       <c r="E15">
         <v>0.0285714452371738</v>
@@ -1319,7 +1319,7 @@
         <v>0.9991821268767254</v>
       </c>
       <c r="D16">
-        <v>-0.5152691685379969</v>
+        <v>-0.2866259116764049</v>
       </c>
       <c r="E16">
         <v>0.02793353870107624</v>
@@ -1345,7 +1345,7 @@
         <v>0.9991862364522428</v>
       </c>
       <c r="D17">
-        <v>-0.5526241319947514</v>
+        <v>-0.3890617753172585</v>
       </c>
       <c r="E17">
         <v>0.02786327135164884</v>
@@ -1371,7 +1371,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D18">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E18">
         <v>0.02786137343906938</v>
@@ -1397,7 +1397,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D19">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E19">
         <v>0.02786137343906938</v>
@@ -1423,7 +1423,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D20">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E20">
         <v>0.02786137343906938</v>
@@ -1449,7 +1449,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D21">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E21">
         <v>0.02786137343906938</v>
@@ -1475,7 +1475,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D22">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E22">
         <v>0.02786137343906938</v>
@@ -1501,7 +1501,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D23">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E23">
         <v>0.02786137343906938</v>
@@ -1527,7 +1527,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D24">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E24">
         <v>0.02786137343906938</v>
@@ -1553,7 +1553,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D25">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E25">
         <v>0.02786137343906938</v>
@@ -1579,7 +1579,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D26">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E26">
         <v>0.02786137343906938</v>
@@ -1605,7 +1605,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D27">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E27">
         <v>0.02786137343906938</v>
@@ -1631,7 +1631,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D28">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E28">
         <v>0.02786137343906938</v>
@@ -1657,7 +1657,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D29">
-        <v>-0.4401740686066962</v>
+        <v>-0.3148007148194374</v>
       </c>
       <c r="E29">
         <v>0.02786137343906938</v>
@@ -1683,7 +1683,7 @@
         <v>0.704782613691014</v>
       </c>
       <c r="D30">
-        <v>-3.521309239897253</v>
+        <v>-0.000862835883576718</v>
       </c>
       <c r="E30">
         <v>0.5307059465761241</v>
@@ -1709,7 +1709,7 @@
         <v>0.7991392409772681</v>
       </c>
       <c r="D31">
-        <v>-1.499462900795591</v>
+        <v>-0.04268826730105624</v>
       </c>
       <c r="E31">
         <v>0.4377544183734702</v>
@@ -1735,7 +1735,7 @@
         <v>0.8397823359831026</v>
       </c>
       <c r="D32">
-        <v>-0.6124633437239853</v>
+        <v>-0.04997925461719599</v>
       </c>
       <c r="E32">
         <v>0.3909652754662128</v>
@@ -1761,7 +1761,7 @@
         <v>0.8882716898117071</v>
       </c>
       <c r="D33">
-        <v>-0.1336958952870075</v>
+        <v>0.255408577348081</v>
       </c>
       <c r="E33">
         <v>0.3264860305226796</v>
@@ -1787,7 +1787,7 @@
         <v>0.9409003421620252</v>
       </c>
       <c r="D34">
-        <v>0.1880562715703201</v>
+        <v>0.2505952075520539</v>
       </c>
       <c r="E34">
         <v>0.2374518030848869</v>
@@ -1813,7 +1813,7 @@
         <v>0.9758239404170809</v>
       </c>
       <c r="D35">
-        <v>0.3254064778520196</v>
+        <v>0.4600223805437048</v>
       </c>
       <c r="E35">
         <v>0.15187131282631</v>
@@ -1839,7 +1839,7 @@
         <v>0.9894595723095979</v>
       </c>
       <c r="D36">
-        <v>0.3939905420263327</v>
+        <v>0.2362211663202145</v>
       </c>
       <c r="E36">
         <v>0.1002794873547917</v>
@@ -1865,7 +1865,7 @@
         <v>0.9954794718849599</v>
       </c>
       <c r="D37">
-        <v>0.2515486866252621</v>
+        <v>0.05339399424575941</v>
       </c>
       <c r="E37">
         <v>0.06567159673209494</v>
@@ -1891,7 +1891,7 @@
         <v>0.9970951362532043</v>
       </c>
       <c r="D38">
-        <v>0.2851147299692881</v>
+        <v>0.07418170456700612</v>
       </c>
       <c r="E38">
         <v>0.05264363529453672</v>
@@ -1917,7 +1917,7 @@
         <v>0.9983644350727154</v>
       </c>
       <c r="D39">
-        <v>0.2975873978548126</v>
+        <v>0.08960358394448575</v>
       </c>
       <c r="E39">
         <v>0.0395017997455727</v>
@@ -1943,7 +1943,7 @@
         <v>0.9989206961249699</v>
       </c>
       <c r="D40">
-        <v>0.2966525635390226</v>
+        <v>0.1415634653578843</v>
       </c>
       <c r="E40">
         <v>0.03208890198030074</v>
@@ -1969,7 +1969,7 @@
         <v>0.9990996798724955</v>
       </c>
       <c r="D41">
-        <v>0.2362006976117687</v>
+        <v>0.03284317925761415</v>
       </c>
       <c r="E41">
         <v>0.0293076818323149</v>
@@ -1995,7 +1995,7 @@
         <v>0.999174584874677</v>
       </c>
       <c r="D42">
-        <v>0.2120124157399982</v>
+        <v>0.2871004314093192</v>
       </c>
       <c r="E42">
         <v>0.02806203745179163</v>
@@ -2021,7 +2021,7 @@
         <v>0.9991842163956227</v>
       </c>
       <c r="D43">
-        <v>0.3373715995685974</v>
+        <v>0.3693965810623888</v>
       </c>
       <c r="E43">
         <v>0.02789783329473586</v>
@@ -2047,7 +2047,7 @@
         <v>0.9991857315904142</v>
       </c>
       <c r="D44">
-        <v>0.2438718434685473</v>
+        <v>0.06701110397430043</v>
       </c>
       <c r="E44">
         <v>0.02787191324831398</v>
@@ -2073,7 +2073,7 @@
         <v>0.9991862340423625</v>
       </c>
       <c r="D45">
-        <v>0.2412847136556904</v>
+        <v>0.07106303360537969</v>
       </c>
       <c r="E45">
         <v>0.0278633126087804</v>
@@ -2099,7 +2099,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D46">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E46">
         <v>0.02786137343906938</v>
@@ -2125,7 +2125,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D47">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E47">
         <v>0.02786137343906938</v>
@@ -2151,7 +2151,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D48">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E48">
         <v>0.02786137343906938</v>
@@ -2177,7 +2177,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D49">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E49">
         <v>0.02786137343906938</v>
@@ -2203,7 +2203,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D50">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E50">
         <v>0.02786137343906938</v>
@@ -2229,7 +2229,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D51">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E51">
         <v>0.02786137343906938</v>
@@ -2255,7 +2255,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D52">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E52">
         <v>0.02786137343906938</v>
@@ -2281,7 +2281,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D53">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E53">
         <v>0.02786137343906938</v>
@@ -2307,7 +2307,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D54">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E54">
         <v>0.02786137343906938</v>
@@ -2333,7 +2333,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D55">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E55">
         <v>0.02786137343906938</v>
@@ -2359,7 +2359,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D56">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E56">
         <v>0.02786137343906938</v>
@@ -2385,7 +2385,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D57">
-        <v>0.3135342060845954</v>
+        <v>0.1434956749597313</v>
       </c>
       <c r="E57">
         <v>0.02786137343906938</v>
@@ -2411,7 +2411,7 @@
         <v>0.7038490775287216</v>
       </c>
       <c r="D58">
-        <v>-2.056066212826522</v>
+        <v>0.001875512816833069</v>
       </c>
       <c r="E58">
         <v>0.5315443832147969</v>
@@ -2437,7 +2437,7 @@
         <v>0.7820903031935644</v>
       </c>
       <c r="D59">
-        <v>-0.7057261916565252</v>
+        <v>-0.03530056547687366</v>
       </c>
       <c r="E59">
         <v>0.4559542484544753</v>
@@ -2463,7 +2463,7 @@
         <v>0.8269514099966389</v>
       </c>
       <c r="D60">
-        <v>-0.1628642129665077</v>
+        <v>0.2339956071423531</v>
       </c>
       <c r="E60">
         <v>0.4063188971064738</v>
@@ -2489,7 +2489,7 @@
         <v>0.866584292800919</v>
       </c>
       <c r="D61">
-        <v>-0.2029353208007327</v>
+        <v>0.1689264372870206</v>
       </c>
       <c r="E61">
         <v>0.3567684731908503</v>
@@ -2515,7 +2515,7 @@
         <v>0.8895571602256289</v>
       </c>
       <c r="D62">
-        <v>-0.4715737602908374</v>
+        <v>0.09261752591159877</v>
       </c>
       <c r="E62">
         <v>0.3246024332105278</v>
@@ -2541,7 +2541,7 @@
         <v>0.9113257283637697</v>
       </c>
       <c r="D63">
-        <v>0.139526490930734</v>
+        <v>0.3900489705480377</v>
       </c>
       <c r="E63">
         <v>0.2908585290404537</v>
@@ -2567,7 +2567,7 @@
         <v>0.9261627464385984</v>
       </c>
       <c r="D64">
-        <v>0.2766694838970221</v>
+        <v>0.4134168447866136</v>
       </c>
       <c r="E64">
         <v>0.2654121228733076</v>
@@ -2593,7 +2593,7 @@
         <v>0.9538049747975741</v>
       </c>
       <c r="D65">
-        <v>0.3236347304771997</v>
+        <v>0.2367772842124598</v>
       </c>
       <c r="E65">
         <v>0.209932942316271</v>
@@ -2619,7 +2619,7 @@
         <v>0.9758922818074945</v>
       </c>
       <c r="D66">
-        <v>0.08769006038757177</v>
+        <v>-0.05695397359736343</v>
       </c>
       <c r="E66">
         <v>0.1516565044123419</v>
@@ -2645,7 +2645,7 @@
         <v>0.9929748533799641</v>
       </c>
       <c r="D67">
-        <v>0.1532192378935016</v>
+        <v>0.07228202106293025</v>
       </c>
       <c r="E67">
         <v>0.0818673409692639</v>
@@ -2671,7 +2671,7 @@
         <v>0.9961505659713484</v>
       </c>
       <c r="D68">
-        <v>0.2224595829017049</v>
+        <v>0.1122187417010875</v>
       </c>
       <c r="E68">
         <v>0.06060122861529741</v>
@@ -2697,7 +2697,7 @@
         <v>0.9978232834809529</v>
       </c>
       <c r="D69">
-        <v>0.2581317547265944</v>
+        <v>0.1705522449071967</v>
       </c>
       <c r="E69">
         <v>0.04557051378281041</v>
@@ -2723,7 +2723,7 @@
         <v>0.998853608587335</v>
       </c>
       <c r="D70">
-        <v>0.1967047992890664</v>
+        <v>0.1096270387725838</v>
       </c>
       <c r="E70">
         <v>0.03307116168633713</v>
@@ -2749,7 +2749,7 @@
         <v>0.9991228233694195</v>
       </c>
       <c r="D71">
-        <v>0.1379684868484724</v>
+        <v>0.07570470944087437</v>
       </c>
       <c r="E71">
         <v>0.02892853994634704</v>
@@ -2775,7 +2775,7 @@
         <v>0.9991688805490986</v>
       </c>
       <c r="D72">
-        <v>0.1518219564458859</v>
+        <v>0.05704142894774944</v>
       </c>
       <c r="E72">
         <v>0.02815883685661023</v>
@@ -2801,7 +2801,7 @@
         <v>0.9991815447884012</v>
       </c>
       <c r="D73">
-        <v>0.2291440135062396</v>
+        <v>0.1173021549981119</v>
       </c>
       <c r="E73">
         <v>0.02794347721979901</v>
@@ -2827,7 +2827,7 @@
         <v>0.9991856286829248</v>
       </c>
       <c r="D74">
-        <v>0.1600971837967546</v>
+        <v>0.05438835804078368</v>
       </c>
       <c r="E74">
         <v>0.02787367442311168</v>
@@ -2853,7 +2853,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D75">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E75">
         <v>0.02786137343906938</v>
@@ -2879,7 +2879,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D76">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E76">
         <v>0.02786137343906938</v>
@@ -2905,7 +2905,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D77">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E77">
         <v>0.02786137343906938</v>
@@ -2931,7 +2931,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D78">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E78">
         <v>0.02786137343906938</v>
@@ -2957,7 +2957,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D79">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E79">
         <v>0.02786137343906938</v>
@@ -2983,7 +2983,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D80">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E80">
         <v>0.02786137343906938</v>
@@ -3009,7 +3009,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D81">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E81">
         <v>0.02786137343906938</v>
@@ -3035,7 +3035,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D82">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E82">
         <v>0.02786137343906938</v>
@@ -3061,7 +3061,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D83">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E83">
         <v>0.02786137343906938</v>
@@ -3087,7 +3087,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D84">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E84">
         <v>0.02786137343906938</v>
@@ -3113,7 +3113,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D85">
-        <v>0.1046189234530654</v>
+        <v>0.01833108311279863</v>
       </c>
       <c r="E85">
         <v>0.02786137343906938</v>
@@ -3139,7 +3139,7 @@
         <v>0.7038490775287215</v>
       </c>
       <c r="D86">
-        <v>-2.056066212826512</v>
+        <v>0.001875512816829961</v>
       </c>
       <c r="E86">
         <v>0.5315443832147969</v>
@@ -3165,7 +3165,7 @@
         <v>0.7820903031935644</v>
       </c>
       <c r="D87">
-        <v>-0.7057261916565274</v>
+        <v>-0.03530056547687122</v>
       </c>
       <c r="E87">
         <v>0.4559542484544752</v>
@@ -3191,7 +3191,7 @@
         <v>0.8250199179580334</v>
       </c>
       <c r="D88">
-        <v>-0.1552227557130488</v>
+        <v>0.2021589235895683</v>
       </c>
       <c r="E88">
         <v>0.4085801809140969</v>
@@ -3217,7 +3217,7 @@
         <v>0.8708000690337917</v>
       </c>
       <c r="D89">
-        <v>-0.1945188446997004</v>
+        <v>0.05854251563844459</v>
       </c>
       <c r="E89">
         <v>0.3510864992064475</v>
@@ -3243,7 +3243,7 @@
         <v>0.9003507983482291</v>
       </c>
       <c r="D90">
-        <v>-0.02064195322055795</v>
+        <v>0.1004762110612005</v>
       </c>
       <c r="E90">
         <v>0.3083329231834186</v>
@@ -3269,7 +3269,7 @@
         <v>0.9333207371099068</v>
       </c>
       <c r="D91">
-        <v>-0.08080741352294218</v>
+        <v>0.1607657128421475</v>
       </c>
       <c r="E91">
         <v>0.252219339244899</v>
@@ -3295,7 +3295,7 @@
         <v>0.9646467922358902</v>
       </c>
       <c r="D92">
-        <v>-0.3849552821164608</v>
+        <v>-0.4731187726250181</v>
       </c>
       <c r="E92">
         <v>0.1836527353786413</v>
@@ -3321,7 +3321,7 @@
         <v>0.976824395599863</v>
       </c>
       <c r="D93">
-        <v>-0.3750880559105114</v>
+        <v>-0.5329888354111911</v>
       </c>
       <c r="E93">
         <v>0.1486957387773379</v>
@@ -3347,7 +3347,7 @@
         <v>0.9888935347239348</v>
       </c>
       <c r="D94">
-        <v>-0.4045149795284075</v>
+        <v>-0.4267325644133926</v>
       </c>
       <c r="E94">
         <v>0.102936860880248</v>
@@ -3373,7 +3373,7 @@
         <v>0.9950653468637475</v>
       </c>
       <c r="D95">
-        <v>-0.4670546613854494</v>
+        <v>-0.5037755663400221</v>
       </c>
       <c r="E95">
         <v>0.06861377340288419</v>
@@ -3399,7 +3399,7 @@
         <v>0.9973595945577209</v>
       </c>
       <c r="D96">
-        <v>-0.4547747268290498</v>
+        <v>-0.4791705615934345</v>
       </c>
       <c r="E96">
         <v>0.0501901274025732</v>
@@ -3425,7 +3425,7 @@
         <v>0.9988493798001606</v>
       </c>
       <c r="D97">
-        <v>-0.4218372229846266</v>
+        <v>-0.4188179716601372</v>
       </c>
       <c r="E97">
         <v>0.03313210168044073</v>
@@ -3451,7 +3451,7 @@
         <v>0.9990530709657559</v>
       </c>
       <c r="D98">
-        <v>-0.354678679598839</v>
+        <v>-0.3172871681284541</v>
       </c>
       <c r="E98">
         <v>0.03005672825913927</v>
@@ -3477,7 +3477,7 @@
         <v>0.9991290539242444</v>
       </c>
       <c r="D99">
-        <v>-0.328276449713097</v>
+        <v>-0.2860936987888498</v>
       </c>
       <c r="E99">
         <v>0.02882561765525643</v>
@@ -3503,7 +3503,7 @@
         <v>0.9991807670266153</v>
       </c>
       <c r="D100">
-        <v>-0.3263910032255108</v>
+        <v>-0.2860638716371886</v>
       </c>
       <c r="E100">
         <v>0.02795675113368657</v>
@@ -3529,7 +3529,7 @@
         <v>0.9991862410468726</v>
       </c>
       <c r="D101">
-        <v>-0.358879571632061</v>
+        <v>-0.3173626510103664</v>
       </c>
       <c r="E101">
         <v>0.02786319269145373</v>
@@ -3555,7 +3555,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D102">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E102">
         <v>0.02786137343906938</v>
@@ -3581,7 +3581,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D103">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E103">
         <v>0.02786137343906938</v>
@@ -3607,7 +3607,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D104">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E104">
         <v>0.02786137343906938</v>
@@ -3633,7 +3633,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D105">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E105">
         <v>0.02786137343906938</v>
@@ -3659,7 +3659,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D106">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E106">
         <v>0.02786137343906938</v>
@@ -3685,7 +3685,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D107">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E107">
         <v>0.02786137343906938</v>
@@ -3711,7 +3711,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D108">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E108">
         <v>0.02786137343906938</v>
@@ -3737,7 +3737,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D109">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E109">
         <v>0.02786137343906938</v>
@@ -3763,7 +3763,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D110">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E110">
         <v>0.02786137343906938</v>
@@ -3789,7 +3789,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D111">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E111">
         <v>0.02786137343906938</v>
@@ -3815,7 +3815,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D112">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E112">
         <v>0.02786137343906938</v>
@@ -3841,7 +3841,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D113">
-        <v>-0.3058286212359345</v>
+        <v>-0.2703124164758564</v>
       </c>
       <c r="E113">
         <v>0.02786137343906938</v>
@@ -3867,7 +3867,7 @@
         <v>0.7038490775287215</v>
       </c>
       <c r="D114">
-        <v>-2.056066212826525</v>
+        <v>0.001875512816833735</v>
       </c>
       <c r="E114">
         <v>0.5315443832147969</v>
@@ -3893,7 +3893,7 @@
         <v>0.7820903031935644</v>
       </c>
       <c r="D115">
-        <v>-0.7057261916565245</v>
+        <v>-0.03530056547687521</v>
       </c>
       <c r="E115">
         <v>0.4559542484544753</v>
@@ -3919,7 +3919,7 @@
         <v>0.8244085856035543</v>
       </c>
       <c r="D116">
-        <v>-0.5830045371967643</v>
+        <v>-0.3242942070553338</v>
       </c>
       <c r="E116">
         <v>0.4092932920784342</v>
@@ -3945,7 +3945,7 @@
         <v>0.8531073760788227</v>
       </c>
       <c r="D117">
-        <v>-0.5400760172816479</v>
+        <v>-0.09822407706274094</v>
       </c>
       <c r="E117">
         <v>0.3743544351663873</v>
@@ -3971,7 +3971,7 @@
         <v>0.8747086048322947</v>
       </c>
       <c r="D118">
-        <v>-0.5361611988050385</v>
+        <v>-0.1223120473262049</v>
       </c>
       <c r="E118">
         <v>0.3457352103006352</v>
@@ -3997,7 +3997,7 @@
         <v>0.9100271934259483</v>
       </c>
       <c r="D119">
-        <v>-0.3618233246014626</v>
+        <v>-0.3379102999253358</v>
       </c>
       <c r="E119">
         <v>0.2929804369865067</v>
@@ -4023,7 +4023,7 @@
         <v>0.9406239460056326</v>
       </c>
       <c r="D120">
-        <v>-0.3466248046076199</v>
+        <v>-0.3759114483891923</v>
       </c>
       <c r="E120">
         <v>0.2380064104365533</v>
@@ -4049,7 +4049,7 @@
         <v>0.9652334281662074</v>
       </c>
       <c r="D121">
-        <v>-0.2166030948474196</v>
+        <v>-0.3139089666786798</v>
       </c>
       <c r="E121">
         <v>0.182122634098675</v>
@@ -4075,7 +4075,7 @@
         <v>0.9805209358687689</v>
       </c>
       <c r="D122">
-        <v>-0.1962597268538284</v>
+        <v>-0.3927588895817746</v>
       </c>
       <c r="E122">
         <v>0.1363223399872756</v>
@@ -4101,7 +4101,7 @@
         <v>0.9885526194764735</v>
       </c>
       <c r="D123">
-        <v>-0.2119039020816169</v>
+        <v>-0.4111684129315709</v>
       </c>
       <c r="E123">
         <v>0.1045047542275121</v>
@@ -4127,7 +4127,7 @@
         <v>0.9938920719164315</v>
       </c>
       <c r="D124">
-        <v>-0.2013803293776681</v>
+        <v>-0.3621766460526346</v>
       </c>
       <c r="E124">
         <v>0.07633609609765743</v>
@@ -4153,7 +4153,7 @@
         <v>0.9978916095180695</v>
       </c>
       <c r="D125">
-        <v>-0.1948174106079987</v>
+        <v>-0.3931056471258509</v>
       </c>
       <c r="E125">
         <v>0.04484959358848416</v>
@@ -4179,7 +4179,7 @@
         <v>0.9986695405061592</v>
       </c>
       <c r="D126">
-        <v>-0.1854247281011225</v>
+        <v>-0.3761390997185845</v>
       </c>
       <c r="E126">
         <v>0.03562737433631172</v>
@@ -4205,7 +4205,7 @@
         <v>0.9989346982023671</v>
       </c>
       <c r="D127">
-        <v>-0.1602197272047174</v>
+        <v>-0.3382899727691704</v>
       </c>
       <c r="E127">
         <v>0.03188007382433572</v>
@@ -4231,7 +4231,7 @@
         <v>0.9990693954034744</v>
       </c>
       <c r="D128">
-        <v>-0.189092309646022</v>
+        <v>-0.3937464927821905</v>
       </c>
       <c r="E128">
         <v>0.02979652276427772</v>
@@ -4257,7 +4257,7 @@
         <v>0.9991670728786544</v>
       </c>
       <c r="D129">
-        <v>-0.1935519161666275</v>
+        <v>-0.3751228748988069</v>
       </c>
       <c r="E129">
         <v>0.02818944271563936</v>
@@ -4283,7 +4283,7 @@
         <v>0.9991844302565096</v>
       </c>
       <c r="D130">
-        <v>-0.1987231624090449</v>
+        <v>-0.3604070930218388</v>
       </c>
       <c r="E130">
         <v>0.02789417629157256</v>
@@ -4309,7 +4309,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D131">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E131">
         <v>0.02786137343906938</v>
@@ -4335,7 +4335,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D132">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E132">
         <v>0.02786137343906938</v>
@@ -4361,7 +4361,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D133">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E133">
         <v>0.02786137343906938</v>
@@ -4387,7 +4387,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D134">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E134">
         <v>0.02786137343906938</v>
@@ -4413,7 +4413,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D135">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E135">
         <v>0.02786137343906938</v>
@@ -4439,7 +4439,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D136">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E136">
         <v>0.02786137343906938</v>
@@ -4465,7 +4465,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D137">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E137">
         <v>0.02786137343906938</v>
@@ -4491,7 +4491,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D138">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E138">
         <v>0.02786137343906938</v>
@@ -4517,7 +4517,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D139">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E139">
         <v>0.02786137343906938</v>
@@ -4543,7 +4543,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D140">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E140">
         <v>0.02786137343906938</v>
@@ -4569,7 +4569,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D141">
-        <v>-0.1960252950468775</v>
+        <v>-0.3920822002919933</v>
       </c>
       <c r="E141">
         <v>0.02786137343906938</v>
@@ -4595,7 +4595,7 @@
         <v>0.7016479383732825</v>
       </c>
       <c r="D142">
-        <v>-1.756577530174897</v>
+        <v>0.1012491492286972</v>
       </c>
       <c r="E142">
         <v>0.5335160758525445</v>
@@ -4621,7 +4621,7 @@
         <v>0.7659304791985087</v>
       </c>
       <c r="D143">
-        <v>-0.06376040921735604</v>
+        <v>0.2678479417225179</v>
       </c>
       <c r="E143">
         <v>0.4725583282813635</v>
@@ -4647,7 +4647,7 @@
         <v>0.8077405728750494</v>
       </c>
       <c r="D144">
-        <v>0.1518583560346126</v>
+        <v>0.2502242191349601</v>
       </c>
       <c r="E144">
         <v>0.4282790300571298</v>
@@ -4673,7 +4673,7 @@
         <v>0.835074098052067</v>
       </c>
       <c r="D145">
-        <v>0.02362687000986197</v>
+        <v>-0.08781729249108006</v>
       </c>
       <c r="E145">
         <v>0.396668233742461</v>
@@ -4699,7 +4699,7 @@
         <v>0.8791855011816134</v>
       </c>
       <c r="D146">
-        <v>-0.3822224702320547</v>
+        <v>-0.03213913301984417</v>
       </c>
       <c r="E146">
         <v>0.3395021405173942</v>
@@ -4725,7 +4725,7 @@
         <v>0.9074846469351778</v>
       </c>
       <c r="D147">
-        <v>0.04203923571628898</v>
+        <v>-0.03414397742047459</v>
       </c>
       <c r="E147">
         <v>0.2970912723757339</v>
@@ -4751,7 +4751,7 @@
         <v>0.9475880617895548</v>
       </c>
       <c r="D148">
-        <v>0.1252077965882108</v>
+        <v>-0.1615058488353238</v>
       </c>
       <c r="E148">
         <v>0.2236135408893024</v>
@@ -4777,7 +4777,7 @@
         <v>0.9739443491818651</v>
       </c>
       <c r="D149">
-        <v>0.02587245277165262</v>
+        <v>-0.5296241100658288</v>
       </c>
       <c r="E149">
         <v>0.157664512101728</v>
@@ -4803,7 +4803,7 @@
         <v>0.9889290312046478</v>
       </c>
       <c r="D150">
-        <v>0.04627633181825452</v>
+        <v>-0.4930888078162894</v>
       </c>
       <c r="E150">
         <v>0.1027722351257104</v>
@@ -4829,7 +4829,7 @@
         <v>0.9957012074993267</v>
       </c>
       <c r="D151">
-        <v>0.0007435553025049169</v>
+        <v>-0.6016303936814433</v>
       </c>
       <c r="E151">
         <v>0.06404072350754296</v>
@@ -4855,7 +4855,7 @@
         <v>0.9986218401505802</v>
       </c>
       <c r="D152">
-        <v>-0.03022088187920957</v>
+        <v>-0.6589475907168869</v>
       </c>
       <c r="E152">
         <v>0.03626041623803025</v>
@@ -4881,7 +4881,7 @@
         <v>0.9990423324353094</v>
       </c>
       <c r="D153">
-        <v>0.01235646448664574</v>
+        <v>-0.544709269486825</v>
       </c>
       <c r="E153">
         <v>0.03022667508869097</v>
@@ -4907,7 +4907,7 @@
         <v>0.9991691233369815</v>
       </c>
       <c r="D154">
-        <v>-0.02815225134509847</v>
+        <v>-0.7004085883387547</v>
       </c>
       <c r="E154">
         <v>0.02815472365499164</v>
@@ -4933,7 +4933,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D155">
-        <v>-0.02803927343584012</v>
+        <v>-0.7005200201292781</v>
       </c>
       <c r="E155">
         <v>0.02786137343906938</v>
@@ -4959,7 +4959,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D156">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E156">
         <v>0.02786137343906938</v>
@@ -4985,7 +4985,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D157">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E157">
         <v>0.02786137343906938</v>
@@ -5011,7 +5011,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D158">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E158">
         <v>0.02786137343906938</v>
@@ -5037,7 +5037,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D159">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E159">
         <v>0.02786137343906938</v>
@@ -5063,7 +5063,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D160">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E160">
         <v>0.02786137343906938</v>
@@ -5089,7 +5089,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D161">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E161">
         <v>0.02786137343906938</v>
@@ -5115,7 +5115,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D162">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E162">
         <v>0.02786137343906938</v>
@@ -5141,7 +5141,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D163">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E163">
         <v>0.02786137343906938</v>
@@ -5167,7 +5167,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D164">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E164">
         <v>0.02786137343906938</v>
@@ -5193,7 +5193,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D165">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E165">
         <v>0.02786137343906938</v>
@@ -5219,7 +5219,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D166">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E166">
         <v>0.02786137343906938</v>
@@ -5245,7 +5245,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D167">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E167">
         <v>0.02786137343906938</v>
@@ -5271,7 +5271,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D168">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E168">
         <v>0.02786137343906938</v>
@@ -5297,7 +5297,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D169">
-        <v>0.005427614894491284</v>
+        <v>-0.6598716208733408</v>
       </c>
       <c r="E169">
         <v>0.02786137343906938</v>
@@ -5323,7 +5323,7 @@
         <v>0.7016479383732825</v>
       </c>
       <c r="D170">
-        <v>-1.756577530174897</v>
+        <v>0.1012491492286972</v>
       </c>
       <c r="E170">
         <v>0.5335160758525445</v>
@@ -5349,7 +5349,7 @@
         <v>0.7659304791985087</v>
       </c>
       <c r="D171">
-        <v>-0.06376040921735671</v>
+        <v>0.267847941722519</v>
       </c>
       <c r="E171">
         <v>0.4725583282813635</v>
@@ -5375,7 +5375,7 @@
         <v>0.8077405728750494</v>
       </c>
       <c r="D172">
-        <v>0.1518583560346125</v>
+        <v>0.2502242191349593</v>
       </c>
       <c r="E172">
         <v>0.4282790300571298</v>
@@ -5401,7 +5401,7 @@
         <v>0.835074098052067</v>
       </c>
       <c r="D173">
-        <v>0.02362687000986186</v>
+        <v>-0.08781729249108006</v>
       </c>
       <c r="E173">
         <v>0.396668233742461</v>
@@ -5427,7 +5427,7 @@
         <v>0.8791855011816134</v>
       </c>
       <c r="D174">
-        <v>-0.3743237239382629</v>
+        <v>-0.03225882510159295</v>
       </c>
       <c r="E174">
         <v>0.3395021405173942</v>
@@ -5453,7 +5453,7 @@
         <v>0.9074846469351778</v>
       </c>
       <c r="D175">
-        <v>0.04492657548749879</v>
+        <v>-0.03424193875416393</v>
       </c>
       <c r="E175">
         <v>0.2970912723757339</v>
@@ -5479,7 +5479,7 @@
         <v>0.9475880617895548</v>
       </c>
       <c r="D176">
-        <v>0.1278583581092732</v>
+        <v>-0.1616155935646428</v>
       </c>
       <c r="E176">
         <v>0.2236135408893024</v>
@@ -5505,7 +5505,7 @@
         <v>0.9739443491818651</v>
       </c>
       <c r="D177">
-        <v>-0.00929620870654202</v>
+        <v>-0.5791407131160895</v>
       </c>
       <c r="E177">
         <v>0.157664512101728</v>
@@ -5531,7 +5531,7 @@
         <v>0.9889290312046478</v>
       </c>
       <c r="D178">
-        <v>0.001130847706446336</v>
+        <v>-0.5294248576332776</v>
       </c>
       <c r="E178">
         <v>0.1027722351257104</v>
@@ -5557,7 +5557,7 @@
         <v>0.9957012074993267</v>
       </c>
       <c r="D179">
-        <v>0.1360337836809862</v>
+        <v>-0.2712350403441643</v>
       </c>
       <c r="E179">
         <v>0.06404072350754295</v>
@@ -5583,7 +5583,7 @@
         <v>0.9986218401505802</v>
       </c>
       <c r="D180">
-        <v>0.05749926343477285</v>
+        <v>-0.5146098955062799</v>
       </c>
       <c r="E180">
         <v>0.03626041623803025</v>
@@ -5609,7 +5609,7 @@
         <v>0.9990423324353094</v>
       </c>
       <c r="D181">
-        <v>0.03376960798891948</v>
+        <v>-0.4663968069493103</v>
       </c>
       <c r="E181">
         <v>0.03022667508869097</v>
@@ -5635,7 +5635,7 @@
         <v>0.9991691233369815</v>
       </c>
       <c r="D182">
-        <v>0.08460235696013152</v>
+        <v>-0.3896614420264994</v>
       </c>
       <c r="E182">
         <v>0.02815472365499164</v>
@@ -5661,7 +5661,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D183">
-        <v>0.1191303216865947</v>
+        <v>-0.3475528813660858</v>
       </c>
       <c r="E183">
         <v>0.02786137343906938</v>
@@ -5687,7 +5687,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D184">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E184">
         <v>0.02786137343906938</v>
@@ -5713,7 +5713,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D185">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E185">
         <v>0.02786137343906938</v>
@@ -5739,7 +5739,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D186">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E186">
         <v>0.02786137343906938</v>
@@ -5765,7 +5765,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D187">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E187">
         <v>0.02786137343906938</v>
@@ -5791,7 +5791,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D188">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E188">
         <v>0.02786137343906938</v>
@@ -5817,7 +5817,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D189">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E189">
         <v>0.02786137343906938</v>
@@ -5843,7 +5843,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D190">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E190">
         <v>0.02786137343906938</v>
@@ -5869,7 +5869,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D191">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E191">
         <v>0.02786137343906938</v>
@@ -5895,7 +5895,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D192">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E192">
         <v>0.02786137343906938</v>
@@ -5921,7 +5921,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D193">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E193">
         <v>0.02786137343906938</v>
@@ -5947,7 +5947,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D194">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E194">
         <v>0.02786137343906938</v>
@@ -5973,7 +5973,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D195">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E195">
         <v>0.02786137343906938</v>
@@ -5999,7 +5999,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D196">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E196">
         <v>0.02786137343906938</v>
@@ -6025,7 +6025,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D197">
-        <v>0.08443377118790896</v>
+        <v>-0.3893409696833923</v>
       </c>
       <c r="E197">
         <v>0.02786137343906938</v>
@@ -6051,7 +6051,7 @@
         <v>0.7016479383732827</v>
       </c>
       <c r="D198">
-        <v>-1.756577530174896</v>
+        <v>0.1012491492286955</v>
       </c>
       <c r="E198">
         <v>0.5335160758525443</v>
@@ -6077,7 +6077,7 @@
         <v>0.7584657329555732</v>
       </c>
       <c r="D199">
-        <v>-0.06372603079682948</v>
+        <v>0.2678481821702212</v>
       </c>
       <c r="E199">
         <v>0.4800344052083473</v>
@@ -6103,7 +6103,7 @@
         <v>0.8079871825361942</v>
       </c>
       <c r="D200">
-        <v>-0.06647138912855843</v>
+        <v>-0.05090862790406137</v>
       </c>
       <c r="E200">
         <v>0.4280042668411961</v>
@@ -6129,7 +6129,7 @@
         <v>0.8350671082400729</v>
       </c>
       <c r="D201">
-        <v>0.07027881794775448</v>
+        <v>0.1999630252983869</v>
       </c>
       <c r="E201">
         <v>0.3966766393566448</v>
@@ -6155,7 +6155,7 @@
         <v>0.8755403214236359</v>
       </c>
       <c r="D202">
-        <v>-0.2255613497474473</v>
+        <v>-0.3193108923542178</v>
       </c>
       <c r="E202">
         <v>0.3445857597949138</v>
@@ -6181,7 +6181,7 @@
         <v>0.8998675133813597</v>
       </c>
       <c r="D203">
-        <v>-0.04960486917658469</v>
+        <v>0.09475219880344521</v>
       </c>
       <c r="E203">
         <v>0.3090797050348676</v>
@@ -6207,7 +6207,7 @@
         <v>0.9218477411415572</v>
       </c>
       <c r="D204">
-        <v>-0.6278073975779366</v>
+        <v>-0.5736466149120325</v>
       </c>
       <c r="E204">
         <v>0.2730572776362528</v>
@@ -6233,7 +6233,7 @@
         <v>0.9389287532917932</v>
       </c>
       <c r="D205">
-        <v>-0.2957834845679643</v>
+        <v>-0.406668449085019</v>
       </c>
       <c r="E205">
         <v>0.2413800546980587</v>
@@ -6259,7 +6259,7 @@
         <v>0.9515366325754018</v>
       </c>
       <c r="D206">
-        <v>-0.1104111942600006</v>
+        <v>-0.004550943086289783</v>
       </c>
       <c r="E206">
         <v>0.2150254088699181</v>
@@ -6285,7 +6285,7 @@
         <v>0.9603572366006677</v>
       </c>
       <c r="D207">
-        <v>-0.3864222291628758</v>
+        <v>-0.4863267047373685</v>
       </c>
       <c r="E207">
         <v>0.1944755232738151</v>
@@ -6311,7 +6311,7 @@
         <v>0.9716186292521021</v>
       </c>
       <c r="D208">
-        <v>-0.1528474284833128</v>
+        <v>-0.1599817969981985</v>
       </c>
       <c r="E208">
         <v>0.1645506764436239</v>
@@ -6337,7 +6337,7 @@
         <v>0.9803445480695825</v>
       </c>
       <c r="D209">
-        <v>-0.05831720979302557</v>
+        <v>-0.06595190924728089</v>
       </c>
       <c r="E209">
         <v>0.1369381654632129</v>
@@ -6363,7 +6363,7 @@
         <v>0.9886054058940892</v>
       </c>
       <c r="D210">
-        <v>-0.4133281558691726</v>
+        <v>-0.2900971367083431</v>
       </c>
       <c r="E210">
         <v>0.1042635284874393</v>
@@ -6389,7 +6389,7 @@
         <v>0.9965590890047711</v>
       </c>
       <c r="D211">
-        <v>-0.2001909879402259</v>
+        <v>-0.1405059312272701</v>
       </c>
       <c r="E211">
         <v>0.05729539370148392</v>
@@ -6415,7 +6415,7 @@
         <v>0.9985679455474831</v>
       </c>
       <c r="D212">
-        <v>-0.1038897757892263</v>
+        <v>-0.1152680059047086</v>
       </c>
       <c r="E212">
         <v>0.03696262059238344</v>
@@ -6441,7 +6441,7 @@
         <v>0.9990405895073615</v>
       </c>
       <c r="D213">
-        <v>-0.1097681898887379</v>
+        <v>-0.1132089969151642</v>
       </c>
       <c r="E213">
         <v>0.03025416843301955</v>
@@ -6467,7 +6467,7 @@
         <v>0.9991686436292508</v>
       </c>
       <c r="D214">
-        <v>-0.1930551303327233</v>
+        <v>-0.1407795252949025</v>
       </c>
       <c r="E214">
         <v>0.02816285006551994</v>
@@ -6493,7 +6493,7 @@
         <v>0.9991816369982079</v>
       </c>
       <c r="D215">
-        <v>-0.1133531065968914</v>
+        <v>-0.1128569630188443</v>
       </c>
       <c r="E215">
         <v>0.02794190307427574</v>
@@ -6519,7 +6519,7 @@
         <v>0.9991844333442849</v>
       </c>
       <c r="D216">
-        <v>-0.4169731034934696</v>
+        <v>-0.2898942891038616</v>
       </c>
       <c r="E216">
         <v>0.02789412348736464</v>
@@ -6545,7 +6545,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D217">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E217">
         <v>0.02786137343906938</v>
@@ -6571,7 +6571,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D218">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E218">
         <v>0.02786137343906938</v>
@@ -6597,7 +6597,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D219">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E219">
         <v>0.02786137343906938</v>
@@ -6623,7 +6623,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D220">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E220">
         <v>0.02786137343906938</v>
@@ -6649,7 +6649,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D221">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E221">
         <v>0.02786137343906938</v>
@@ -6675,7 +6675,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D222">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E222">
         <v>0.02786137343906938</v>
@@ -6701,7 +6701,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D223">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E223">
         <v>0.02786137343906938</v>
@@ -6727,7 +6727,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D224">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E224">
         <v>0.02786137343906938</v>
@@ -6753,7 +6753,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D225">
-        <v>-0.1045061496094986</v>
+        <v>-0.113958592292513</v>
       </c>
       <c r="E225">
         <v>0.02786137343906938</v>
@@ -6779,7 +6779,7 @@
         <v>0.6856329136638537</v>
       </c>
       <c r="D226">
-        <v>-1.925848922046767</v>
+        <v>0.09796947464262307</v>
       </c>
       <c r="E226">
         <v>0.5476480220178255</v>
@@ -6805,7 +6805,7 @@
         <v>0.7653647622644211</v>
       </c>
       <c r="D227">
-        <v>-0.07353866240895979</v>
+        <v>0.2677365398426814</v>
       </c>
       <c r="E227">
         <v>0.4731290410213845</v>
@@ -6831,7 +6831,7 @@
         <v>0.8078084229245772</v>
       </c>
       <c r="D228">
-        <v>-0.06647138912855777</v>
+        <v>-0.05090862790406203</v>
       </c>
       <c r="E228">
         <v>0.4282034516627154</v>
@@ -6857,7 +6857,7 @@
         <v>0.83505341963732</v>
       </c>
       <c r="D229">
-        <v>0.07027881794775448</v>
+        <v>0.1999630252983869</v>
       </c>
       <c r="E229">
         <v>0.3966931001008286</v>
@@ -6883,7 +6883,7 @@
         <v>0.8755412753151958</v>
       </c>
       <c r="D230">
-        <v>-0.7274259848556301</v>
+        <v>-0.09459104334451252</v>
       </c>
       <c r="E230">
         <v>0.3445844392946462</v>
@@ -6909,7 +6909,7 @@
         <v>0.8998680909839192</v>
       </c>
       <c r="D231">
-        <v>-0.2064953460197574</v>
+        <v>-0.1615831462188722</v>
       </c>
       <c r="E231">
         <v>0.3090788135884842</v>
@@ -6935,7 +6935,7 @@
         <v>0.9206270312464682</v>
       </c>
       <c r="D232">
-        <v>-0.08059120652215657</v>
+        <v>0.02302835018475591</v>
       </c>
       <c r="E232">
         <v>0.2751815424611838</v>
@@ -6961,7 +6961,7 @@
         <v>0.9294975254062275</v>
       </c>
       <c r="D233">
-        <v>-0.07068889834500269</v>
+        <v>-0.176700036754593</v>
       </c>
       <c r="E233">
         <v>0.2593493529717259</v>
@@ -6987,7 +6987,7 @@
         <v>0.9382788155032603</v>
       </c>
       <c r="D234">
-        <v>0.1203590610906289</v>
+        <v>0.1083832492426747</v>
       </c>
       <c r="E234">
         <v>0.2426610734903533</v>
@@ -7013,7 +7013,7 @@
         <v>0.9511834218157192</v>
       </c>
       <c r="D235">
-        <v>0.2218068143374047</v>
+        <v>0.1433296594123585</v>
       </c>
       <c r="E235">
         <v>0.2158075605303001</v>
@@ -7039,7 +7039,7 @@
         <v>0.9630375697445037</v>
       </c>
       <c r="D236">
-        <v>0.3581381157291855</v>
+        <v>0.2316803575891615</v>
       </c>
       <c r="E236">
         <v>0.187786015700757</v>
@@ -7065,7 +7065,7 @@
         <v>0.9736442594167397</v>
       </c>
       <c r="D237">
-        <v>0.3539407204866992</v>
+        <v>0.1991743142483186</v>
       </c>
       <c r="E237">
         <v>0.1585698445978889</v>
@@ -7091,7 +7091,7 @@
         <v>0.9886001633000945</v>
       </c>
       <c r="D238">
-        <v>0.2832905398429565</v>
+        <v>0.2762337121586284</v>
       </c>
       <c r="E238">
         <v>0.1042875112850901</v>
@@ -7117,7 +7117,7 @@
         <v>0.997084291504942</v>
       </c>
       <c r="D239">
-        <v>0.3253360065248514</v>
+        <v>0.1633078037212488</v>
       </c>
       <c r="E239">
         <v>0.05274181117672253</v>
@@ -7143,7 +7143,7 @@
         <v>0.9987006381703561</v>
       </c>
       <c r="D240">
-        <v>0.2235707468784024</v>
+        <v>0.172740038451078</v>
       </c>
       <c r="E240">
         <v>0.03520854197492534</v>
@@ -7169,7 +7169,7 @@
         <v>0.9991334754435315</v>
       </c>
       <c r="D241">
-        <v>0.2967474210661228</v>
+        <v>0.1143550058614027</v>
       </c>
       <c r="E241">
         <v>0.02875235525726514</v>
@@ -7195,7 +7195,7 @@
         <v>0.9991821192071485</v>
       </c>
       <c r="D242">
-        <v>0.2633368266651999</v>
+        <v>0.2370812982586096</v>
       </c>
       <c r="E242">
         <v>0.02793366967366366</v>
@@ -7221,7 +7221,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D243">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E243">
         <v>0.02786137343906938</v>
@@ -7247,7 +7247,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D244">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E244">
         <v>0.02786137343906938</v>
@@ -7273,7 +7273,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D245">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E245">
         <v>0.02786137343906938</v>
@@ -7299,7 +7299,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D246">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E246">
         <v>0.02786137343906938</v>
@@ -7325,7 +7325,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D247">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E247">
         <v>0.02786137343906938</v>
@@ -7351,7 +7351,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D248">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E248">
         <v>0.02786137343906938</v>
@@ -7377,7 +7377,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D249">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E249">
         <v>0.02786137343906938</v>
@@ -7403,7 +7403,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D250">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E250">
         <v>0.02786137343906938</v>
@@ -7429,7 +7429,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D251">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E251">
         <v>0.02786137343906938</v>
@@ -7455,7 +7455,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D252">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E252">
         <v>0.02786137343906938</v>
@@ -7481,7 +7481,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D253">
-        <v>0.3199803334098632</v>
+        <v>0.1612302117142069</v>
       </c>
       <c r="E253">
         <v>0.02786137343906938</v>
@@ -7507,7 +7507,7 @@
         <v>0.673193290849615</v>
       </c>
       <c r="D254">
-        <v>-1.920236139056688</v>
+        <v>0.09808719959459999</v>
       </c>
       <c r="E254">
         <v>0.558378220553627</v>
@@ -7533,7 +7533,7 @@
         <v>0.7579417360155253</v>
       </c>
       <c r="D255">
-        <v>-0.04592041045424766</v>
+        <v>0.2678227518248578</v>
       </c>
       <c r="E255">
         <v>0.4805548288447073</v>
@@ -7559,7 +7559,7 @@
         <v>0.8078230105746393</v>
       </c>
       <c r="D256">
-        <v>0.156068845954931</v>
+        <v>0.2501259821503643</v>
       </c>
       <c r="E256">
         <v>0.4281872006887203</v>
@@ -7585,7 +7585,7 @@
         <v>0.8350603384664979</v>
       </c>
       <c r="D257">
-        <v>0.02226449959263133</v>
+        <v>-0.08777522856204056</v>
       </c>
       <c r="E257">
         <v>0.3966847801933412</v>
@@ -7611,7 +7611,7 @@
         <v>0.8755415428497306</v>
       </c>
       <c r="D258">
-        <v>-0.1398404400507403</v>
+        <v>-0.3130530653391657</v>
       </c>
       <c r="E258">
         <v>0.3445840689377772</v>
@@ -7637,7 +7637,7 @@
         <v>0.8988449642067992</v>
       </c>
       <c r="D259">
-        <v>0.06372982636979485</v>
+        <v>0.124999686546506</v>
       </c>
       <c r="E259">
         <v>0.3106538516032855</v>
@@ -7663,7 +7663,7 @@
         <v>0.9206208223270829</v>
       </c>
       <c r="D260">
-        <v>0.01352168770091466</v>
+        <v>0.02928617719980864</v>
       </c>
       <c r="E260">
         <v>0.275192305234886</v>
@@ -7689,7 +7689,7 @@
         <v>0.9276059753281384</v>
       </c>
       <c r="D261">
-        <v>0.1289429346176901</v>
+        <v>0.1857360718224452</v>
       </c>
       <c r="E261">
         <v>0.2628054390648271</v>
@@ -7715,7 +7715,7 @@
         <v>0.9439674184864137</v>
       </c>
       <c r="D262">
-        <v>0.0931296097090355</v>
+        <v>0.05246291029162287</v>
       </c>
       <c r="E262">
         <v>0.2312082381316256</v>
@@ -7741,7 +7741,7 @@
         <v>0.9634181499291431</v>
       </c>
       <c r="D263">
-        <v>0.2422747327436439</v>
+        <v>0.2171819626323559</v>
       </c>
       <c r="E263">
         <v>0.1868167537473471</v>
@@ -7767,7 +7767,7 @@
         <v>0.9783836008281096</v>
       </c>
       <c r="D264">
-        <v>0.1591826097916645</v>
+        <v>0.03849519443892924</v>
       </c>
       <c r="E264">
         <v>0.1436066873543403</v>
@@ -7793,7 +7793,7 @@
         <v>0.9862556890907479</v>
       </c>
       <c r="D265">
-        <v>0.07356551033716818</v>
+        <v>-0.06450996225328476</v>
       </c>
       <c r="E265">
         <v>0.1145102792753205</v>
@@ -7819,7 +7819,7 @@
         <v>0.9907104384275813</v>
       </c>
       <c r="D266">
-        <v>0.04088498603053647</v>
+        <v>-0.1382347957131029</v>
       </c>
       <c r="E266">
         <v>0.09414138803019118</v>
@@ -7845,7 +7845,7 @@
         <v>0.9935006692574361</v>
       </c>
       <c r="D267">
-        <v>0.05932198326433413</v>
+        <v>-0.1319410573976723</v>
       </c>
       <c r="E267">
         <v>0.07874397017237533</v>
@@ -7871,7 +7871,7 @@
         <v>0.996888100565156</v>
       </c>
       <c r="D268">
-        <v>0.07209785734392471</v>
+        <v>-0.112758515557696</v>
       </c>
       <c r="E268">
         <v>0.05448735990013193</v>
@@ -7897,7 +7897,7 @@
         <v>0.9990121611054981</v>
       </c>
       <c r="D269">
-        <v>0.08186798115335536</v>
+        <v>-0.09408734481273839</v>
       </c>
       <c r="E269">
         <v>0.03069912868786864</v>
@@ -7923,7 +7923,7 @@
         <v>0.9991661596528888</v>
       </c>
       <c r="D270">
-        <v>-0.02946112632145437</v>
+        <v>-0.03254168214565833</v>
       </c>
       <c r="E270">
         <v>0.02820489201025862</v>
@@ -7949,7 +7949,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D271">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E271">
         <v>0.02786137343906938</v>
@@ -7975,7 +7975,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D272">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E272">
         <v>0.02786137343906938</v>
@@ -8001,7 +8001,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D273">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E273">
         <v>0.02786137343906938</v>
@@ -8027,7 +8027,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D274">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E274">
         <v>0.02786137343906938</v>
@@ -8053,7 +8053,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D275">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E275">
         <v>0.02786137343906938</v>
@@ -8079,7 +8079,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D276">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E276">
         <v>0.02786137343906938</v>
@@ -8105,7 +8105,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D277">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E277">
         <v>0.02786137343906938</v>
@@ -8131,7 +8131,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D278">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E278">
         <v>0.02786137343906938</v>
@@ -8157,7 +8157,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D279">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E279">
         <v>0.02786137343906938</v>
@@ -8183,7 +8183,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D280">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E280">
         <v>0.02786137343906938</v>
@@ -8209,7 +8209,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D281">
-        <v>0.06563631822526617</v>
+        <v>-0.1218754048942008</v>
       </c>
       <c r="E281">
         <v>0.02786137343906938</v>
@@ -8235,7 +8235,7 @@
         <v>0.673193290849615</v>
       </c>
       <c r="D282">
-        <v>-1.920236139056688</v>
+        <v>0.09808719959459999</v>
       </c>
       <c r="E282">
         <v>0.558378220553627</v>
@@ -8261,7 +8261,7 @@
         <v>0.7579417360155254</v>
       </c>
       <c r="D283">
-        <v>-0.04592041045424722</v>
+        <v>0.267822751824856</v>
       </c>
       <c r="E283">
         <v>0.4805548288447072</v>
@@ -8287,7 +8287,7 @@
         <v>0.8078230105746392</v>
       </c>
       <c r="D284">
-        <v>0.1560688459549312</v>
+        <v>0.250125982150363</v>
       </c>
       <c r="E284">
         <v>0.4281872006887204</v>
@@ -8313,7 +8313,7 @@
         <v>0.8350603384664979</v>
       </c>
       <c r="D285">
-        <v>0.02226449959263133</v>
+        <v>-0.08777522856204056</v>
       </c>
       <c r="E285">
         <v>0.3966847801933412</v>
@@ -8339,7 +8339,7 @@
         <v>0.8755415428497306</v>
       </c>
       <c r="D286">
-        <v>-0.03857537816425882</v>
+        <v>-0.01844301548082705</v>
       </c>
       <c r="E286">
         <v>0.3445840689377772</v>
@@ -8365,7 +8365,7 @@
         <v>0.8988449642067992</v>
       </c>
       <c r="D287">
-        <v>-0.2141170812112703</v>
+        <v>-0.1100650324268557</v>
       </c>
       <c r="E287">
         <v>0.3106538516032855</v>
@@ -8391,7 +8391,7 @@
         <v>0.9181597337475924</v>
       </c>
       <c r="D288">
-        <v>-0.02420956402535279</v>
+        <v>-0.04820059775040875</v>
       </c>
       <c r="E288">
         <v>0.2794258014722665</v>
@@ -8417,7 +8417,7 @@
         <v>0.9439569778520016</v>
       </c>
       <c r="D289">
-        <v>0.007702214821851405</v>
+        <v>-0.16441541210016</v>
       </c>
       <c r="E289">
         <v>0.2312297778160685</v>
@@ -8443,7 +8443,7 @@
         <v>0.9587998546598687</v>
       </c>
       <c r="D290">
-        <v>0.1212598949189184</v>
+        <v>-0.1911245027342297</v>
       </c>
       <c r="E290">
         <v>0.1982587494753989</v>
@@ -8469,7 +8469,7 @@
         <v>0.9726142087976901</v>
       </c>
       <c r="D291">
-        <v>0.2525894464724188</v>
+        <v>-0.02060457029044782</v>
       </c>
       <c r="E291">
         <v>0.1616388064030891</v>
@@ -8495,7 +8495,7 @@
         <v>0.9775007691399464</v>
       </c>
       <c r="D292">
-        <v>0.2705963875830901</v>
+        <v>-0.006992655813776283</v>
       </c>
       <c r="E292">
         <v>0.1465098502487566</v>
@@ -8521,7 +8521,7 @@
         <v>0.9838212512594586</v>
       </c>
       <c r="D293">
-        <v>0.1282725029972528</v>
+        <v>-0.2043572236372087</v>
       </c>
       <c r="E293">
         <v>0.1242382867048212</v>
@@ -8547,7 +8547,7 @@
         <v>0.9959082880238702</v>
       </c>
       <c r="D294">
-        <v>0.2391385673614486</v>
+        <v>-0.06635370739010926</v>
       </c>
       <c r="E294">
         <v>0.06247920805961826</v>
@@ -8573,7 +8573,7 @@
         <v>0.9989087396855826</v>
       </c>
       <c r="D295">
-        <v>0.2362815763242569</v>
+        <v>-0.09276562566571434</v>
       </c>
       <c r="E295">
         <v>0.03226615154922251</v>
@@ -8599,7 +8599,7 @@
         <v>0.9991758337404403</v>
       </c>
       <c r="D296">
-        <v>0.2358844210019948</v>
+        <v>-0.07250566085016175</v>
       </c>
       <c r="E296">
         <v>0.02804080026885171</v>
@@ -8625,7 +8625,7 @@
         <v>0.9991834564613722</v>
       </c>
       <c r="D297">
-        <v>0.2388054915622186</v>
+        <v>-0.08424400575963764</v>
       </c>
       <c r="E297">
         <v>0.02791082423004122</v>
@@ -8651,7 +8651,7 @@
         <v>0.9991848848932182</v>
       </c>
       <c r="D298">
-        <v>0.2388054915622186</v>
+        <v>-0.08424400575963764</v>
       </c>
       <c r="E298">
         <v>0.0278864004487119</v>
@@ -8677,7 +8677,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D299">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E299">
         <v>0.02786137343906938</v>
@@ -8703,7 +8703,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D300">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E300">
         <v>0.02786137343906938</v>
@@ -8729,7 +8729,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D301">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E301">
         <v>0.02786137343906938</v>
@@ -8755,7 +8755,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D302">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E302">
         <v>0.02786137343906938</v>
@@ -8781,7 +8781,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D303">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E303">
         <v>0.02786137343906938</v>
@@ -8807,7 +8807,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D304">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E304">
         <v>0.02786137343906938</v>
@@ -8833,7 +8833,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D305">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E305">
         <v>0.02786137343906938</v>
@@ -8859,7 +8859,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D306">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E306">
         <v>0.02786137343906938</v>
@@ -8885,7 +8885,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D307">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E307">
         <v>0.02786137343906938</v>
@@ -8911,7 +8911,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D308">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E308">
         <v>0.02786137343906938</v>
@@ -8937,7 +8937,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D309">
-        <v>0.2458957802343187</v>
+        <v>-0.1304488752068786</v>
       </c>
       <c r="E309">
         <v>0.02786137343906938</v>
@@ -8963,7 +8963,7 @@
         <v>0.673193290849615</v>
       </c>
       <c r="D310">
-        <v>-1.92023613905669</v>
+        <v>0.09808719959460066</v>
       </c>
       <c r="E310">
         <v>0.558378220553627</v>
@@ -8989,7 +8989,7 @@
         <v>0.7579417360155254</v>
       </c>
       <c r="D311">
-        <v>-0.04592041045424677</v>
+        <v>0.2678227518248548</v>
       </c>
       <c r="E311">
         <v>0.4805548288447072</v>
@@ -9015,7 +9015,7 @@
         <v>0.8078230105746393</v>
       </c>
       <c r="D312">
-        <v>-0.3056089378007669</v>
+        <v>0.1802357813017325</v>
       </c>
       <c r="E312">
         <v>0.4281872006887203</v>
@@ -9041,7 +9041,7 @@
         <v>0.8350603384664979</v>
       </c>
       <c r="D313">
-        <v>0.1567230995520109</v>
+        <v>0.2062463925887289</v>
       </c>
       <c r="E313">
         <v>0.3966847801933412</v>
@@ -9067,7 +9067,7 @@
         <v>0.8755415428497306</v>
       </c>
       <c r="D314">
-        <v>-0.03857537816425816</v>
+        <v>-0.01844301548082772</v>
       </c>
       <c r="E314">
         <v>0.3445840689377772</v>
@@ -9093,7 +9093,7 @@
         <v>0.8988449642067992</v>
       </c>
       <c r="D315">
-        <v>-0.4304040745444344</v>
+        <v>-0.2396201418765103</v>
       </c>
       <c r="E315">
         <v>0.3106538516032855</v>
@@ -9119,7 +9119,7 @@
         <v>0.9181597337475924</v>
       </c>
       <c r="D316">
-        <v>-0.3826719860678423</v>
+        <v>-0.1180907985990405</v>
       </c>
       <c r="E316">
         <v>0.2794258014722665</v>
@@ -9145,7 +9145,7 @@
         <v>0.9439569778520016</v>
       </c>
       <c r="D317">
-        <v>-0.3161811620472885</v>
+        <v>-0.2489050243294604</v>
       </c>
       <c r="E317">
         <v>0.2312297778160685</v>
@@ -9171,7 +9171,7 @@
         <v>0.9587998546598687</v>
       </c>
       <c r="D318">
-        <v>-0.01839869092598634</v>
+        <v>-0.1020751371710096</v>
       </c>
       <c r="E318">
         <v>0.1982587494753989</v>
@@ -9197,7 +9197,7 @@
         <v>0.9726142087976901</v>
       </c>
       <c r="D319">
-        <v>-0.009906097945449943</v>
+        <v>-0.1389373835190446</v>
       </c>
       <c r="E319">
         <v>0.1616388064030891</v>
@@ -9223,7 +9223,7 @@
         <v>0.9775007691399464</v>
       </c>
       <c r="D320">
-        <v>-0.06108231589792523</v>
+        <v>-0.2418309070124822</v>
       </c>
       <c r="E320">
         <v>0.1465098502487566</v>
@@ -9249,7 +9249,7 @@
         <v>0.9833670476207492</v>
       </c>
       <c r="D321">
-        <v>0.08178411686588904</v>
+        <v>-0.1709469966865138</v>
       </c>
       <c r="E321">
         <v>0.1259701540739064</v>
@@ -9275,7 +9275,7 @@
         <v>0.9956880814203907</v>
       </c>
       <c r="D322">
-        <v>-0.06061525234855925</v>
+        <v>-0.1503721020077926</v>
       </c>
       <c r="E322">
         <v>0.06413842104559125</v>
@@ -9301,7 +9301,7 @@
         <v>0.9988859406489651</v>
       </c>
       <c r="D323">
-        <v>-0.04464226875620558</v>
+        <v>-0.1279612035664541</v>
       </c>
       <c r="E323">
         <v>0.03260146773233689</v>
@@ -9327,7 +9327,7 @@
         <v>0.9991758337404403</v>
       </c>
       <c r="D324">
-        <v>-0.04538662377634206</v>
+        <v>-0.1279657397771434</v>
       </c>
       <c r="E324">
         <v>0.02804080026885171</v>
@@ -9353,7 +9353,7 @@
         <v>0.9991834564613722</v>
       </c>
       <c r="D325">
-        <v>-0.1932880212550296</v>
+        <v>-0.06838477059370218</v>
       </c>
       <c r="E325">
         <v>0.02791082423004122</v>
@@ -9379,7 +9379,7 @@
         <v>0.9991848848932182</v>
       </c>
       <c r="D326">
-        <v>-0.03803954724677583</v>
+        <v>-0.1397040846866193</v>
       </c>
       <c r="E326">
         <v>0.0278864004487119</v>
@@ -9405,7 +9405,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D327">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E327">
         <v>0.02786137343906938</v>
@@ -9431,7 +9431,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D328">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E328">
         <v>0.02786137343906938</v>
@@ -9457,7 +9457,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D329">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E329">
         <v>0.02786137343906938</v>
@@ -9483,7 +9483,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D330">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E330">
         <v>0.02786137343906938</v>
@@ -9509,7 +9509,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D331">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E331">
         <v>0.02786137343906938</v>
@@ -9535,7 +9535,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D332">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E332">
         <v>0.02786137343906938</v>
@@ -9561,7 +9561,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D333">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E333">
         <v>0.02786137343906938</v>
@@ -9587,7 +9587,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D334">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E334">
         <v>0.02786137343906938</v>
@@ -9613,7 +9613,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D335">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E335">
         <v>0.02786137343906938</v>
@@ -9639,7 +9639,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D336">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E336">
         <v>0.02786137343906938</v>
@@ -9665,7 +9665,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D337">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E337">
         <v>0.02786137343906938</v>
@@ -9691,7 +9691,7 @@
         <v>0.673193290849615</v>
       </c>
       <c r="D338">
-        <v>-1.92023613905669</v>
+        <v>0.09808719959460066</v>
       </c>
       <c r="E338">
         <v>0.558378220553627</v>
@@ -9717,7 +9717,7 @@
         <v>0.7579417360155254</v>
       </c>
       <c r="D339">
-        <v>-0.04592041045424677</v>
+        <v>0.2678227518248548</v>
       </c>
       <c r="E339">
         <v>0.4805548288447072</v>
@@ -9743,7 +9743,7 @@
         <v>0.8078230105746393</v>
       </c>
       <c r="D340">
-        <v>-0.3056089378007669</v>
+        <v>0.1802357813017325</v>
       </c>
       <c r="E340">
         <v>0.4281872006887203</v>
@@ -9769,7 +9769,7 @@
         <v>0.8350603384664979</v>
       </c>
       <c r="D341">
-        <v>0.1567230995520109</v>
+        <v>0.2062463925887289</v>
       </c>
       <c r="E341">
         <v>0.3966847801933412</v>
@@ -9795,7 +9795,7 @@
         <v>0.8755415428497306</v>
       </c>
       <c r="D342">
-        <v>-0.03857537816425816</v>
+        <v>-0.01844301548082772</v>
       </c>
       <c r="E342">
         <v>0.3445840689377772</v>
@@ -9821,7 +9821,7 @@
         <v>0.8988449642067992</v>
       </c>
       <c r="D343">
-        <v>-0.4304040745444344</v>
+        <v>-0.2396201418765103</v>
       </c>
       <c r="E343">
         <v>0.3106538516032855</v>
@@ -9847,7 +9847,7 @@
         <v>0.9181597337475924</v>
       </c>
       <c r="D344">
-        <v>-0.3826719860678423</v>
+        <v>-0.1180907985990405</v>
       </c>
       <c r="E344">
         <v>0.2794258014722665</v>
@@ -9873,7 +9873,7 @@
         <v>0.9439569778520016</v>
       </c>
       <c r="D345">
-        <v>-0.3161811620472885</v>
+        <v>-0.2489050243294604</v>
       </c>
       <c r="E345">
         <v>0.2312297778160685</v>
@@ -9899,7 +9899,7 @@
         <v>0.9587998546598687</v>
       </c>
       <c r="D346">
-        <v>-0.01839869092598634</v>
+        <v>-0.1020751371710096</v>
       </c>
       <c r="E346">
         <v>0.1982587494753989</v>
@@ -9925,7 +9925,7 @@
         <v>0.9726142087976901</v>
       </c>
       <c r="D347">
-        <v>-0.009906097945449943</v>
+        <v>-0.1389373835190446</v>
       </c>
       <c r="E347">
         <v>0.1616388064030891</v>
@@ -9951,7 +9951,7 @@
         <v>0.9775007691399464</v>
       </c>
       <c r="D348">
-        <v>-0.06108231589792523</v>
+        <v>-0.2418309070124822</v>
       </c>
       <c r="E348">
         <v>0.1465098502487566</v>
@@ -9977,7 +9977,7 @@
         <v>0.9833670476207492</v>
       </c>
       <c r="D349">
-        <v>0.08178411686588904</v>
+        <v>-0.1709469966865138</v>
       </c>
       <c r="E349">
         <v>0.1259701540739064</v>
@@ -10003,7 +10003,7 @@
         <v>0.9956880814203907</v>
       </c>
       <c r="D350">
-        <v>-0.06061525234855925</v>
+        <v>-0.1503721020077926</v>
       </c>
       <c r="E350">
         <v>0.06413842104559125</v>
@@ -10029,7 +10029,7 @@
         <v>0.9988859406489651</v>
       </c>
       <c r="D351">
-        <v>-0.04464226875620558</v>
+        <v>-0.1279612035664541</v>
       </c>
       <c r="E351">
         <v>0.03260146773233689</v>
@@ -10055,7 +10055,7 @@
         <v>0.9991758337404403</v>
       </c>
       <c r="D352">
-        <v>-0.04538662377634206</v>
+        <v>-0.1279657397771434</v>
       </c>
       <c r="E352">
         <v>0.02804080026885171</v>
@@ -10081,7 +10081,7 @@
         <v>0.9991834564613722</v>
       </c>
       <c r="D353">
-        <v>-0.1932880212550296</v>
+        <v>-0.06838477059370218</v>
       </c>
       <c r="E353">
         <v>0.02791082423004122</v>
@@ -10107,7 +10107,7 @@
         <v>0.9991848848932182</v>
       </c>
       <c r="D354">
-        <v>-0.03803954724677583</v>
+        <v>-0.1397040846866193</v>
       </c>
       <c r="E354">
         <v>0.0278864004487119</v>
@@ -10133,7 +10133,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D355">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E355">
         <v>0.02786137343906938</v>
@@ -10159,7 +10159,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D356">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E356">
         <v>0.02786137343906938</v>
@@ -10185,7 +10185,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D357">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E357">
         <v>0.02786137343906938</v>
@@ -10211,7 +10211,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D358">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E358">
         <v>0.02786137343906938</v>
@@ -10237,7 +10237,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D359">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E359">
         <v>0.02786137343906938</v>
@@ -10263,7 +10263,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D360">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E360">
         <v>0.02786137343906938</v>
@@ -10289,7 +10289,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D361">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E361">
         <v>0.02786137343906938</v>
@@ -10315,7 +10315,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D362">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E362">
         <v>0.02786137343906938</v>
@@ -10341,7 +10341,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D363">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E363">
         <v>0.02786137343906938</v>
@@ -10367,7 +10367,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D364">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E364">
         <v>0.02786137343906938</v>
@@ -10393,7 +10393,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D365">
-        <v>-0.04753102781821794</v>
+        <v>-0.128049679194725</v>
       </c>
       <c r="E365">
         <v>0.02786137343906938</v>
@@ -10419,7 +10419,7 @@
         <v>0.6731932908496151</v>
       </c>
       <c r="D366">
-        <v>-1.920236139056687</v>
+        <v>0.09808719959459833</v>
       </c>
       <c r="E366">
         <v>0.5583782205536268</v>
@@ -10445,7 +10445,7 @@
         <v>0.7579417360155253</v>
       </c>
       <c r="D367">
-        <v>-0.04592041045424811</v>
+        <v>0.2678227518248578</v>
       </c>
       <c r="E367">
         <v>0.4805548288447073</v>
@@ -10471,7 +10471,7 @@
         <v>0.8078230105746392</v>
       </c>
       <c r="D368">
-        <v>0.156068845954931</v>
+        <v>0.250125982150367</v>
       </c>
       <c r="E368">
         <v>0.4281872006887204</v>
@@ -10497,7 +10497,7 @@
         <v>0.8349917940210186</v>
       </c>
       <c r="D369">
-        <v>0.1609072496230387</v>
+        <v>0.2061111075841191</v>
       </c>
       <c r="E369">
         <v>0.3967671973442862</v>
@@ -10523,7 +10523,7 @@
         <v>0.8644344521292602</v>
       </c>
       <c r="D370">
-        <v>-0.4670716832263673</v>
+        <v>-0.06792854571515039</v>
       </c>
       <c r="E370">
         <v>0.3596314427184323</v>
@@ -10549,7 +10549,7 @@
         <v>0.902579703026269</v>
       </c>
       <c r="D371">
-        <v>-0.1095079445400582</v>
+        <v>0.1754287518157388</v>
       </c>
       <c r="E371">
         <v>0.3048651017593846</v>
@@ -10575,7 +10575,7 @@
         <v>0.9168055920905268</v>
       </c>
       <c r="D372">
-        <v>0.1426794941481075</v>
+        <v>0.2352962476277525</v>
       </c>
       <c r="E372">
         <v>0.2817280284777405</v>
@@ -10601,7 +10601,7 @@
         <v>0.9437073632323635</v>
       </c>
       <c r="D373">
-        <v>0.1397631175439489</v>
+        <v>0.1195918089578939</v>
       </c>
       <c r="E373">
         <v>0.2317441523488135</v>
@@ -10627,7 +10627,7 @@
         <v>0.9587956682826485</v>
       </c>
       <c r="D374">
-        <v>0.2647079398091531</v>
+        <v>0.1209654024462969</v>
       </c>
       <c r="E374">
         <v>0.198268821828577</v>
@@ -10653,7 +10653,7 @@
         <v>0.9726149430018264</v>
       </c>
       <c r="D375">
-        <v>0.3672265076740139</v>
+        <v>0.2424494172757834</v>
       </c>
       <c r="E375">
         <v>0.1616366396467084</v>
@@ -10679,7 +10679,7 @@
         <v>0.9773281650187059</v>
       </c>
       <c r="D376">
-        <v>0.2931200794671233</v>
+        <v>0.1360959082562027</v>
       </c>
       <c r="E376">
         <v>0.1470707558479008</v>
@@ -10705,7 +10705,7 @@
         <v>0.9831586260893092</v>
       </c>
       <c r="D377">
-        <v>0.3960386318017131</v>
+        <v>0.3019876509401528</v>
       </c>
       <c r="E377">
         <v>0.1267569403127431</v>
@@ -10731,7 +10731,7 @@
         <v>0.9956290001544335</v>
       </c>
       <c r="D378">
-        <v>0.3861767672764144</v>
+        <v>0.2288325757030573</v>
       </c>
       <c r="E378">
         <v>0.06457633364046311</v>
@@ -10757,7 +10757,7 @@
         <v>0.9988850074454537</v>
       </c>
       <c r="D379">
-        <v>0.3930775726991574</v>
+        <v>0.2548692384521483</v>
       </c>
       <c r="E379">
         <v>0.03261511935493437</v>
@@ -10783,7 +10783,7 @@
         <v>0.9991703040709631</v>
       </c>
       <c r="D380">
-        <v>0.3568217700605766</v>
+        <v>0.2363677170839735</v>
       </c>
       <c r="E380">
         <v>0.02813471162487726</v>
@@ -10809,7 +10809,7 @@
         <v>0.9991828837232676</v>
       </c>
       <c r="D381">
-        <v>0.3537557565049313</v>
+        <v>0.3066126776306838</v>
       </c>
       <c r="E381">
         <v>0.02792061108747754</v>
@@ -10835,7 +10835,7 @@
         <v>0.9991848848932182</v>
       </c>
       <c r="D382">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E382">
         <v>0.0278864004487119</v>
@@ -10861,7 +10861,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D383">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E383">
         <v>0.02786137343906938</v>
@@ -10887,7 +10887,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D384">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E384">
         <v>0.02786137343906938</v>
@@ -10913,7 +10913,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D385">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E385">
         <v>0.02786137343906938</v>
@@ -10939,7 +10939,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D386">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E386">
         <v>0.02786137343906938</v>
@@ -10965,7 +10965,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D387">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E387">
         <v>0.02786137343906938</v>
@@ -10991,7 +10991,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D388">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E388">
         <v>0.02786137343906938</v>
@@ -11017,7 +11017,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D389">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E389">
         <v>0.02786137343906938</v>
@@ -11043,7 +11043,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D390">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E390">
         <v>0.02786137343906938</v>
@@ -11069,7 +11069,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D391">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E391">
         <v>0.02786137343906938</v>
@@ -11095,7 +11095,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D392">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E392">
         <v>0.02786137343906938</v>
@@ -11121,7 +11121,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D393">
-        <v>0.4020216068204561</v>
+        <v>0.2469477690296609</v>
       </c>
       <c r="E393">
         <v>0.02786137343906938</v>
@@ -11147,7 +11147,7 @@
         <v>0.6730612041031722</v>
       </c>
       <c r="D394">
-        <v>-1.923432754843398</v>
+        <v>0.09819081752040448</v>
       </c>
       <c r="E394">
         <v>0.5584910501092648</v>
@@ -11173,7 +11173,7 @@
         <v>0.7578434943369178</v>
       </c>
       <c r="D395">
-        <v>-0.3870417086194797</v>
+        <v>0.3263508461310892</v>
       </c>
       <c r="E395">
         <v>0.4806523378556228</v>
@@ -11199,7 +11199,7 @@
         <v>0.8077260654362176</v>
       </c>
       <c r="D396">
-        <v>0.1560662803242634</v>
+        <v>0.2501749029576947</v>
       </c>
       <c r="E396">
         <v>0.4282951882105163</v>
@@ -11225,7 +11225,7 @@
         <v>0.8335752106808941</v>
       </c>
       <c r="D397">
-        <v>-0.01539048250366926</v>
+        <v>0.2780633991162041</v>
       </c>
       <c r="E397">
         <v>0.3984666663223553</v>
@@ -11251,7 +11251,7 @@
         <v>0.8507465796697932</v>
       </c>
       <c r="D398">
-        <v>0.157088039794508</v>
+        <v>0.2043659892280165</v>
       </c>
       <c r="E398">
         <v>0.3773506780013099</v>
@@ -11277,7 +11277,7 @@
         <v>0.8732739754423793</v>
       </c>
       <c r="D399">
-        <v>0.1346251679750765</v>
+        <v>0.1471620004398979</v>
       </c>
       <c r="E399">
         <v>0.3477089696175875</v>
@@ -11303,7 +11303,7 @@
         <v>0.9005372532966177</v>
       </c>
       <c r="D400">
-        <v>0.1553149173227474</v>
+        <v>0.1371550031525191</v>
       </c>
       <c r="E400">
         <v>0.3080443252007767</v>
@@ -11329,7 +11329,7 @@
         <v>0.9294344524656483</v>
       </c>
       <c r="D401">
-        <v>0.05474846405658529</v>
+        <v>-0.09921903262347165</v>
       </c>
       <c r="E401">
         <v>0.2594653366270946</v>
@@ -11355,7 +11355,7 @@
         <v>0.9566953502646172</v>
       </c>
       <c r="D402">
-        <v>0.01420284457023391</v>
+        <v>-0.1960860562189872</v>
       </c>
       <c r="E402">
         <v>0.203259219499746</v>
@@ -11381,7 +11381,7 @@
         <v>0.9771607402255034</v>
       </c>
       <c r="D403">
-        <v>-0.00686846269621344</v>
+        <v>-0.2384479834951774</v>
       </c>
       <c r="E403">
         <v>0.1476127939990801</v>
@@ -11407,7 +11407,7 @@
         <v>0.9881455575411879</v>
       </c>
       <c r="D404">
-        <v>-0.2870869846180961</v>
+        <v>-0.230294293295737</v>
       </c>
       <c r="E404">
         <v>0.1063465866039389</v>
@@ -11433,7 +11433,7 @@
         <v>0.9926193732702689</v>
       </c>
       <c r="D405">
-        <v>0.009310638170662799</v>
+        <v>-0.1625686926035881</v>
       </c>
       <c r="E405">
         <v>0.08391306982468524</v>
@@ -11459,7 +11459,7 @@
         <v>0.9982860049268399</v>
       </c>
       <c r="D406">
-        <v>-0.1144485036757685</v>
+        <v>-0.3032087529481735</v>
       </c>
       <c r="E406">
         <v>0.04043782356864512</v>
@@ -11485,7 +11485,7 @@
         <v>0.9986680063698018</v>
       </c>
       <c r="D407">
-        <v>-0.1126006201089973</v>
+        <v>-0.3074901539206465</v>
       </c>
       <c r="E407">
         <v>0.03564790916035948</v>
@@ -11511,7 +11511,7 @@
         <v>0.9988787323230766</v>
       </c>
       <c r="D408">
-        <v>-0.2804801941683321</v>
+        <v>-0.2481767229951815</v>
       </c>
       <c r="E408">
         <v>0.03270676871727043</v>
@@ -11537,7 +11537,7 @@
         <v>0.9989908999752104</v>
       </c>
       <c r="D409">
-        <v>-0.2945053138027138</v>
+        <v>-0.2544281886854001</v>
       </c>
       <c r="E409">
         <v>0.031027736665675</v>
@@ -11563,7 +11563,7 @@
         <v>0.9991628259898045</v>
       </c>
       <c r="D410">
-        <v>-0.1146737329117495</v>
+        <v>-0.309982141532914</v>
       </c>
       <c r="E410">
         <v>0.02826121683147792</v>
@@ -11589,7 +11589,7 @@
         <v>0.9991862904021256</v>
       </c>
       <c r="D411">
-        <v>-0.1144656533589108</v>
+        <v>-0.3076251558073793</v>
       </c>
       <c r="E411">
         <v>0.02786234771409882</v>
@@ -11615,7 +11615,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D412">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E412">
         <v>0.02786137343906938</v>
@@ -11641,7 +11641,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D413">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E413">
         <v>0.02786137343906938</v>
@@ -11667,7 +11667,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D414">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E414">
         <v>0.02786137343906938</v>
@@ -11693,7 +11693,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D415">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E415">
         <v>0.02786137343906938</v>
@@ -11719,7 +11719,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D416">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E416">
         <v>0.02786137343906938</v>
@@ -11745,7 +11745,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D417">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E417">
         <v>0.02786137343906938</v>
@@ -11771,7 +11771,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D418">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E418">
         <v>0.02786137343906938</v>
@@ -11797,7 +11797,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D419">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E419">
         <v>0.02786137343906938</v>
@@ -11823,7 +11823,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D420">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E420">
         <v>0.02786137343906938</v>
@@ -11849,7 +11849,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D421">
-        <v>-0.2732841597420976</v>
+        <v>-0.2447659665123141</v>
       </c>
       <c r="E421">
         <v>0.02786137343906938</v>
@@ -11875,7 +11875,7 @@
         <v>0.6730612041031722</v>
       </c>
       <c r="D422">
-        <v>-1.923432754843397</v>
+        <v>0.09819081752040448</v>
       </c>
       <c r="E422">
         <v>0.5584910501092648</v>
@@ -11901,7 +11901,7 @@
         <v>0.747699136071588</v>
       </c>
       <c r="D423">
-        <v>-0.04593579254403579</v>
+        <v>0.2678670055754968</v>
       </c>
       <c r="E423">
         <v>0.490616734247672</v>
@@ -11927,7 +11927,7 @@
         <v>0.7984397311482114</v>
       </c>
       <c r="D424">
-        <v>0.1563294830990034</v>
+        <v>0.2376449712990768</v>
       </c>
       <c r="E424">
         <v>0.4385160090924999</v>
@@ -11953,7 +11953,7 @@
         <v>0.8168729839988823</v>
       </c>
       <c r="D425">
-        <v>0.323720592791281</v>
+        <v>0.407687204931658</v>
       </c>
       <c r="E425">
         <v>0.4179835573930196</v>
@@ -11979,7 +11979,7 @@
         <v>0.8726089006910929</v>
       </c>
       <c r="D426">
-        <v>0.1241103605764619</v>
+        <v>0.05601508815068079</v>
       </c>
       <c r="E426">
         <v>0.3486201867100443</v>
@@ -12005,7 +12005,7 @@
         <v>0.9100188695489653</v>
       </c>
       <c r="D427">
-        <v>0.1807222856717916</v>
+        <v>-0.137192154152451</v>
       </c>
       <c r="E427">
         <v>0.2929939892852857</v>
@@ -12031,7 +12031,7 @@
         <v>0.9404848746907593</v>
       </c>
       <c r="D428">
-        <v>0.1159074911678399</v>
+        <v>0.05094254040740853</v>
       </c>
       <c r="E428">
         <v>0.2382849781685012</v>
@@ -12057,7 +12057,7 @@
         <v>0.9604114527110085</v>
       </c>
       <c r="D429">
-        <v>0.2951758746950264</v>
+        <v>0.07999726342408398</v>
       </c>
       <c r="E429">
         <v>0.1943424937757585</v>
@@ -12083,7 +12083,7 @@
         <v>0.967124170917788</v>
       </c>
       <c r="D430">
-        <v>0.1444587333125429</v>
+        <v>-0.121404250372634</v>
       </c>
       <c r="E430">
         <v>0.177101135390325</v>
@@ -12109,7 +12109,7 @@
         <v>0.9788344720525308</v>
       </c>
       <c r="D431">
-        <v>0.006976108064204678</v>
+        <v>-0.0331724844490191</v>
       </c>
       <c r="E431">
         <v>0.1421011332499445</v>
@@ -12135,7 +12135,7 @@
         <v>0.9882759891085114</v>
       </c>
       <c r="D432">
-        <v>0.2253780620114474</v>
+        <v>-0.1088204911139008</v>
       </c>
       <c r="E432">
         <v>0.1057599154863286</v>
@@ -12161,7 +12161,7 @@
         <v>0.9925423175499771</v>
       </c>
       <c r="D433">
-        <v>0.2281020322797215</v>
+        <v>-0.1165919695324475</v>
       </c>
       <c r="E433">
         <v>0.0843499699115539</v>
@@ -12187,7 +12187,7 @@
         <v>0.9974196612858626</v>
       </c>
       <c r="D434">
-        <v>0.2249861926925155</v>
+        <v>-0.1252269000841084</v>
       </c>
       <c r="E434">
         <v>0.04961595416229386</v>
@@ -12213,7 +12213,7 @@
         <v>0.9991003681771206</v>
       </c>
       <c r="D435">
-        <v>0.2217560691465827</v>
+        <v>-0.1236622736401347</v>
       </c>
       <c r="E435">
         <v>0.02929647666797348</v>
@@ -12239,7 +12239,7 @@
         <v>0.9991836137880162</v>
       </c>
       <c r="D436">
-        <v>0.2213838210305415</v>
+        <v>-0.123684556149553</v>
       </c>
       <c r="E436">
         <v>0.02790813525655993</v>
@@ -12265,7 +12265,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D437">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E437">
         <v>0.02786137343906938</v>
@@ -12291,7 +12291,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D438">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E438">
         <v>0.02786137343906938</v>
@@ -12317,7 +12317,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D439">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E439">
         <v>0.02786137343906938</v>
@@ -12343,7 +12343,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D440">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E440">
         <v>0.02786137343906938</v>
@@ -12369,7 +12369,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D441">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E441">
         <v>0.02786137343906938</v>
@@ -12395,7 +12395,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D442">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E442">
         <v>0.02786137343906938</v>
@@ -12421,7 +12421,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D443">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E443">
         <v>0.02786137343906938</v>
@@ -12447,7 +12447,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D444">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E444">
         <v>0.02786137343906938</v>
@@ -12473,7 +12473,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D445">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E445">
         <v>0.02786137343906938</v>
@@ -12499,7 +12499,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D446">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E446">
         <v>0.02786137343906938</v>
@@ -12525,7 +12525,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D447">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E447">
         <v>0.02786137343906938</v>
@@ -12551,7 +12551,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D448">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E448">
         <v>0.02786137343906938</v>
@@ -12577,7 +12577,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D449">
-        <v>0.2208254639980005</v>
+        <v>-0.123738175474176</v>
       </c>
       <c r="E449">
         <v>0.02786137343906938</v>
@@ -12603,7 +12603,7 @@
         <v>0.6730612041031722</v>
       </c>
       <c r="D450">
-        <v>-1.9234327548434</v>
+        <v>0.09819081752040537</v>
       </c>
       <c r="E450">
         <v>0.5584910501092648</v>
@@ -12629,7 +12629,7 @@
         <v>0.7463787775973592</v>
       </c>
       <c r="D451">
-        <v>-0.04593579254403668</v>
+        <v>0.2678670055754993</v>
       </c>
       <c r="E451">
         <v>0.4918988239086</v>
@@ -12655,7 +12655,7 @@
         <v>0.7925254098577884</v>
       </c>
       <c r="D452">
-        <v>0.1563294830990035</v>
+        <v>0.2376449712990768</v>
       </c>
       <c r="E452">
         <v>0.4449031146564107</v>
@@ -12681,7 +12681,7 @@
         <v>0.8170806259589886</v>
       </c>
       <c r="D453">
-        <v>0.3237205927912814</v>
+        <v>0.4076872049316587</v>
       </c>
       <c r="E453">
         <v>0.4177465209814143</v>
@@ -12707,7 +12707,7 @@
         <v>0.8727234243276059</v>
       </c>
       <c r="D454">
-        <v>0.1241103605764626</v>
+        <v>0.05601508815068046</v>
       </c>
       <c r="E454">
         <v>0.3484634480174627</v>
@@ -12733,7 +12733,7 @@
         <v>0.9042835521705933</v>
       </c>
       <c r="D455">
-        <v>0.05390985671563253</v>
+        <v>-0.04355830582506637</v>
       </c>
       <c r="E455">
         <v>0.3021873463668091</v>
@@ -12759,7 +12759,7 @@
         <v>0.9339612810650157</v>
       </c>
       <c r="D456">
-        <v>0.3020204503953554</v>
+        <v>0.3241929164187136</v>
       </c>
       <c r="E456">
         <v>0.2510049628752369</v>
@@ -12785,7 +12785,7 @@
         <v>0.9636141152836325</v>
       </c>
       <c r="D457">
-        <v>0.21612961017465</v>
+        <v>0.251823870191721</v>
       </c>
       <c r="E457">
         <v>0.1863157023847082</v>
@@ -12811,7 +12811,7 @@
         <v>0.9786068496450421</v>
       </c>
       <c r="D458">
-        <v>0.1926298088648176</v>
+        <v>0.1581238031208063</v>
       </c>
       <c r="E458">
         <v>0.142863195572391</v>
@@ -12837,7 +12837,7 @@
         <v>0.9877029171060981</v>
       </c>
       <c r="D459">
-        <v>0.0329433090092881</v>
+        <v>-0.1250052503479975</v>
       </c>
       <c r="E459">
         <v>0.1083138614074632</v>
@@ -12863,7 +12863,7 @@
         <v>0.9928104063218393</v>
       </c>
       <c r="D460">
-        <v>0.1303666457239128</v>
+        <v>0.1716980053968026</v>
       </c>
       <c r="E460">
         <v>0.08281998774157889</v>
@@ -12889,7 +12889,7 @@
         <v>0.9972236511589313</v>
       </c>
       <c r="D461">
-        <v>0.1292070821056009</v>
+        <v>0.07735348357720029</v>
       </c>
       <c r="E461">
         <v>0.05146595134324496</v>
@@ -12915,7 +12915,7 @@
         <v>0.9980186527569603</v>
       </c>
       <c r="D462">
-        <v>0.1560438004581665</v>
+        <v>0.09833897363022004</v>
       </c>
       <c r="E462">
         <v>0.04347737207743917</v>
@@ -12941,7 +12941,7 @@
         <v>0.9988564636026959</v>
       </c>
       <c r="D463">
-        <v>0.154179442841483</v>
+        <v>0.0986022805534511</v>
       </c>
       <c r="E463">
         <v>0.03302995519576855</v>
@@ -12967,7 +12967,7 @@
         <v>0.999046265309888</v>
       </c>
       <c r="D464">
-        <v>0.1553041193651756</v>
+        <v>0.09845641581639153</v>
       </c>
       <c r="E464">
         <v>0.03016454495755808</v>
@@ -12993,7 +12993,7 @@
         <v>0.999127843993749</v>
       </c>
       <c r="D465">
-        <v>0.1578736020039468</v>
+        <v>0.09797275142015449</v>
       </c>
       <c r="E465">
         <v>0.02884563318223786</v>
@@ -13019,7 +13019,7 @@
         <v>0.9991670032735173</v>
       </c>
       <c r="D466">
-        <v>0.1594899513362515</v>
+        <v>0.09755617897257607</v>
       </c>
       <c r="E466">
         <v>0.02819062054319648</v>
@@ -13045,7 +13045,7 @@
         <v>0.9991857745697125</v>
       </c>
       <c r="D467">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E467">
         <v>0.02787117766096723</v>
@@ -13071,7 +13071,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D468">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E468">
         <v>0.02786137343906938</v>
@@ -13097,7 +13097,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D469">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E469">
         <v>0.02786137343906938</v>
@@ -13123,7 +13123,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D470">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E470">
         <v>0.02786137343906938</v>
@@ -13149,7 +13149,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D471">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E471">
         <v>0.02786137343906938</v>
@@ -13175,7 +13175,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D472">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E472">
         <v>0.02786137343906938</v>
@@ -13201,7 +13201,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D473">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E473">
         <v>0.02786137343906938</v>
@@ -13227,7 +13227,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D474">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E474">
         <v>0.02786137343906938</v>
@@ -13253,7 +13253,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D475">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E475">
         <v>0.02786137343906938</v>
@@ -13279,7 +13279,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D476">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E476">
         <v>0.02786137343906938</v>
@@ -13305,7 +13305,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D477">
-        <v>0.1600838341032422</v>
+        <v>0.097380369431742</v>
       </c>
       <c r="E477">
         <v>0.02786137343906938</v>
@@ -13331,7 +13331,7 @@
         <v>0.6542679835419033</v>
       </c>
       <c r="D478">
-        <v>-1.077542610218074</v>
+        <v>0.2526909845545982</v>
       </c>
       <c r="E478">
         <v>0.5743184762363542</v>
@@ -13357,7 +13357,7 @@
         <v>0.7422767050615586</v>
       </c>
       <c r="D479">
-        <v>-0.02585245050248974</v>
+        <v>0.2815061112307595</v>
       </c>
       <c r="E479">
         <v>0.4958608562661096</v>
@@ -13383,7 +13383,7 @@
         <v>0.8024889663786621</v>
       </c>
       <c r="D480">
-        <v>-0.1559837468549852</v>
+        <v>0.2603831631667343</v>
       </c>
       <c r="E480">
         <v>0.4340888886489561</v>
@@ -13409,7 +13409,7 @@
         <v>0.821196391427611</v>
       </c>
       <c r="D481">
-        <v>-0.02638086778130933</v>
+        <v>0.07551134844737695</v>
       </c>
       <c r="E481">
         <v>0.4130200435698029</v>
@@ -13435,7 +13435,7 @@
         <v>0.8517775146834587</v>
       </c>
       <c r="D482">
-        <v>0.04433972991142543</v>
+        <v>0.1025757453382291</v>
       </c>
       <c r="E482">
         <v>0.3760451865424831</v>
@@ -13461,7 +13461,7 @@
         <v>0.903292221478093</v>
       </c>
       <c r="D483">
-        <v>-0.2024475278764875</v>
+        <v>-0.09399053750068509</v>
       </c>
       <c r="E483">
         <v>0.3037481853718905</v>
@@ -13487,7 +13487,7 @@
         <v>0.9376570047153765</v>
       </c>
       <c r="D484">
-        <v>-0.2215876966068606</v>
+        <v>-0.05843914861266786</v>
       </c>
       <c r="E484">
         <v>0.2438803561641147</v>
@@ -13513,7 +13513,7 @@
         <v>0.9623059901444049</v>
       </c>
       <c r="D485">
-        <v>-0.4458979993632395</v>
+        <v>-0.3425464176156889</v>
       </c>
       <c r="E485">
         <v>0.1896352892246105</v>
@@ -13539,7 +13539,7 @@
         <v>0.9746510027066051</v>
       </c>
       <c r="D486">
-        <v>-0.310266712080765</v>
+        <v>-0.4068461934511143</v>
       </c>
       <c r="E486">
         <v>0.1555118117361181</v>
@@ -13565,7 +13565,7 @@
         <v>0.9880755179906388</v>
       </c>
       <c r="D487">
-        <v>-0.3907685790822737</v>
+        <v>-0.4499475890899309</v>
       </c>
       <c r="E487">
         <v>0.1066602874633171</v>
@@ -13591,7 +13591,7 @@
         <v>0.9966000516909219</v>
       </c>
       <c r="D488">
-        <v>-0.3726334045013482</v>
+        <v>-0.5103491029430198</v>
       </c>
       <c r="E488">
         <v>0.05695333311504255</v>
@@ -13617,7 +13617,7 @@
         <v>0.9983550950861543</v>
       </c>
       <c r="D489">
-        <v>-0.3096751262966848</v>
+        <v>-0.4527468211077661</v>
       </c>
       <c r="E489">
         <v>0.03961442781952904</v>
@@ -13643,7 +13643,7 @@
         <v>0.9989356321985547</v>
       </c>
       <c r="D490">
-        <v>-0.3066068534192818</v>
+        <v>-0.5074885295222993</v>
       </c>
       <c r="E490">
         <v>0.03186609543962377</v>
@@ -13669,7 +13669,7 @@
         <v>0.9991290094831841</v>
       </c>
       <c r="D491">
-        <v>-0.3364693487843924</v>
+        <v>-0.5064197423392107</v>
       </c>
       <c r="E491">
         <v>0.02882635307660441</v>
@@ -13695,7 +13695,7 @@
         <v>0.9991729603941129</v>
       </c>
       <c r="D492">
-        <v>-0.3376320082777708</v>
+        <v>-0.5064733616638335</v>
       </c>
       <c r="E492">
         <v>0.02808963800439343</v>
@@ -13721,7 +13721,7 @@
         <v>0.9991859177542386</v>
       </c>
       <c r="D493">
-        <v>-0.3376320082777708</v>
+        <v>-0.5064733616638335</v>
       </c>
       <c r="E493">
         <v>0.02786872692884839</v>
@@ -13747,7 +13747,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D494">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E494">
         <v>0.02786137343906938</v>
@@ -13773,7 +13773,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D495">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E495">
         <v>0.02786137343906938</v>
@@ -13799,7 +13799,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D496">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E496">
         <v>0.02786137343906938</v>
@@ -13825,7 +13825,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D497">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E497">
         <v>0.02786137343906938</v>
@@ -13851,7 +13851,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D498">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E498">
         <v>0.02786137343906938</v>
@@ -13877,7 +13877,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D499">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E499">
         <v>0.02786137343906938</v>
@@ -13903,7 +13903,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D500">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E500">
         <v>0.02786137343906938</v>
@@ -13929,7 +13929,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D501">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E501">
         <v>0.02786137343906938</v>
@@ -13955,7 +13955,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D502">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E502">
         <v>0.02786137343906938</v>
@@ -13981,7 +13981,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D503">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E503">
         <v>0.02786137343906938</v>
@@ -14007,7 +14007,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D504">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E504">
         <v>0.02786137343906938</v>
@@ -14033,7 +14033,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D505">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E505">
         <v>0.02786137343906938</v>
@@ -14059,7 +14059,7 @@
         <v>0.6542679835419033</v>
       </c>
       <c r="D506">
-        <v>-1.077542610218074</v>
+        <v>0.2526909845545982</v>
       </c>
       <c r="E506">
         <v>0.5743184762363542</v>
@@ -14085,7 +14085,7 @@
         <v>0.7422767050615586</v>
       </c>
       <c r="D507">
-        <v>-0.02585245050248974</v>
+        <v>0.2815061112307595</v>
       </c>
       <c r="E507">
         <v>0.4958608562661096</v>
@@ -14111,7 +14111,7 @@
         <v>0.8024889663786621</v>
       </c>
       <c r="D508">
-        <v>-0.1559837468549852</v>
+        <v>0.2603831631667343</v>
       </c>
       <c r="E508">
         <v>0.4340888886489561</v>
@@ -14137,7 +14137,7 @@
         <v>0.821196391427611</v>
       </c>
       <c r="D509">
-        <v>-0.02638086778130933</v>
+        <v>0.07551134844737695</v>
       </c>
       <c r="E509">
         <v>0.4130200435698029</v>
@@ -14163,7 +14163,7 @@
         <v>0.8517775146834587</v>
       </c>
       <c r="D510">
-        <v>0.04433972991142543</v>
+        <v>0.1025757453382291</v>
       </c>
       <c r="E510">
         <v>0.3760451865424831</v>
@@ -14189,7 +14189,7 @@
         <v>0.903292221478093</v>
       </c>
       <c r="D511">
-        <v>-0.2024475278764875</v>
+        <v>-0.09399053750068509</v>
       </c>
       <c r="E511">
         <v>0.3037481853718905</v>
@@ -14215,7 +14215,7 @@
         <v>0.9376570047153765</v>
       </c>
       <c r="D512">
-        <v>-0.2215876966068606</v>
+        <v>-0.05843914861266786</v>
       </c>
       <c r="E512">
         <v>0.2438803561641147</v>
@@ -14241,7 +14241,7 @@
         <v>0.9623059901444049</v>
       </c>
       <c r="D513">
-        <v>-0.4458979993632395</v>
+        <v>-0.3425464176156889</v>
       </c>
       <c r="E513">
         <v>0.1896352892246105</v>
@@ -14267,7 +14267,7 @@
         <v>0.9746510027066051</v>
       </c>
       <c r="D514">
-        <v>-0.310266712080765</v>
+        <v>-0.4068461934511143</v>
       </c>
       <c r="E514">
         <v>0.1555118117361181</v>
@@ -14293,7 +14293,7 @@
         <v>0.9880755179906388</v>
       </c>
       <c r="D515">
-        <v>-0.3907685790822737</v>
+        <v>-0.4499475890899309</v>
       </c>
       <c r="E515">
         <v>0.1066602874633171</v>
@@ -14319,7 +14319,7 @@
         <v>0.9966000516909219</v>
       </c>
       <c r="D516">
-        <v>-0.3726334045013482</v>
+        <v>-0.5103491029430198</v>
       </c>
       <c r="E516">
         <v>0.05695333311504255</v>
@@ -14345,7 +14345,7 @@
         <v>0.9983550950861543</v>
       </c>
       <c r="D517">
-        <v>-0.3096751262966848</v>
+        <v>-0.4527468211077661</v>
       </c>
       <c r="E517">
         <v>0.03961442781952904</v>
@@ -14371,7 +14371,7 @@
         <v>0.9989356321985547</v>
       </c>
       <c r="D518">
-        <v>-0.3066068534192818</v>
+        <v>-0.5074885295222993</v>
       </c>
       <c r="E518">
         <v>0.03186609543962377</v>
@@ -14397,7 +14397,7 @@
         <v>0.9991290094831841</v>
       </c>
       <c r="D519">
-        <v>-0.3364693487843924</v>
+        <v>-0.5064197423392107</v>
       </c>
       <c r="E519">
         <v>0.02882635307660441</v>
@@ -14423,7 +14423,7 @@
         <v>0.9991729603941129</v>
       </c>
       <c r="D520">
-        <v>-0.3376320082777708</v>
+        <v>-0.5064733616638335</v>
       </c>
       <c r="E520">
         <v>0.02808963800439343</v>
@@ -14449,7 +14449,7 @@
         <v>0.9991859177542386</v>
       </c>
       <c r="D521">
-        <v>-0.3376320082777708</v>
+        <v>-0.5064733616638335</v>
       </c>
       <c r="E521">
         <v>0.02786872692884839</v>
@@ -14475,7 +14475,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D522">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E522">
         <v>0.02786137343906938</v>
@@ -14501,7 +14501,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D523">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E523">
         <v>0.02786137343906938</v>
@@ -14527,7 +14527,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D524">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E524">
         <v>0.02786137343906938</v>
@@ -14553,7 +14553,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D525">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E525">
         <v>0.02786137343906938</v>
@@ -14579,7 +14579,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D526">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E526">
         <v>0.02786137343906938</v>
@@ -14605,7 +14605,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D527">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E527">
         <v>0.02786137343906938</v>
@@ -14631,7 +14631,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D528">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E528">
         <v>0.02786137343906938</v>
@@ -14657,7 +14657,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D529">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E529">
         <v>0.02786137343906938</v>
@@ -14683,7 +14683,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D530">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E530">
         <v>0.02786137343906938</v>
@@ -14709,7 +14709,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D531">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E531">
         <v>0.02786137343906938</v>
@@ -14735,7 +14735,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D532">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E532">
         <v>0.02786137343906938</v>
@@ -14761,7 +14761,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D533">
-        <v>-0.2983667190868546</v>
+        <v>-0.4444228402299655</v>
       </c>
       <c r="E533">
         <v>0.02786137343906938</v>
@@ -14787,7 +14787,7 @@
         <v>0.6399855963270316</v>
       </c>
       <c r="D534">
-        <v>-1.232856156910624</v>
+        <v>0.3314108830317134</v>
       </c>
       <c r="E534">
         <v>0.5860611416973122</v>
@@ -14813,7 +14813,7 @@
         <v>0.7271164270148296</v>
       </c>
       <c r="D535">
-        <v>-0.4449085556231893</v>
+        <v>0.2697803467345056</v>
       </c>
       <c r="E535">
         <v>0.5102366904066485</v>
@@ -14839,7 +14839,7 @@
         <v>0.7860303977224798</v>
       </c>
       <c r="D536">
-        <v>-0.3666589723464373</v>
+        <v>0.2104770845108782</v>
       </c>
       <c r="E536">
         <v>0.4518133178107678</v>
@@ -14865,7 +14865,7 @@
         <v>0.8238968206728652</v>
       </c>
       <c r="D537">
-        <v>0.23739044929987</v>
+        <v>0.2711417532110145</v>
       </c>
       <c r="E537">
         <v>0.4098893051455874</v>
@@ -14891,7 +14891,7 @@
         <v>0.8451019803212345</v>
       </c>
       <c r="D538">
-        <v>0.2815293958787219</v>
+        <v>0.3025578235873025</v>
       </c>
       <c r="E538">
         <v>0.3844199529508233</v>
@@ -14917,7 +14917,7 @@
         <v>0.8709989383553427</v>
       </c>
       <c r="D539">
-        <v>0.1868495227189347</v>
+        <v>0.2941670689524236</v>
       </c>
       <c r="E539">
         <v>0.3508161924748976</v>
@@ -14943,7 +14943,7 @@
         <v>0.8944241620430288</v>
       </c>
       <c r="D540">
-        <v>0.1754738593673383</v>
+        <v>0.3013444138432989</v>
       </c>
       <c r="E540">
         <v>0.317369550712851</v>
@@ -14969,7 +14969,7 @@
         <v>0.9130327890596381</v>
       </c>
       <c r="D541">
-        <v>0.1484168713892222</v>
+        <v>0.345440182677453</v>
       </c>
       <c r="E541">
         <v>0.2880452776989685</v>
@@ -14995,7 +14995,7 @@
         <v>0.9349381561130342</v>
       </c>
       <c r="D542">
-        <v>0.2926047240652914</v>
+        <v>0.3810346733861775</v>
       </c>
       <c r="E542">
         <v>0.2491415557856413</v>
@@ -15021,7 +15021,7 @@
         <v>0.956898287427198</v>
       </c>
       <c r="D543">
-        <v>0.125645014545282</v>
+        <v>0.3147084805219023</v>
       </c>
       <c r="E543">
         <v>0.2027823967003979</v>
@@ -15047,7 +15047,7 @@
         <v>0.9829094847095806</v>
       </c>
       <c r="D544">
-        <v>0.1345192404213331</v>
+        <v>0.3045865404166832</v>
       </c>
       <c r="E544">
         <v>0.1276910820193699</v>
@@ -15073,7 +15073,7 @@
         <v>0.9903318680011045</v>
       </c>
       <c r="D545">
-        <v>0.2461273708247365</v>
+        <v>0.3663650533811894</v>
       </c>
       <c r="E545">
         <v>0.09604046941430804</v>
@@ -15099,7 +15099,7 @@
         <v>0.9951487599308154</v>
       </c>
       <c r="D546">
-        <v>0.1989809746283256</v>
+        <v>0.331192963008926</v>
       </c>
       <c r="E546">
         <v>0.06803139429160836</v>
@@ -15125,7 +15125,7 @@
         <v>0.9974468582864493</v>
       </c>
       <c r="D547">
-        <v>0.2144660732239982</v>
+        <v>0.348593002347404</v>
       </c>
       <c r="E547">
         <v>0.04935378321108398</v>
@@ -15151,7 +15151,7 @@
         <v>0.9988155564719041</v>
       </c>
       <c r="D548">
-        <v>0.2512349565401581</v>
+        <v>0.366895447360485</v>
       </c>
       <c r="E548">
         <v>0.03361554587938283</v>
@@ -15177,7 +15177,7 @@
         <v>0.9989450229173916</v>
       </c>
       <c r="D549">
-        <v>0.2631312147427833</v>
+        <v>0.3668186690139211</v>
       </c>
       <c r="E549">
         <v>0.03172520968701666</v>
@@ -15203,7 +15203,7 @@
         <v>0.9991523845399459</v>
       </c>
       <c r="D550">
-        <v>0.2485756146254717</v>
+        <v>0.3664715100501306</v>
       </c>
       <c r="E550">
         <v>0.02843691128975206</v>
@@ -15229,7 +15229,7 @@
         <v>0.9991846173302198</v>
       </c>
       <c r="D551">
-        <v>0.2637598145369978</v>
+        <v>0.3666537250713067</v>
       </c>
       <c r="E551">
         <v>0.02789097695370813</v>
@@ -15255,7 +15255,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D552">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E552">
         <v>0.02786137343906938</v>
@@ -15281,7 +15281,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D553">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E553">
         <v>0.02786137343906938</v>
@@ -15307,7 +15307,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D554">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E554">
         <v>0.02786137343906938</v>
@@ -15333,7 +15333,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D555">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E555">
         <v>0.02786137343906938</v>
@@ -15359,7 +15359,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D556">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E556">
         <v>0.02786137343906938</v>
@@ -15385,7 +15385,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D557">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E557">
         <v>0.02786137343906938</v>
@@ -15411,7 +15411,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D558">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E558">
         <v>0.02786137343906938</v>
@@ -15437,7 +15437,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D559">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E559">
         <v>0.02786137343906938</v>
@@ -15463,7 +15463,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D560">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E560">
         <v>0.02786137343906938</v>
@@ -15489,7 +15489,7 @@
         <v>0.9991863473078171</v>
       </c>
       <c r="D561">
-        <v>0.2634117451813839</v>
+        <v>0.3667468623986627</v>
       </c>
       <c r="E561">
         <v>0.02786137343906938</v>
@@ -15515,7 +15515,7 @@
         <v>0.6399855963270316</v>
       </c>
       <c r="D562">
-        <v>-1.232856156910624</v>
+        <v>0.3314108830317134</v>
       </c>
       <c r="E562">
         <v>0.5860611416973122</v>
@@ -15541,7 +15541,7 @@
         <v>0.7151562324133083</v>
       </c>
       <c r="D563">
-        <v>-0.7398935455849165</v>
+        <v>0.183305842849794</v>
       </c>
       <c r="E563">
         <v>0.5212983486955526</v>
@@ -15567,7 +15567,7 @@
         <v>0.7954553072381607</v>
       </c>
       <c r="D564">
-        <v>0.06249219502645986</v>
+        <v>0.2274477686453773</v>
       </c>
       <c r="E564">
         <v>0.4417505472996516</v>
@@ -15593,7 +15593,7 @@
         <v>0.8212629603605232</v>
       </c>
       <c r="D565">
-        <v>0.1233560437566755</v>
+        <v>0.3087484000391685</v>
       </c>
       <c r="E565">
         <v>0.4129431523277483</v>
@@ -15619,7 +15619,7 @@
         <v>0.8483868377265859</v>
       </c>
       <c r="D566">
-        <v>0.1882608032136195</v>
+        <v>0.2953654353614316</v>
       </c>
       <c r="E566">
         <v>0.3803219941657123</v>
@@ -15645,7 +15645,7 @@
         <v>0.8705558117541714</v>
       </c>
       <c r="D567">
-        <v>0.3155763376683768</v>
+        <v>0.1872199413566121</v>
       </c>
       <c r="E567">
         <v>0.3514182135497688</v>
@@ -15671,7 +15671,7 @@
         <v>0.8927359610450322</v>
       </c>
       <c r="D568">
-        <v>0.317358197116376</v>
+        <v>0.1807416246695439</v>
       </c>
       <c r="E568">
         <v>0.3198969220695292</v>
@@ -15697,7 +15697,7 @@
         <v>0.9028880735063491</v>
       </c>
       <c r="D569">
-        <v>0.2251593850801399</v>
+        <v>0.07024225387076</v>
       </c>
       <c r="E569">
         <v>0.304382215165373</v>
@@ -15723,7 +15723,7 @@
         <v>0.9187270533729517</v>
       </c>
       <c r="D570">
-        <v>0.2294734029947771</v>
+        <v>0.07056972451178978</v>
       </c>
       <c r="E570">
         <v>0.2784556224414151</v>
@@ -15749,7 +15749,7 @@
         <v>0.9267437371082476</v>
       </c>
       <c r="D571">
-        <v>0.2190613936766098</v>
+        <v>-0.0110681067643188</v>
       </c>
       <c r="E571">
         <v>0.2643658589985879</v>
@@ -15775,7 +15775,7 @@
         <v>0.9404039543907771</v>
       </c>
       <c r="D572">
-        <v>0.2330943909715183</v>
+        <v>0.002275060685527297</v>
       </c>
       <c r="E572">
         <v>0.2384469163480569</v>
@@ -15801,7 +15801,7 @@
         <v>0.9572444132620341</v>
       </c>
       <c r="D573">
-        <v>0.2272153581555281</v>
+        <v>-0.05186408243866292</v>
       </c>
       <c r="E573">
         <v>0.2019665392619546</v>
@@ -15827,7 +15827,7 @@
         <v>0.9614625607076843</v>
       </c>
       <c r="D574">
-        <v>0.2355512786167109</v>
+        <v>-0.05526514885510636</v>
       </c>
       <c r="E574">
         <v>0.1917451621681274</v>
@@ -15853,7 +15853,7 @@
         <v>0.9638598616250769</v>
       </c>
       <c r="D575">
-        <v>0.2197470235229302</v>
+        <v>-0.05740997142948423</v>
       </c>
       <c r="E575">
         <v>0.1856854583511516</v>
@@ -15879,7 +15879,7 @@
         <v>0.9716808823755971</v>
       </c>
       <c r="D576">
-        <v>0.2361798560901891</v>
+        <v>-0.05605799125227584</v>
       </c>
       <c r="E576">
         <v>0.1643701105161573</v>
@@ -15905,7 +15905,7 @@
         <v>0.9733472720535642</v>
       </c>
       <c r="D577">
-        <v>0.228303118529575</v>
+        <v>-0.05891271981973967</v>
       </c>
       <c r="E577">
         <v>0.1594607570654937</v>
@@ -15931,7 +15931,7 @@
         <v>0.9738431591008135</v>
       </c>
       <c r="D578">
-        <v>0.2237586614201414</v>
+        <v>-0.05498769709565043</v>
       </c>
       <c r="E578">
         <v>0.1579703694568177</v>
@@ -15957,7 +15957,7 @@
         <v>0.9743645088854002</v>
       </c>
       <c r="D579">
-        <v>0.2361434168358684</v>
+        <v>-0.0560048019892434</v>
       </c>
       <c r="E579">
         <v>0.1563881382098948</v>
@@ -15983,7 +15983,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D580">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E580">
         <v>0.1543936510734017</v>
@@ -16009,7 +16009,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D581">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E581">
         <v>0.1543936510734017</v>
@@ -16035,7 +16035,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D582">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E582">
         <v>0.1543936510734017</v>
@@ -16061,7 +16061,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D583">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E583">
         <v>0.1543936510734017</v>
@@ -16087,7 +16087,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D584">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E584">
         <v>0.1543936510734017</v>
@@ -16113,7 +16113,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D585">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E585">
         <v>0.1543936510734017</v>
@@ -16139,7 +16139,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D586">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E586">
         <v>0.1543936510734017</v>
@@ -16165,7 +16165,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D587">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E587">
         <v>0.1543936510734017</v>
@@ -16191,7 +16191,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D588">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E588">
         <v>0.1543936510734017</v>
@@ -16217,7 +16217,7 @@
         <v>0.9750142207916094</v>
       </c>
       <c r="D589">
-        <v>0.2345005639101895</v>
+        <v>-0.0544411429105438</v>
       </c>
       <c r="E589">
         <v>0.1543936510734017</v>
@@ -16279,7 +16279,7 @@
         <v>0.8306119741746024</v>
       </c>
       <c r="D2">
-        <v>0.03581284087082071</v>
+        <v>0.0881233809569294</v>
       </c>
       <c r="E2">
         <v>0.4019984158883446</v>
@@ -16305,7 +16305,7 @@
         <v>0.851693012970191</v>
       </c>
       <c r="D3">
-        <v>0.2348419589240813</v>
+        <v>0.4577005756990012</v>
       </c>
       <c r="E3">
         <v>0.3761523630441026</v>
@@ -16331,7 +16331,7 @@
         <v>0.8728761373855637</v>
       </c>
       <c r="D4">
-        <v>0.1137316093170138</v>
+        <v>0.569087486864028</v>
       </c>
       <c r="E4">
         <v>0.3482543329837549</v>
@@ -16357,7 +16357,7 @@
         <v>0.9042151013517313</v>
       </c>
       <c r="D5">
-        <v>0.1070620268079343</v>
+        <v>0.6093447647640804</v>
       </c>
       <c r="E5">
         <v>0.3022953804347679</v>
@@ -16383,7 +16383,7 @@
         <v>0.9166204448336052</v>
       </c>
       <c r="D6">
-        <v>0.1516014797522408</v>
+        <v>0.6091043191478903</v>
       </c>
       <c r="E6">
         <v>0.2820413439057481</v>
@@ -16409,7 +16409,7 @@
         <v>0.9179024805125516</v>
       </c>
       <c r="D7">
-        <v>0.1678572506005073</v>
+        <v>0.6123035068082183</v>
       </c>
       <c r="E7">
         <v>0.2798646245274261</v>
@@ -16435,7 +16435,7 @@
         <v>0.9262728178721966</v>
       </c>
       <c r="D8">
-        <v>0.1355517081129123</v>
+        <v>0.5993271610115809</v>
       </c>
       <c r="E8">
         <v>0.2652142201397256</v>
@@ -16461,7 +16461,7 @@
         <v>0.9304566749498562</v>
       </c>
       <c r="D9">
-        <v>0.2855972135718664</v>
+        <v>0.6592396655527917</v>
       </c>
       <c r="E9">
         <v>0.25757915508582</v>
@@ -16487,7 +16487,7 @@
         <v>0.9402087514772199</v>
       </c>
       <c r="D10">
-        <v>0.3101775527219611</v>
+        <v>0.6783981792903767</v>
       </c>
       <c r="E10">
         <v>0.2388371056669299</v>
@@ -16513,7 +16513,7 @@
         <v>0.9469205570672194</v>
       </c>
       <c r="D11">
-        <v>0.3442261335366291</v>
+        <v>0.677657110959488</v>
       </c>
       <c r="E11">
         <v>0.2250329775491008</v>
@@ -16539,7 +16539,7 @@
         <v>0.949906285709224</v>
       </c>
       <c r="D12">
-        <v>0.3418812654266151</v>
+        <v>0.6582212094539739</v>
       </c>
       <c r="E12">
         <v>0.2186123061740849</v>
@@ -16565,7 +16565,7 @@
         <v>0.9476658915205177</v>
       </c>
       <c r="D13">
-        <v>0.2803170771615089</v>
+        <v>0.607139436451078</v>
       </c>
       <c r="E13">
         <v>0.2234474504134366</v>
@@ -16591,7 +16591,7 @@
         <v>0.9460039281827115</v>
       </c>
       <c r="D14">
-        <v>0.2765804659986318</v>
+        <v>0.6346724431032322</v>
       </c>
       <c r="E14">
         <v>0.226967707799571</v>
@@ -16617,7 +16617,7 @@
         <v>0.9476147958268802</v>
       </c>
       <c r="D15">
-        <v>0.3409831491932378</v>
+        <v>0.6544716832057265</v>
       </c>
       <c r="E15">
         <v>0.2235565037383531</v>
@@ -16643,7 +16643,7 @@
         <v>0.9470187963122996</v>
       </c>
       <c r="D16">
-        <v>0.3118277452607792</v>
+        <v>0.6677623735361871</v>
       </c>
       <c r="E16">
         <v>0.2248246359858803</v>
@@ -16669,7 +16669,7 @@
         <v>0.9475866593384694</v>
       </c>
       <c r="D17">
-        <v>0.3669752553854883</v>
+        <v>0.6835631201822717</v>
       </c>
       <c r="E17">
         <v>0.2236165326213961</v>
@@ -16695,7 +16695,7 @@
         <v>0.9442515636114255</v>
       </c>
       <c r="D18">
-        <v>0.3493969129815874</v>
+        <v>0.6808730538605505</v>
       </c>
       <c r="E18">
         <v>0.2306212564869264</v>
@@ -16721,7 +16721,7 @@
         <v>0.9430254059957446</v>
       </c>
       <c r="D19">
-        <v>0.3755113871521573</v>
+        <v>0.6842928411178193</v>
       </c>
       <c r="E19">
         <v>0.2331436589763817</v>
@@ -16747,7 +16747,7 @@
         <v>0.9393828415456545</v>
       </c>
       <c r="D20">
-        <v>0.3923814494291831</v>
+        <v>0.6806819184943225</v>
       </c>
       <c r="E20">
         <v>0.240481003519176</v>
@@ -16773,7 +16773,7 @@
         <v>0.8817025966972822</v>
       </c>
       <c r="D21">
-        <v>0.3844183813245048</v>
+        <v>0.378839683834124</v>
       </c>
       <c r="E21">
         <v>0.3359468662827891</v>
@@ -16799,7 +16799,7 @@
         <v>0.9103446130541165</v>
       </c>
       <c r="D22">
-        <v>0.4949074094048882</v>
+        <v>0.6223228608735308</v>
       </c>
       <c r="E22">
         <v>0.2924631700878655</v>
@@ -16825,7 +16825,7 @@
         <v>0.8986285951974312</v>
       </c>
       <c r="D23">
-        <v>0.2600648358222291</v>
+        <v>0.5945887419879125</v>
       </c>
       <c r="E23">
         <v>0.3109859159467669</v>
@@ -16851,7 +16851,7 @@
         <v>0.9250975609154086</v>
       </c>
       <c r="D24">
-        <v>0.3286976249378365</v>
+        <v>0.5794159597689579</v>
       </c>
       <c r="E24">
         <v>0.2673197021262108</v>
@@ -16877,7 +16877,7 @@
         <v>0.9363455268599505</v>
       </c>
       <c r="D25">
-        <v>0.2885927864965938</v>
+        <v>0.5696864617079621</v>
       </c>
       <c r="E25">
         <v>0.2464321990078061</v>
@@ -16903,7 +16903,7 @@
         <v>0.9378860684045415</v>
       </c>
       <c r="D26">
-        <v>0.246230438590082</v>
+        <v>0.5721448606991628</v>
       </c>
       <c r="E26">
         <v>0.2434319052754784</v>
@@ -16929,7 +16929,7 @@
         <v>0.9423862718848669</v>
       </c>
       <c r="D27">
-        <v>0.2553593825385001</v>
+        <v>0.5593833026670745</v>
       </c>
       <c r="E27">
         <v>0.2344477007268755</v>
@@ -16955,7 +16955,7 @@
         <v>0.9437228442342733</v>
       </c>
       <c r="D28">
-        <v>0.3220592463430089</v>
+        <v>0.6257038409144698</v>
       </c>
       <c r="E28">
         <v>0.2317122842523525</v>
@@ -16981,7 +16981,7 @@
         <v>0.9491031294551153</v>
       </c>
       <c r="D29">
-        <v>0.3396983383793807</v>
+        <v>0.6558474325864065</v>
       </c>
       <c r="E29">
         <v>0.2203578510806314</v>
@@ -17007,7 +17007,7 @@
         <v>0.9519326866668287</v>
       </c>
       <c r="D30">
-        <v>0.360450492121892</v>
+        <v>0.658262608660378</v>
       </c>
       <c r="E30">
         <v>0.2141449871983962</v>
@@ -17033,7 +17033,7 @@
         <v>0.9529621074624705</v>
       </c>
       <c r="D31">
-        <v>0.3873398578810244</v>
+        <v>0.6622507215607789</v>
       </c>
       <c r="E31">
         <v>0.2118394871086813</v>
@@ -17059,7 +17059,7 @@
         <v>0.9513690767418637</v>
       </c>
       <c r="D32">
-        <v>0.3224733353291841</v>
+        <v>0.6314576705062184</v>
       </c>
       <c r="E32">
         <v>0.2153967994278573</v>
@@ -17085,7 +17085,7 @@
         <v>0.9478831650993955</v>
       </c>
       <c r="D33">
-        <v>0.3081780354506933</v>
+        <v>0.6360167784373455</v>
       </c>
       <c r="E33">
         <v>0.2229831287355218</v>
@@ -17111,7 +17111,7 @@
         <v>0.9466990813533599</v>
       </c>
       <c r="D34">
-        <v>0.3624806168462659</v>
+        <v>0.6546587109060866</v>
       </c>
       <c r="E34">
         <v>0.2255019675733539</v>
@@ -17137,7 +17137,7 @@
         <v>0.9466654738182466</v>
       </c>
       <c r="D35">
-        <v>0.3115448377215768</v>
+        <v>0.6512727027556778</v>
       </c>
       <c r="E35">
         <v>0.2255730486282815</v>
@@ -17163,7 +17163,7 @@
         <v>0.9476417258271514</v>
       </c>
       <c r="D36">
-        <v>0.272344328130172</v>
+        <v>0.6445811148847933</v>
       </c>
       <c r="E36">
         <v>0.2234990337834891</v>
@@ -17189,7 +17189,7 @@
         <v>0.9438663309673992</v>
       </c>
       <c r="D37">
-        <v>0.23025597915966</v>
+        <v>0.6392006210335635</v>
       </c>
       <c r="E37">
         <v>0.2314167037658016</v>
@@ -17215,7 +17215,7 @@
         <v>0.9410347789660356</v>
       </c>
       <c r="D38">
-        <v>0.2443817389210544</v>
+        <v>0.6352570680014002</v>
       </c>
       <c r="E38">
         <v>0.2371815778659045</v>
@@ -17241,7 +17241,7 @@
         <v>0.9378400926660979</v>
       </c>
       <c r="D39">
-        <v>0.1991799351130216</v>
+        <v>0.6090935751408286</v>
       </c>
       <c r="E39">
         <v>0.2435219808113263</v>
@@ -17267,7 +17267,7 @@
         <v>0.8898234096241553</v>
       </c>
       <c r="D40">
-        <v>0.3825183854334154</v>
+        <v>0.4905089222222355</v>
       </c>
       <c r="E40">
         <v>0.3242109304525618</v>
@@ -17293,7 +17293,7 @@
         <v>0.901886833026417</v>
       </c>
       <c r="D41">
-        <v>0.4185523150378863</v>
+        <v>0.5852275972301422</v>
       </c>
       <c r="E41">
         <v>0.3059473076231825</v>
@@ -17319,7 +17319,7 @@
         <v>0.9075495411904075</v>
       </c>
       <c r="D42">
-        <v>0.2167583610258932</v>
+        <v>0.5453545968771228</v>
       </c>
       <c r="E42">
         <v>0.2969870577871573</v>
@@ -17345,7 +17345,7 @@
         <v>0.9305480230058299</v>
       </c>
       <c r="D43">
-        <v>0.3458485050497234</v>
+        <v>0.5926507335268734</v>
       </c>
       <c r="E43">
         <v>0.2574099290182176</v>
@@ -17371,7 +17371,7 @@
         <v>0.9347941630191372</v>
       </c>
       <c r="D44">
-        <v>0.2836967266847392</v>
+        <v>0.5599315066081429</v>
       </c>
       <c r="E44">
         <v>0.249417100052621</v>
@@ -17397,7 +17397,7 @@
         <v>0.9397026251416731</v>
       </c>
       <c r="D45">
-        <v>0.2757454560435303</v>
+        <v>0.5702410828969483</v>
       </c>
       <c r="E45">
         <v>0.2398458403597868</v>
@@ -17423,7 +17423,7 @@
         <v>0.9428033300148135</v>
       </c>
       <c r="D46">
-        <v>0.2694963738102065</v>
+        <v>0.5195043057987163</v>
       </c>
       <c r="E46">
         <v>0.2335975915837575</v>
@@ -17449,7 +17449,7 @@
         <v>0.9443584879762855</v>
       </c>
       <c r="D47">
-        <v>0.3680762704063987</v>
+        <v>0.5881219558786356</v>
       </c>
       <c r="E47">
         <v>0.2303999869033848</v>
@@ -17475,7 +17475,7 @@
         <v>0.9446263829655112</v>
       </c>
       <c r="D48">
-        <v>0.456329485117693</v>
+        <v>0.6176818399419473</v>
       </c>
       <c r="E48">
         <v>0.2298446688236282</v>
@@ -17501,7 +17501,7 @@
         <v>0.9478979754970305</v>
       </c>
       <c r="D49">
-        <v>0.445339156661263</v>
+        <v>0.6151363565878588</v>
       </c>
       <c r="E49">
         <v>0.222951443163447</v>
@@ -17527,7 +17527,7 @@
         <v>0.9486263899047942</v>
       </c>
       <c r="D50">
-        <v>0.4571945128817688</v>
+        <v>0.6247755723538553</v>
       </c>
       <c r="E50">
         <v>0.2213874668945905</v>
@@ -17553,7 +17553,7 @@
         <v>0.9468136746154243</v>
       </c>
       <c r="D51">
-        <v>0.4619750569293111</v>
+        <v>0.6160207594113342</v>
       </c>
       <c r="E51">
         <v>0.2252594303829659</v>
@@ -17579,7 +17579,7 @@
         <v>0.9431246445130925</v>
       </c>
       <c r="D52">
-        <v>0.456600615284581</v>
+        <v>0.6264332081093997</v>
       </c>
       <c r="E52">
         <v>0.2329405253237022</v>
@@ -17605,7 +17605,7 @@
         <v>0.9429060675023782</v>
       </c>
       <c r="D53">
-        <v>0.5140495505297182</v>
+        <v>0.6607710481820841</v>
       </c>
       <c r="E53">
         <v>0.2333877015998001</v>
@@ -17631,7 +17631,7 @@
         <v>0.9440641458890427</v>
       </c>
       <c r="D54">
-        <v>0.5247355372266882</v>
+        <v>0.6739137855675834</v>
       </c>
       <c r="E54">
         <v>0.2310085879305286</v>
@@ -17657,7 +17657,7 @@
         <v>0.9418801379842072</v>
       </c>
       <c r="D55">
-        <v>0.5423334144038677</v>
+        <v>0.6824781782455056</v>
       </c>
       <c r="E55">
         <v>0.2354752549378911</v>
@@ -17683,7 +17683,7 @@
         <v>0.9379406292302277</v>
       </c>
       <c r="D56">
-        <v>0.5245876903147685</v>
+        <v>0.6814094251709959</v>
       </c>
       <c r="E56">
         <v>0.2433249665953687</v>
@@ -17709,7 +17709,7 @@
         <v>0.9386971117140321</v>
       </c>
       <c r="D57">
-        <v>0.4932051081840662</v>
+        <v>0.6614650492147907</v>
       </c>
       <c r="E57">
         <v>0.2418373954294988</v>
@@ -17735,7 +17735,7 @@
         <v>0.9355946120271138</v>
       </c>
       <c r="D58">
-        <v>0.4778691269119895</v>
+        <v>0.6399265275264736</v>
       </c>
       <c r="E58">
         <v>0.247881484774536</v>
@@ -17761,7 +17761,7 @@
         <v>0.8657651782250161</v>
       </c>
       <c r="D59">
-        <v>0.1981472755187621</v>
+        <v>0.2298451335813712</v>
       </c>
       <c r="E59">
         <v>0.3578619991576441</v>
@@ -17787,7 +17787,7 @@
         <v>0.8955496417291327</v>
       </c>
       <c r="D60">
-        <v>0.1090497038963247</v>
+        <v>0.4179541303815238</v>
       </c>
       <c r="E60">
         <v>0.3156733764195638</v>
@@ -17813,7 +17813,7 @@
         <v>0.8858287534394989</v>
       </c>
       <c r="D61">
-        <v>0.0244966075554327</v>
+        <v>0.4368310068005508</v>
       </c>
       <c r="E61">
         <v>0.3300360342246645</v>
@@ -17839,7 +17839,7 @@
         <v>0.9192576855405501</v>
       </c>
       <c r="D62">
-        <v>0.1933935387092383</v>
+        <v>0.5116757656002391</v>
       </c>
       <c r="E62">
         <v>0.2775451135641803</v>
@@ -17865,7 +17865,7 @@
         <v>0.9268910067419689</v>
       </c>
       <c r="D63">
-        <v>0.03628423337494968</v>
+        <v>0.4834296869304761</v>
       </c>
       <c r="E63">
         <v>0.2640999933339746</v>
@@ -17891,7 +17891,7 @@
         <v>0.934799475413768</v>
       </c>
       <c r="D64">
-        <v>0.06777260552834352</v>
+        <v>0.5109275567261597</v>
       </c>
       <c r="E64">
         <v>0.2494069396964861</v>
@@ -17917,7 +17917,7 @@
         <v>0.9407570925307747</v>
       </c>
       <c r="D65">
-        <v>0.06764587192342597</v>
+        <v>0.4790798465761068</v>
       </c>
       <c r="E65">
         <v>0.2377394045494373</v>
@@ -17943,7 +17943,7 @@
         <v>0.9411625364902558</v>
       </c>
       <c r="D66">
-        <v>0.08444433598278289</v>
+        <v>0.5066103193817333</v>
       </c>
       <c r="E66">
         <v>0.2369244927415577</v>
@@ -17969,7 +17969,7 @@
         <v>0.9465893567668451</v>
       </c>
       <c r="D67">
-        <v>0.118598855960412</v>
+        <v>0.525659898942479</v>
       </c>
       <c r="E67">
         <v>0.2257339559696718</v>
@@ -17995,7 +17995,7 @@
         <v>0.9473181461335876</v>
       </c>
       <c r="D68">
-        <v>0.1514459541230174</v>
+        <v>0.5359854882483523</v>
       </c>
       <c r="E68">
         <v>0.2241885939152416</v>
@@ -18021,7 +18021,7 @@
         <v>0.9484049686939985</v>
       </c>
       <c r="D69">
-        <v>0.2095757329964059</v>
+        <v>0.5556486445186188</v>
       </c>
       <c r="E69">
         <v>0.22186404597143</v>
@@ -18047,7 +18047,7 @@
         <v>0.9471405351825263</v>
       </c>
       <c r="D70">
-        <v>0.1875911236758995</v>
+        <v>0.5391489054302343</v>
       </c>
       <c r="E70">
         <v>0.2245661892554205</v>
@@ -18073,7 +18073,7 @@
         <v>0.943266085260333</v>
       </c>
       <c r="D71">
-        <v>0.2114928003004266</v>
+        <v>0.5605110787872091</v>
       </c>
       <c r="E71">
         <v>0.2326507003989353</v>
@@ -18099,7 +18099,7 @@
         <v>0.9435865091581568</v>
       </c>
       <c r="D72">
-        <v>0.2803819442513301</v>
+        <v>0.5966123559409557</v>
       </c>
       <c r="E72">
         <v>0.2319927835251275</v>
@@ -18125,7 +18125,7 @@
         <v>0.9440548921814245</v>
       </c>
       <c r="D73">
-        <v>0.2846143919812064</v>
+        <v>0.6281675347255994</v>
       </c>
       <c r="E73">
         <v>0.2310276955097339</v>
@@ -18151,7 +18151,7 @@
         <v>0.9433498919282343</v>
       </c>
       <c r="D74">
-        <v>0.2688744369600171</v>
+        <v>0.6240545140578992</v>
       </c>
       <c r="E74">
         <v>0.2324788024624582</v>
@@ -18177,7 +18177,7 @@
         <v>0.9393988103979165</v>
       </c>
       <c r="D75">
-        <v>0.1912709251836262</v>
+        <v>0.5992130657708989</v>
       </c>
       <c r="E75">
         <v>0.2404493255367194</v>
@@ -18203,7 +18203,7 @@
         <v>0.9397886126097504</v>
       </c>
       <c r="D76">
-        <v>0.2060495511001877</v>
+        <v>0.6014470631977793</v>
       </c>
       <c r="E76">
         <v>0.2396747624771176</v>
@@ -18229,7 +18229,7 @@
         <v>0.9397227410254128</v>
       </c>
       <c r="D77">
-        <v>0.1732864324301189</v>
+        <v>0.5696134273039877</v>
       </c>
       <c r="E77">
         <v>0.2398058293849054</v>
@@ -18255,7 +18255,7 @@
         <v>0.8905981069240569</v>
       </c>
       <c r="D78">
-        <v>-0.3567401495023368</v>
+        <v>0.4623334647240153</v>
       </c>
       <c r="E78">
         <v>0.3230690889663262</v>
@@ -18281,7 +18281,7 @@
         <v>0.9041261567545524</v>
       </c>
       <c r="D79">
-        <v>0.03627017165197866</v>
+        <v>0.5501330995558678</v>
       </c>
       <c r="E79">
         <v>0.3024357016245552</v>
@@ -18307,7 +18307,7 @@
         <v>0.9070015596724231</v>
       </c>
       <c r="D80">
-        <v>0.01128149297183023</v>
+        <v>0.5664383609665686</v>
       </c>
       <c r="E80">
         <v>0.2978659229419695</v>
@@ -18333,7 +18333,7 @@
         <v>0.9322853621139235</v>
       </c>
       <c r="D81">
-        <v>0.1814075099679426</v>
+        <v>0.5885080304329584</v>
       </c>
       <c r="E81">
         <v>0.2541699881382987</v>
@@ -18359,7 +18359,7 @@
         <v>0.936712683407656</v>
       </c>
       <c r="D82">
-        <v>0.03913989526601847</v>
+        <v>0.5568172569187424</v>
       </c>
       <c r="E82">
         <v>0.2457204654977738</v>
@@ -18385,7 +18385,7 @@
         <v>0.9422489482330459</v>
       </c>
       <c r="D83">
-        <v>0.05454869378136751</v>
+        <v>0.5480750778860437</v>
       </c>
       <c r="E83">
         <v>0.2347269401876563</v>
@@ -18411,7 +18411,7 @@
         <v>0.9460656317297592</v>
       </c>
       <c r="D84">
-        <v>0.07925030117406562</v>
+        <v>0.506575169973279</v>
       </c>
       <c r="E84">
         <v>0.2268379880311329</v>
@@ -18437,7 +18437,7 @@
         <v>0.9444795142803806</v>
       </c>
       <c r="D85">
-        <v>0.2336190325885287</v>
+        <v>0.5795497474937787</v>
       </c>
       <c r="E85">
         <v>0.2301492780593503</v>
@@ -18463,7 +18463,7 @@
         <v>0.9486150122129672</v>
       </c>
       <c r="D86">
-        <v>0.1731225108023233</v>
+        <v>0.5398405372625392</v>
       </c>
       <c r="E86">
         <v>0.2214119808319966</v>
@@ -18489,7 +18489,7 @@
         <v>0.9514542924537543</v>
       </c>
       <c r="D87">
-        <v>0.2263730924228714</v>
+        <v>0.5563361073274583</v>
       </c>
       <c r="E87">
         <v>0.2152079973411273</v>
@@ -18515,7 +18515,7 @@
         <v>0.9525842992258993</v>
       </c>
       <c r="D88">
-        <v>0.2683274039817087</v>
+        <v>0.5639477557002793</v>
       </c>
       <c r="E88">
         <v>0.2126885327536419</v>
@@ -18541,7 +18541,7 @@
         <v>0.9497381507307893</v>
       </c>
       <c r="D89">
-        <v>0.2327298100880315</v>
+        <v>0.554129100573189</v>
       </c>
       <c r="E89">
         <v>0.2189788749662079</v>
@@ -18567,7 +18567,7 @@
         <v>0.9463545413475304</v>
       </c>
       <c r="D90">
-        <v>0.2131282498041095</v>
+        <v>0.5620841958860527</v>
       </c>
       <c r="E90">
         <v>0.2262296219936044</v>
@@ -18593,7 +18593,7 @@
         <v>0.9455210583285174</v>
       </c>
       <c r="D91">
-        <v>0.3066958105492503</v>
+        <v>0.6036257739947131</v>
       </c>
       <c r="E91">
         <v>0.2279802993590827</v>
@@ -18619,7 +18619,7 @@
         <v>0.9464399934910585</v>
       </c>
       <c r="D92">
-        <v>0.2563592264148487</v>
+        <v>0.6002282159911526</v>
       </c>
       <c r="E92">
         <v>0.2260493689844301</v>
@@ -18645,7 +18645,7 @@
         <v>0.9434592162340936</v>
       </c>
       <c r="D93">
-        <v>0.2953814567533796</v>
+        <v>0.5875970078514071</v>
       </c>
       <c r="E93">
         <v>0.2322543734342539</v>
@@ -18671,7 +18671,7 @@
         <v>0.9378182909983437</v>
       </c>
       <c r="D94">
-        <v>0.3096822889546699</v>
+        <v>0.6059373129099759</v>
       </c>
       <c r="E94">
         <v>0.2435646829331301</v>
@@ -18697,7 +18697,7 @@
         <v>0.938873284180866</v>
       </c>
       <c r="D95">
-        <v>0.2894137562745513</v>
+        <v>0.6005031582226995</v>
       </c>
       <c r="E95">
         <v>0.2414896488106488</v>
@@ -18723,7 +18723,7 @@
         <v>0.9377628278884106</v>
       </c>
       <c r="D96">
-        <v>0.2509210940782519</v>
+        <v>0.5723382809659466</v>
       </c>
       <c r="E96">
         <v>0.2436732827451309</v>
@@ -18749,7 +18749,7 @@
         <v>0.8334472669041639</v>
       </c>
       <c r="D97">
-        <v>-0.4633679344859105</v>
+        <v>0.2161860824757558</v>
       </c>
       <c r="E97">
         <v>0.3986198031712215</v>
@@ -18775,7 +18775,7 @@
         <v>0.86633053014481</v>
       </c>
       <c r="D98">
-        <v>0.2490171591333915</v>
+        <v>0.3851983919295833</v>
       </c>
       <c r="E98">
         <v>0.3571076068205742</v>
@@ -18801,7 +18801,7 @@
         <v>0.8875103196061394</v>
       </c>
       <c r="D99">
-        <v>0.2755431816590538</v>
+        <v>0.4337177019090541</v>
       </c>
       <c r="E99">
         <v>0.3275965578917545</v>
@@ -18827,7 +18827,7 @@
         <v>0.9153213731193046</v>
       </c>
       <c r="D100">
-        <v>0.2911215428114047</v>
+        <v>0.5108913653054451</v>
       </c>
       <c r="E100">
         <v>0.2842299849046634</v>
@@ -18853,7 +18853,7 @@
         <v>0.9290465790634097</v>
       </c>
       <c r="D101">
-        <v>0.2627014672415582</v>
+        <v>0.5068057594516007</v>
       </c>
       <c r="E101">
         <v>0.2601774531635603</v>
@@ -18879,7 +18879,7 @@
         <v>0.9310372278380574</v>
       </c>
       <c r="D102">
-        <v>0.202397170968978</v>
+        <v>0.5167225899791393</v>
       </c>
       <c r="E102">
         <v>0.2565017567797527</v>
@@ -18905,7 +18905,7 @@
         <v>0.9349144608508789</v>
       </c>
       <c r="D103">
-        <v>0.2569367982290641</v>
+        <v>0.5794555197203497</v>
       </c>
       <c r="E103">
         <v>0.2491869198325073</v>
@@ -18931,7 +18931,7 @@
         <v>0.9367917840469616</v>
       </c>
       <c r="D104">
-        <v>0.3777734264130252</v>
+        <v>0.6440234138160388</v>
       </c>
       <c r="E104">
         <v>0.2455668587084885</v>
@@ -18957,7 +18957,7 @@
         <v>0.9397745024642501</v>
       </c>
       <c r="D105">
-        <v>0.4196795644751131</v>
+        <v>0.6489814242617258</v>
       </c>
       <c r="E105">
         <v>0.2397028439398836</v>
@@ -18983,7 +18983,7 @@
         <v>0.9434892078780404</v>
       </c>
       <c r="D106">
-        <v>0.4435505114452956</v>
+        <v>0.6602448728726531</v>
       </c>
       <c r="E106">
         <v>0.2321927664491802</v>
@@ -19009,7 +19009,7 @@
         <v>0.9460965843185394</v>
       </c>
       <c r="D107">
-        <v>0.436054249824083</v>
+        <v>0.6411456773889055</v>
       </c>
       <c r="E107">
         <v>0.2267728882549016</v>
@@ -19035,7 +19035,7 @@
         <v>0.9442831514893576</v>
       </c>
       <c r="D108">
-        <v>0.4185694926499558</v>
+        <v>0.637656966357032</v>
       </c>
       <c r="E108">
         <v>0.2305559105437348</v>
@@ -19061,7 +19061,7 @@
         <v>0.9417611307828717</v>
       </c>
       <c r="D109">
-        <v>0.4567910004042084</v>
+        <v>0.6471574708896008</v>
       </c>
       <c r="E109">
         <v>0.2357162131882301</v>
@@ -19087,7 +19087,7 @@
         <v>0.9397662101893446</v>
       </c>
       <c r="D110">
-        <v>0.4991419267512182</v>
+        <v>0.6676367121389801</v>
       </c>
       <c r="E110">
         <v>0.239719345368216</v>
@@ -19113,7 +19113,7 @@
         <v>0.9422103314277069</v>
       </c>
       <c r="D111">
-        <v>0.4260127560554474</v>
+        <v>0.6481862512823668</v>
       </c>
       <c r="E111">
         <v>0.2348054053367423</v>
@@ -19139,7 +19139,7 @@
         <v>0.9412473743133416</v>
       </c>
       <c r="D112">
-        <v>0.4184834417601585</v>
+        <v>0.6329940507106446</v>
       </c>
       <c r="E112">
         <v>0.236753620240938</v>
@@ -19165,7 +19165,7 @@
         <v>0.9381058423362285</v>
       </c>
       <c r="D113">
-        <v>0.3513063704050212</v>
+        <v>0.6111406843177681</v>
       </c>
       <c r="E113">
         <v>0.2430008635318098</v>
@@ -19191,7 +19191,7 @@
         <v>0.9385108387432027</v>
       </c>
       <c r="D114">
-        <v>0.3930348422797197</v>
+        <v>0.6354998901443467</v>
       </c>
       <c r="E114">
         <v>0.2422045363838707</v>
@@ -19217,7 +19217,7 @@
         <v>0.9360044570943538</v>
       </c>
       <c r="D115">
-        <v>0.355149917738398</v>
+        <v>0.6091898411688357</v>
       </c>
       <c r="E115">
         <v>0.2470915264681736</v>
@@ -19243,7 +19243,7 @@
         <v>0.7898593083119596</v>
       </c>
       <c r="D116">
-        <v>-0.5999512803717644</v>
+        <v>0.2294732264682388</v>
       </c>
       <c r="E116">
         <v>0.4477525492903882</v>
@@ -19269,7 +19269,7 @@
         <v>0.8557303462396864</v>
       </c>
       <c r="D117">
-        <v>-0.09650611390945674</v>
+        <v>0.3215784591254105</v>
       </c>
       <c r="E117">
         <v>0.3709970729974832</v>
@@ -19295,7 +19295,7 @@
         <v>0.8838165750106516</v>
       </c>
       <c r="D118">
-        <v>-0.0637277865671575</v>
+        <v>0.3460806225420867</v>
       </c>
       <c r="E118">
         <v>0.332931644505169</v>
@@ -19321,7 +19321,7 @@
         <v>0.9147498187153582</v>
       </c>
       <c r="D119">
-        <v>0.02305993560627895</v>
+        <v>0.4707975323423081</v>
       </c>
       <c r="E119">
         <v>0.2851876037288549</v>
@@ -19347,7 +19347,7 @@
         <v>0.9261887583961627</v>
       </c>
       <c r="D120">
-        <v>-0.08752936057805494</v>
+        <v>0.4959820461866707</v>
       </c>
       <c r="E120">
         <v>0.2653653680396016</v>
@@ -19373,7 +19373,7 @@
         <v>0.927121564622405</v>
       </c>
       <c r="D121">
-        <v>-0.03488517654122392</v>
+        <v>0.5131974460021335</v>
       </c>
       <c r="E121">
         <v>0.2636832291710466</v>
@@ -19399,7 +19399,7 @@
         <v>0.9280369696167287</v>
       </c>
       <c r="D122">
-        <v>0.1162318194685762</v>
+        <v>0.5306198225634322</v>
       </c>
       <c r="E122">
         <v>0.2620219715700449</v>
@@ -19425,7 +19425,7 @@
         <v>0.9315213189647064</v>
       </c>
       <c r="D123">
-        <v>0.1991989534384692</v>
+        <v>0.5756280955349141</v>
       </c>
       <c r="E123">
         <v>0.2555999013651786</v>
@@ -19451,7 +19451,7 @@
         <v>0.9362632327832734</v>
       </c>
       <c r="D124">
-        <v>0.2079717540897398</v>
+        <v>0.5597743541287759</v>
       </c>
       <c r="E124">
         <v>0.2465914443751935</v>
@@ -19477,7 +19477,7 @@
         <v>0.9414521374303909</v>
       </c>
       <c r="D125">
-        <v>0.2223412140494443</v>
+        <v>0.5585097202153527</v>
       </c>
       <c r="E125">
         <v>0.2363406963811664</v>
@@ -19503,7 +19503,7 @@
         <v>0.94578875934263</v>
       </c>
       <c r="D126">
-        <v>0.2935606280690114</v>
+        <v>0.5662965714975319</v>
       </c>
       <c r="E126">
         <v>0.2274194797663092</v>
@@ -19529,7 +19529,7 @@
         <v>0.9443183990493658</v>
       </c>
       <c r="D127">
-        <v>0.2893400257919865</v>
+        <v>0.5658141926158572</v>
       </c>
       <c r="E127">
         <v>0.2304829719338997</v>
@@ -19555,7 +19555,7 @@
         <v>0.9406265504484729</v>
       </c>
       <c r="D128">
-        <v>0.3690651306419624</v>
+        <v>0.607035325327768</v>
       </c>
       <c r="E128">
         <v>0.238001190479622</v>
@@ -19581,7 +19581,7 @@
         <v>0.9394315477710157</v>
       </c>
       <c r="D129">
-        <v>0.4287117985508062</v>
+        <v>0.6374765739396274</v>
       </c>
       <c r="E129">
         <v>0.2403843701892206</v>
@@ -19607,7 +19607,7 @@
         <v>0.9419390510223444</v>
       </c>
       <c r="D130">
-        <v>0.4213266854828411</v>
+        <v>0.6481149800230247</v>
       </c>
       <c r="E130">
         <v>0.2353558802572969</v>
@@ -19633,7 +19633,7 @@
         <v>0.9402114641786861</v>
       </c>
       <c r="D131">
-        <v>0.4173801165878184</v>
+        <v>0.6277851610591413</v>
       </c>
       <c r="E131">
         <v>0.2388316876406173</v>
@@ -19659,7 +19659,7 @@
         <v>0.9358493879063684</v>
       </c>
       <c r="D132">
-        <v>0.3343352392455482</v>
+        <v>0.6016101123226383</v>
       </c>
       <c r="E132">
         <v>0.2473907121413047</v>
@@ -19685,7 +19685,7 @@
         <v>0.9333055630652448</v>
       </c>
       <c r="D133">
-        <v>0.3170928860704967</v>
+        <v>0.5982232304108446</v>
       </c>
       <c r="E133">
         <v>0.2522480360963725</v>
@@ -19711,7 +19711,7 @@
         <v>0.9297378345979369</v>
       </c>
       <c r="D134">
-        <v>0.3260431270830036</v>
+        <v>0.5947625165262039</v>
       </c>
       <c r="E134">
         <v>0.2589069767810611</v>
@@ -19737,7 +19737,7 @@
         <v>0.8506089074986939</v>
       </c>
       <c r="D135">
-        <v>-0.0260609327490442</v>
+        <v>0.2811871684549661</v>
       </c>
       <c r="E135">
         <v>0.3775246730515199</v>
@@ -19763,7 +19763,7 @@
         <v>0.9007555969189888</v>
       </c>
       <c r="D136">
-        <v>-0.09887714397125102</v>
+        <v>0.3867220754372511</v>
       </c>
       <c r="E136">
         <v>0.3077060253390416</v>
@@ -19789,7 +19789,7 @@
         <v>0.9051842849742763</v>
       </c>
       <c r="D137">
-        <v>-0.5021115616712599</v>
+        <v>0.311853645545058</v>
       </c>
       <c r="E137">
         <v>0.300762129233051</v>
@@ -19815,7 +19815,7 @@
         <v>0.9242551797631915</v>
       </c>
       <c r="D138">
-        <v>-0.2346932178379679</v>
+        <v>0.381170182352393</v>
       </c>
       <c r="E138">
         <v>0.2688186885922843</v>
@@ -19841,7 +19841,7 @@
         <v>0.9325868068628627</v>
       </c>
       <c r="D139">
-        <v>-0.149564812132279</v>
+        <v>0.4142496669188603</v>
       </c>
       <c r="E139">
         <v>0.2536036137829046</v>
@@ -19867,7 +19867,7 @@
         <v>0.9409794629640438</v>
       </c>
       <c r="D140">
-        <v>-0.1063724643749993</v>
+        <v>0.4195659931195951</v>
       </c>
       <c r="E140">
         <v>0.2372928032700704</v>
@@ -19893,7 +19893,7 @@
         <v>0.9493209500802616</v>
       </c>
       <c r="D141">
-        <v>-0.1518576173495967</v>
+        <v>0.4343222256661399</v>
       </c>
       <c r="E141">
         <v>0.2198858186286644</v>
@@ -19919,7 +19919,7 @@
         <v>0.9487733613889782</v>
       </c>
       <c r="D142">
-        <v>-0.001696712247867049</v>
+        <v>0.4993290559871387</v>
       </c>
       <c r="E142">
         <v>0.2210705634387687</v>
@@ -19945,7 +19945,7 @@
         <v>0.9489046169685103</v>
       </c>
       <c r="D143">
-        <v>0.1512737881587881</v>
+        <v>0.5523672071006673</v>
       </c>
       <c r="E143">
         <v>0.2207871624913728</v>
@@ -19971,7 +19971,7 @@
         <v>0.9501163903740085</v>
       </c>
       <c r="D144">
-        <v>0.2233295196519219</v>
+        <v>0.5830487408951126</v>
       </c>
       <c r="E144">
         <v>0.2181533690695945</v>
@@ -19997,7 +19997,7 @@
         <v>0.9512570154836424</v>
       </c>
       <c r="D145">
-        <v>0.3310784821060018</v>
+        <v>0.6140996070928717</v>
       </c>
       <c r="E145">
         <v>0.2156448283107865</v>
@@ -20023,7 +20023,7 @@
         <v>0.9500273566830992</v>
       </c>
       <c r="D146">
-        <v>0.2146616228092587</v>
+        <v>0.5983255176715141</v>
       </c>
       <c r="E146">
         <v>0.2183479654592974</v>
@@ -20049,7 +20049,7 @@
         <v>0.9496239131328437</v>
       </c>
       <c r="D147">
-        <v>0.2243237758131955</v>
+        <v>0.5986219702010729</v>
       </c>
       <c r="E147">
         <v>0.2192275866927789</v>
@@ -20075,7 +20075,7 @@
         <v>0.9483001099149956</v>
       </c>
       <c r="D148">
-        <v>0.3006507481391714</v>
+        <v>0.623103065643737</v>
       </c>
       <c r="E148">
         <v>0.2220893834125436</v>
@@ -20101,7 +20101,7 @@
         <v>0.9489640648585476</v>
       </c>
       <c r="D149">
-        <v>0.3194286548403026</v>
+        <v>0.6264239380294345</v>
       </c>
       <c r="E149">
         <v>0.2206586856101984</v>
@@ -20127,7 +20127,7 @@
         <v>0.94887998130119</v>
       </c>
       <c r="D150">
-        <v>0.3289452352968923</v>
+        <v>0.6384122131826644</v>
       </c>
       <c r="E150">
         <v>0.2208403824036821</v>
@@ -20153,7 +20153,7 @@
         <v>0.9451687820927044</v>
       </c>
       <c r="D151">
-        <v>0.2476619793176322</v>
+        <v>0.6195826764799017</v>
       </c>
       <c r="E151">
         <v>0.2287162041620877</v>
@@ -20179,7 +20179,7 @@
         <v>0.9438512530462253</v>
       </c>
       <c r="D152">
-        <v>0.2329477957365442</v>
+        <v>0.6151019797076767</v>
       </c>
       <c r="E152">
         <v>0.2314477818032566</v>
@@ -20205,7 +20205,7 @@
         <v>0.9407918798097092</v>
       </c>
       <c r="D153">
-        <v>0.2571601320523608</v>
+        <v>0.6108573913521036</v>
       </c>
       <c r="E153">
         <v>0.2376695943243376</v>
@@ -20231,7 +20231,7 @@
         <v>0.8933145495497666</v>
       </c>
       <c r="D154">
-        <v>-0.1411613069359761</v>
+        <v>0.2063075836871813</v>
       </c>
       <c r="E154">
         <v>0.3190329840999473</v>
@@ -20257,7 +20257,7 @@
         <v>0.904217461730547</v>
       </c>
       <c r="D155">
-        <v>-0.217135418949479</v>
+        <v>0.2533216094870353</v>
       </c>
       <c r="E155">
         <v>0.3022916557557319</v>
@@ -20283,7 +20283,7 @@
         <v>0.8871342623663407</v>
       </c>
       <c r="D156">
-        <v>-0.351030252315867</v>
+        <v>0.30533124011271</v>
       </c>
       <c r="E156">
         <v>0.3281436848246918</v>
@@ -20309,7 +20309,7 @@
         <v>0.9123287402150126</v>
       </c>
       <c r="D157">
-        <v>-0.262065470139567</v>
+        <v>0.4743754916186479</v>
       </c>
       <c r="E157">
         <v>0.2892088723154207</v>
@@ -20335,7 +20335,7 @@
         <v>0.9203044382361549</v>
       </c>
       <c r="D158">
-        <v>-0.1349873186946444</v>
+        <v>0.4472051701199059</v>
       </c>
       <c r="E158">
         <v>0.2757401811794627</v>
@@ -20361,7 +20361,7 @@
         <v>0.9324296880371188</v>
       </c>
       <c r="D159">
-        <v>-0.2759424218128805</v>
+        <v>0.4227069059327796</v>
       </c>
       <c r="E159">
         <v>0.2538989766793744</v>
@@ -20387,7 +20387,7 @@
         <v>0.9372340831771665</v>
       </c>
       <c r="D160">
-        <v>-0.2200059200238413</v>
+        <v>0.3838418958048042</v>
       </c>
       <c r="E160">
         <v>0.2447061740604969</v>
@@ -20413,7 +20413,7 @@
         <v>0.9388189628881801</v>
       </c>
       <c r="D161">
-        <v>-0.1779445432653857</v>
+        <v>0.4408745162448835</v>
       </c>
       <c r="E161">
         <v>0.2415969269182832</v>
@@ -20439,7 +20439,7 @@
         <v>0.9424552764301732</v>
       </c>
       <c r="D162">
-        <v>0.01989990018258037</v>
+        <v>0.4922668315252346</v>
       </c>
       <c r="E162">
         <v>0.2343072584699254</v>
@@ -20465,7 +20465,7 @@
         <v>0.9454332373938271</v>
       </c>
       <c r="D163">
-        <v>0.08977208725703745</v>
+        <v>0.5113769972131998</v>
       </c>
       <c r="E163">
         <v>0.2281639793291879</v>
@@ -20491,7 +20491,7 @@
         <v>0.9492060987934338</v>
       </c>
       <c r="D164">
-        <v>0.176683591615179</v>
+        <v>0.5459244469219742</v>
       </c>
       <c r="E164">
         <v>0.2201348355045036</v>
@@ -20517,7 +20517,7 @@
         <v>0.9481205000067867</v>
       </c>
       <c r="D165">
-        <v>0.08061367414918619</v>
+        <v>0.5043928091513606</v>
       </c>
       <c r="E165">
         <v>0.2224748278389819</v>
@@ -20543,7 +20543,7 @@
         <v>0.9470314948816844</v>
       </c>
       <c r="D166">
-        <v>0.108914920007307</v>
+        <v>0.4776768508396251</v>
       </c>
       <c r="E166">
         <v>0.2247976913137097</v>
@@ -20569,7 +20569,7 @@
         <v>0.948283636993876</v>
       </c>
       <c r="D167">
-        <v>0.1595079748019768</v>
+        <v>0.5105373516192395</v>
       </c>
       <c r="E167">
         <v>0.2221247623032415</v>
@@ -20595,7 +20595,7 @@
         <v>0.9486866366674156</v>
       </c>
       <c r="D168">
-        <v>0.1529703562602506</v>
+        <v>0.5229864902726804</v>
       </c>
       <c r="E168">
         <v>0.2212576162686757</v>
@@ -20621,7 +20621,7 @@
         <v>0.9446361725315586</v>
       </c>
       <c r="D169">
-        <v>0.2393516059363618</v>
+        <v>0.5450023087426992</v>
       </c>
       <c r="E169">
         <v>0.229824350672639</v>
@@ -20647,7 +20647,7 @@
         <v>0.9404415841213093</v>
       </c>
       <c r="D170">
-        <v>0.219464049295088</v>
+        <v>0.5404040914145588</v>
       </c>
       <c r="E170">
         <v>0.2383716251946484</v>
@@ -20673,7 +20673,7 @@
         <v>0.940345209533399</v>
       </c>
       <c r="D171">
-        <v>0.2291597185397305</v>
+        <v>0.5622785288437043</v>
       </c>
       <c r="E171">
         <v>0.2385644080354984</v>
@@ -20699,7 +20699,7 @@
         <v>0.938146618107392</v>
       </c>
       <c r="D172">
-        <v>0.2563612808976581</v>
+        <v>0.5679469900826004</v>
       </c>
       <c r="E172">
         <v>0.2429208060558739</v>
@@ -20725,7 +20725,7 @@
         <v>0.8756398256498777</v>
       </c>
       <c r="D173">
-        <v>0.4824595244862333</v>
+        <v>0.610533609261009</v>
       </c>
       <c r="E173">
         <v>0.3444479858760479</v>
@@ -20751,7 +20751,7 @@
         <v>0.8910285468382131</v>
       </c>
       <c r="D174">
-        <v>0.357134695069601</v>
+        <v>0.558700057049655</v>
       </c>
       <c r="E174">
         <v>0.3224329076313009</v>
@@ -20777,7 +20777,7 @@
         <v>0.8834238443713571</v>
       </c>
       <c r="D175">
-        <v>0.05535716498439902</v>
+        <v>0.3752738043715972</v>
       </c>
       <c r="E175">
         <v>0.333493868202322</v>
@@ -20803,7 +20803,7 @@
         <v>0.9140331175274221</v>
       </c>
       <c r="D176">
-        <v>0.1391004381758632</v>
+        <v>0.4872559093380852</v>
       </c>
       <c r="E176">
         <v>0.2863838856615979</v>
@@ -20829,7 +20829,7 @@
         <v>0.9237114063783524</v>
       </c>
       <c r="D177">
-        <v>0.1261719480069013</v>
+        <v>0.4646368057522248</v>
       </c>
       <c r="E177">
         <v>0.2697818899995655</v>
@@ -20855,7 +20855,7 @@
         <v>0.9343773508935643</v>
       </c>
       <c r="D178">
-        <v>0.1103727352094902</v>
+        <v>0.4758069591357025</v>
       </c>
       <c r="E178">
         <v>0.2502129986298892</v>
@@ -20881,7 +20881,7 @@
         <v>0.9412115632101375</v>
       </c>
       <c r="D179">
-        <v>0.06853406039517718</v>
+        <v>0.4415970503267707</v>
       </c>
       <c r="E179">
         <v>0.2368257626913877</v>
@@ -20907,7 +20907,7 @@
         <v>0.9434887840295457</v>
       </c>
       <c r="D180">
-        <v>0.1117769331065749</v>
+        <v>0.5064837492079989</v>
       </c>
       <c r="E180">
         <v>0.2321936372064842</v>
@@ -20933,7 +20933,7 @@
         <v>0.9492249406942329</v>
       </c>
       <c r="D181">
-        <v>0.3414301225795273</v>
+        <v>0.6039775295396335</v>
       </c>
       <c r="E181">
         <v>0.220094002418674</v>
@@ -20959,7 +20959,7 @@
         <v>0.9499198144704079</v>
       </c>
       <c r="D182">
-        <v>0.4210923147139795</v>
+        <v>0.6336482205242265</v>
       </c>
       <c r="E182">
         <v>0.2185827839731775</v>
@@ -20985,7 +20985,7 @@
         <v>0.953458339035204</v>
       </c>
       <c r="D183">
-        <v>0.4128306505854263</v>
+        <v>0.6119257467971984</v>
       </c>
       <c r="E183">
         <v>0.2107191120668896</v>
@@ -21011,7 +21011,7 @@
         <v>0.9521718458116958</v>
       </c>
       <c r="D184">
-        <v>0.3188665011199681</v>
+        <v>0.5634984927563003</v>
       </c>
       <c r="E184">
         <v>0.2136115831840909</v>
@@ -21037,7 +21037,7 @@
         <v>0.9522426319649427</v>
       </c>
       <c r="D185">
-        <v>0.3311026716530909</v>
+        <v>0.5438331039420243</v>
       </c>
       <c r="E185">
         <v>0.2134534509983916</v>
@@ -21063,7 +21063,7 @@
         <v>0.9523798818114806</v>
       </c>
       <c r="D186">
-        <v>0.4283672914534365</v>
+        <v>0.5786812880434895</v>
       </c>
       <c r="E186">
         <v>0.2131465084923414</v>
@@ -21089,7 +21089,7 @@
         <v>0.95482186594194</v>
       </c>
       <c r="D187">
-        <v>0.4470702234101305</v>
+        <v>0.5958795357707979</v>
       </c>
       <c r="E187">
         <v>0.2076094573896783</v>
@@ -21115,7 +21115,7 @@
         <v>0.9530461336828913</v>
       </c>
       <c r="D188">
-        <v>0.4574387646725318</v>
+        <v>0.5874646840709021</v>
       </c>
       <c r="E188">
         <v>0.2116501926177712</v>
@@ -21141,7 +21141,7 @@
         <v>0.9498662985757471</v>
       </c>
       <c r="D189">
-        <v>0.4236691947774689</v>
+        <v>0.5798748493960494</v>
       </c>
       <c r="E189">
         <v>0.2186995420257531</v>
@@ -21167,7 +21167,7 @@
         <v>0.9491002914498954</v>
       </c>
       <c r="D190">
-        <v>0.440000099366388</v>
+        <v>0.5941418921924611</v>
       </c>
       <c r="E190">
         <v>0.2203639945626119</v>
@@ -21193,7 +21193,7 @@
         <v>0.9494396518641715</v>
       </c>
       <c r="D191">
-        <v>0.4625744426406844</v>
+        <v>0.6118220375162606</v>
       </c>
       <c r="E191">
         <v>0.2196281565334856</v>
@@ -21219,7 +21219,7 @@
         <v>0.8788746765872651</v>
       </c>
       <c r="D192">
-        <v>0.3987280771448712</v>
+        <v>0.5678223667391391</v>
       </c>
       <c r="E192">
         <v>0.3399385857733399</v>
@@ -21245,7 +21245,7 @@
         <v>0.8895026600758407</v>
       </c>
       <c r="D193">
-        <v>0.5227737812063016</v>
+        <v>0.6083857782859936</v>
       </c>
       <c r="E193">
         <v>0.3246825139986053</v>
@@ -21271,7 +21271,7 @@
         <v>0.9052575491686414</v>
       </c>
       <c r="D194">
-        <v>0.1736128085849167</v>
+        <v>0.5579997066216302</v>
       </c>
       <c r="E194">
         <v>0.300645907183953</v>
@@ -21297,7 +21297,7 @@
         <v>0.927566960774025</v>
       </c>
       <c r="D195">
-        <v>0.2781752550821193</v>
+        <v>0.6134360287795245</v>
       </c>
       <c r="E195">
         <v>0.262876245018943</v>
@@ -21323,7 +21323,7 @@
         <v>0.9337732074857826</v>
       </c>
       <c r="D196">
-        <v>0.2719066154041802</v>
+        <v>0.6023610660187831</v>
       </c>
       <c r="E196">
         <v>0.2513621309084614</v>
@@ -21349,7 +21349,7 @@
         <v>0.9426468643414441</v>
       </c>
       <c r="D197">
-        <v>0.2536442256158083</v>
+        <v>0.5908199111362507</v>
       </c>
       <c r="E197">
         <v>0.2339168850172987</v>
@@ -21375,7 +21375,7 @@
         <v>0.9470406371120111</v>
       </c>
       <c r="D198">
-        <v>0.1852105962556649</v>
+        <v>0.5280054459831255</v>
       </c>
       <c r="E198">
         <v>0.2247782907194084</v>
@@ -21401,7 +21401,7 @@
         <v>0.9455135083055765</v>
       </c>
       <c r="D199">
-        <v>0.2252999824127017</v>
+        <v>0.5738623230787634</v>
       </c>
       <c r="E199">
         <v>0.2279960962597384</v>
@@ -21427,7 +21427,7 @@
         <v>0.9467823254054862</v>
       </c>
       <c r="D200">
-        <v>0.3552969867165109</v>
+        <v>0.6328758370171492</v>
       </c>
       <c r="E200">
         <v>0.2253258070770444</v>
@@ -21453,7 +21453,7 @@
         <v>0.9492280152601995</v>
       </c>
       <c r="D201">
-        <v>0.4016579518922843</v>
+        <v>0.6361221182760367</v>
       </c>
       <c r="E201">
         <v>0.2200873386768414</v>
@@ -21479,7 +21479,7 @@
         <v>0.9509310661054073</v>
       </c>
       <c r="D202">
-        <v>0.4451511815584961</v>
+        <v>0.638449779352269</v>
       </c>
       <c r="E202">
         <v>0.2163646465750205</v>
@@ -21505,7 +21505,7 @@
         <v>0.9502267457987074</v>
       </c>
       <c r="D203">
-        <v>0.3628662397077953</v>
+        <v>0.614404403284078</v>
       </c>
       <c r="E203">
         <v>0.2179119296737347</v>
@@ -21531,7 +21531,7 @@
         <v>0.9503162281153024</v>
       </c>
       <c r="D204">
-        <v>0.3729359917709615</v>
+        <v>0.6022003488706262</v>
       </c>
       <c r="E204">
         <v>0.2177159606094135</v>
@@ -21557,7 +21557,7 @@
         <v>0.9509617079209306</v>
       </c>
       <c r="D205">
-        <v>0.4521580773020278</v>
+        <v>0.6244229827793188</v>
       </c>
       <c r="E205">
         <v>0.2162970799865201</v>
@@ -21583,7 +21583,7 @@
         <v>0.9518035019012032</v>
       </c>
       <c r="D206">
-        <v>0.4637125754387078</v>
+        <v>0.6480992428205014</v>
       </c>
       <c r="E206">
         <v>0.2144325600364947</v>
@@ -21609,7 +21609,7 @@
         <v>0.9494535211831797</v>
       </c>
       <c r="D207">
-        <v>0.4950626974962273</v>
+        <v>0.6452839365101549</v>
       </c>
       <c r="E207">
         <v>0.2195980311288729</v>
@@ -21635,7 +21635,7 @@
         <v>0.9475232391230777</v>
       </c>
       <c r="D208">
-        <v>0.5177902530574399</v>
+        <v>0.6829410875196589</v>
       </c>
       <c r="E208">
         <v>0.2237517798797894</v>
@@ -21661,7 +21661,7 @@
         <v>0.9475469138705835</v>
       </c>
       <c r="D209">
-        <v>0.5318862423810591</v>
+        <v>0.6916384200943327</v>
       </c>
       <c r="E209">
         <v>0.2237013016833383</v>
@@ -21687,7 +21687,7 @@
         <v>0.9466194685654581</v>
       </c>
       <c r="D210">
-        <v>0.5595671502174215</v>
+        <v>0.7050242649407689</v>
       </c>
       <c r="E210">
         <v>0.2256703149674448</v>
@@ -21713,7 +21713,7 @@
         <v>0.893367601996502</v>
       </c>
       <c r="D211">
-        <v>0.2270976019627896</v>
+        <v>0.4848572306644323</v>
       </c>
       <c r="E211">
         <v>0.3189536500154039</v>
@@ -21739,7 +21739,7 @@
         <v>0.8925624431868556</v>
       </c>
       <c r="D212">
-        <v>0.4646307245252316</v>
+        <v>0.6322190747583778</v>
       </c>
       <c r="E212">
         <v>0.320155561400527</v>
@@ -21765,7 +21765,7 @@
         <v>0.9015247172731549</v>
       </c>
       <c r="D213">
-        <v>0.03072938805011738</v>
+        <v>0.4630152263641227</v>
       </c>
       <c r="E213">
         <v>0.3065113822885586</v>
@@ -21791,7 +21791,7 @@
         <v>0.9223936662268597</v>
       </c>
       <c r="D214">
-        <v>0.1312606258047964</v>
+        <v>0.5939427456076236</v>
       </c>
       <c r="E214">
         <v>0.2721018986141359</v>
@@ -21817,7 +21817,7 @@
         <v>0.9317135340281737</v>
       </c>
       <c r="D215">
-        <v>0.1145225606572594</v>
+        <v>0.5519779802068264</v>
       </c>
       <c r="E215">
         <v>0.2552409233938537</v>
@@ -21843,7 +21843,7 @@
         <v>0.9418844781465687</v>
       </c>
       <c r="D216">
-        <v>0.06223934483566995</v>
+        <v>0.5654448160345855</v>
       </c>
       <c r="E216">
         <v>0.2354664625914923</v>
@@ -21869,7 +21869,7 @@
         <v>0.9463377066283493</v>
       </c>
       <c r="D217">
-        <v>0.06186185044305437</v>
+        <v>0.5496779185791678</v>
       </c>
       <c r="E217">
         <v>0.2262651162694268</v>
@@ -21895,7 +21895,7 @@
         <v>0.9482357101309241</v>
       </c>
       <c r="D218">
-        <v>0.2012723733344178</v>
+        <v>0.6059521861166932</v>
       </c>
       <c r="E218">
         <v>0.2222276627891297</v>
@@ -21921,7 +21921,7 @@
         <v>0.9517928640358638</v>
       </c>
       <c r="D219">
-        <v>0.3560695353482235</v>
+        <v>0.6649306222691262</v>
       </c>
       <c r="E219">
         <v>0.2144562233619575</v>
@@ -21947,7 +21947,7 @@
         <v>0.9507419636997864</v>
       </c>
       <c r="D220">
-        <v>0.4251850794823513</v>
+        <v>0.679443903504364</v>
       </c>
       <c r="E220">
         <v>0.2167811599160145</v>
@@ -21973,7 +21973,7 @@
         <v>0.9524664601061731</v>
       </c>
       <c r="D221">
-        <v>0.4668306399055961</v>
+        <v>0.6797764159501394</v>
       </c>
       <c r="E221">
         <v>0.212952659155996</v>
@@ -21999,7 +21999,7 @@
         <v>0.9505891877510414</v>
       </c>
       <c r="D222">
-        <v>0.3613013310857968</v>
+        <v>0.6335819310935242</v>
       </c>
       <c r="E222">
         <v>0.2171170777645883</v>
@@ -22025,7 +22025,7 @@
         <v>0.951887540430074</v>
       </c>
       <c r="D223">
-        <v>0.3542721800994434</v>
+        <v>0.6136324701733669</v>
       </c>
       <c r="E223">
         <v>0.2142455292362907</v>
@@ -22051,7 +22051,7 @@
         <v>0.9512040705462769</v>
       </c>
       <c r="D224">
-        <v>0.4416927665969769</v>
+        <v>0.6487734723331132</v>
       </c>
       <c r="E224">
         <v>0.215761913911286</v>
@@ -22077,7 +22077,7 @@
         <v>0.9520930002830118</v>
       </c>
       <c r="D225">
-        <v>0.4497771352086078</v>
+        <v>0.6692034879090303</v>
       </c>
       <c r="E225">
         <v>0.2137875818505467</v>
@@ -22103,7 +22103,7 @@
         <v>0.9500003288105734</v>
       </c>
       <c r="D226">
-        <v>0.4393956468942105</v>
+        <v>0.6484473720095338</v>
       </c>
       <c r="E226">
         <v>0.2184070045939298</v>
@@ -22129,7 +22129,7 @@
         <v>0.9465044174357981</v>
       </c>
       <c r="D227">
-        <v>0.3973490711254937</v>
+        <v>0.6334358704263253</v>
       </c>
       <c r="E227">
         <v>0.2259133778329472</v>
@@ -22155,7 +22155,7 @@
         <v>0.9459187148377637</v>
       </c>
       <c r="D228">
-        <v>0.4451803374734431</v>
+        <v>0.6600804251757038</v>
       </c>
       <c r="E228">
         <v>0.2271467305726022</v>
@@ -22181,7 +22181,7 @@
         <v>0.9464932881481957</v>
       </c>
       <c r="D229">
-        <v>0.4713920892342728</v>
+        <v>0.6763195164183365</v>
       </c>
       <c r="E229">
         <v>0.2259368762610514</v>
@@ -22207,7 +22207,7 @@
         <v>0.893367601996502</v>
       </c>
       <c r="D230">
-        <v>0.2270976019627896</v>
+        <v>0.4848572306644323</v>
       </c>
       <c r="E230">
         <v>0.3189536500154039</v>
@@ -22233,7 +22233,7 @@
         <v>0.8925624431868556</v>
       </c>
       <c r="D231">
-        <v>0.4646307245252316</v>
+        <v>0.6322190747583778</v>
       </c>
       <c r="E231">
         <v>0.320155561400527</v>
@@ -22259,7 +22259,7 @@
         <v>0.9015247172731549</v>
       </c>
       <c r="D232">
-        <v>0.03072938805011738</v>
+        <v>0.4630152263641227</v>
       </c>
       <c r="E232">
         <v>0.3065113822885586</v>
@@ -22285,7 +22285,7 @@
         <v>0.9223936662268597</v>
       </c>
       <c r="D233">
-        <v>0.1312606258047964</v>
+        <v>0.5939427456076236</v>
       </c>
       <c r="E233">
         <v>0.2721018986141359</v>
@@ -22311,7 +22311,7 @@
         <v>0.9317135340281737</v>
       </c>
       <c r="D234">
-        <v>0.1145225606572594</v>
+        <v>0.5519779802068264</v>
       </c>
       <c r="E234">
         <v>0.2552409233938537</v>
@@ -22337,7 +22337,7 @@
         <v>0.9418844781465687</v>
       </c>
       <c r="D235">
-        <v>0.06223934483566995</v>
+        <v>0.5654448160345855</v>
       </c>
       <c r="E235">
         <v>0.2354664625914923</v>
@@ -22363,7 +22363,7 @@
         <v>0.9463377066283493</v>
       </c>
       <c r="D236">
-        <v>0.06186185044305437</v>
+        <v>0.5496779185791678</v>
       </c>
       <c r="E236">
         <v>0.2262651162694268</v>
@@ -22389,7 +22389,7 @@
         <v>0.9482357101309241</v>
       </c>
       <c r="D237">
-        <v>0.2012723733344178</v>
+        <v>0.6059521861166932</v>
       </c>
       <c r="E237">
         <v>0.2222276627891297</v>
@@ -22415,7 +22415,7 @@
         <v>0.9517928640358638</v>
       </c>
       <c r="D238">
-        <v>0.3560695353482235</v>
+        <v>0.6649306222691262</v>
       </c>
       <c r="E238">
         <v>0.2144562233619575</v>
@@ -22441,7 +22441,7 @@
         <v>0.9507419636997864</v>
       </c>
       <c r="D239">
-        <v>0.4251850794823513</v>
+        <v>0.679443903504364</v>
       </c>
       <c r="E239">
         <v>0.2167811599160145</v>
@@ -22467,7 +22467,7 @@
         <v>0.9524664601061731</v>
       </c>
       <c r="D240">
-        <v>0.4668306399055961</v>
+        <v>0.6797764159501394</v>
       </c>
       <c r="E240">
         <v>0.212952659155996</v>
@@ -22493,7 +22493,7 @@
         <v>0.9505891877510414</v>
       </c>
       <c r="D241">
-        <v>0.3613013310857968</v>
+        <v>0.6335819310935242</v>
       </c>
       <c r="E241">
         <v>0.2171170777645883</v>
@@ -22519,7 +22519,7 @@
         <v>0.951887540430074</v>
       </c>
       <c r="D242">
-        <v>0.3542721800994434</v>
+        <v>0.6136324701733669</v>
       </c>
       <c r="E242">
         <v>0.2142455292362907</v>
@@ -22545,7 +22545,7 @@
         <v>0.9512040705462769</v>
       </c>
       <c r="D243">
-        <v>0.4416927665969769</v>
+        <v>0.6487734723331132</v>
       </c>
       <c r="E243">
         <v>0.215761913911286</v>
@@ -22571,7 +22571,7 @@
         <v>0.9520930002830118</v>
       </c>
       <c r="D244">
-        <v>0.4497771352086078</v>
+        <v>0.6692034879090303</v>
       </c>
       <c r="E244">
         <v>0.2137875818505467</v>
@@ -22597,7 +22597,7 @@
         <v>0.9500003288105734</v>
       </c>
       <c r="D245">
-        <v>0.4393956468942105</v>
+        <v>0.6484473720095338</v>
       </c>
       <c r="E245">
         <v>0.2184070045939298</v>
@@ -22623,7 +22623,7 @@
         <v>0.9465044174357981</v>
       </c>
       <c r="D246">
-        <v>0.3973490711254937</v>
+        <v>0.6334358704263253</v>
       </c>
       <c r="E246">
         <v>0.2259133778329472</v>
@@ -22649,7 +22649,7 @@
         <v>0.9459187148377637</v>
       </c>
       <c r="D247">
-        <v>0.4451803374734431</v>
+        <v>0.6600804251757038</v>
       </c>
       <c r="E247">
         <v>0.2271467305726022</v>
@@ -22675,7 +22675,7 @@
         <v>0.9464932881481957</v>
       </c>
       <c r="D248">
-        <v>0.4713920892342728</v>
+        <v>0.6763195164183365</v>
       </c>
       <c r="E248">
         <v>0.2259368762610514</v>
@@ -22701,7 +22701,7 @@
         <v>0.8729070424027751</v>
       </c>
       <c r="D249">
-        <v>-0.1147113735815684</v>
+        <v>0.2057127525657906</v>
       </c>
       <c r="E249">
         <v>0.3482119984442434</v>
@@ -22727,7 +22727,7 @@
         <v>0.8824492834745272</v>
       </c>
       <c r="D250">
-        <v>0.2013624310829234</v>
+        <v>0.4545478718617856</v>
       </c>
       <c r="E250">
         <v>0.33488494876232</v>
@@ -22753,7 +22753,7 @@
         <v>0.8994178908842895</v>
       </c>
       <c r="D251">
-        <v>-0.06457000920882594</v>
+        <v>0.4106998043789482</v>
       </c>
       <c r="E251">
         <v>0.3097728543824202</v>
@@ -22779,7 +22779,7 @@
         <v>0.921984540812732</v>
       </c>
       <c r="D252">
-        <v>0.08044893072632731</v>
+        <v>0.5060659684132447</v>
       </c>
       <c r="E252">
         <v>0.2728181898154483</v>
@@ -22805,7 +22805,7 @@
         <v>0.9283981252011798</v>
       </c>
       <c r="D253">
-        <v>0.1700590895926203</v>
+        <v>0.5445874508293007</v>
       </c>
       <c r="E253">
         <v>0.2613636493337537</v>
@@ -22831,7 +22831,7 @@
         <v>0.9376437524209666</v>
       </c>
       <c r="D254">
-        <v>0.1357621388753895</v>
+        <v>0.512380447870515</v>
       </c>
       <c r="E254">
         <v>0.2439062756962803</v>
@@ -22857,7 +22857,7 @@
         <v>0.9416995700766216</v>
       </c>
       <c r="D255">
-        <v>0.09861301005654843</v>
+        <v>0.4765212891115966</v>
       </c>
       <c r="E255">
         <v>0.235840760798328</v>
@@ -22883,7 +22883,7 @@
         <v>0.9405403051555117</v>
       </c>
       <c r="D256">
-        <v>0.2106952325733006</v>
+        <v>0.535770621701314</v>
       </c>
       <c r="E256">
         <v>0.2381739868542644</v>
@@ -22909,7 +22909,7 @@
         <v>0.9455772939273978</v>
       </c>
       <c r="D257">
-        <v>0.366781935366852</v>
+        <v>0.6260302572032059</v>
       </c>
       <c r="E257">
         <v>0.2278626032504215</v>
@@ -22935,7 +22935,7 @@
         <v>0.9475930737699796</v>
       </c>
       <c r="D258">
-        <v>0.3993808197643367</v>
+        <v>0.6354124863931889</v>
       </c>
       <c r="E258">
         <v>0.223602848921761</v>
@@ -22961,7 +22961,7 @@
         <v>0.9490204321255656</v>
       </c>
       <c r="D259">
-        <v>0.4462596119149026</v>
+        <v>0.6351210613482107</v>
       </c>
       <c r="E259">
         <v>0.2205367973444066</v>
@@ -22987,7 +22987,7 @@
         <v>0.9481914535017241</v>
       </c>
       <c r="D260">
-        <v>0.3670614641856954</v>
+        <v>0.6042026801190442</v>
       </c>
       <c r="E260">
         <v>0.2223226408718877</v>
@@ -23013,7 +23013,7 @@
         <v>0.9496966320938171</v>
       </c>
       <c r="D261">
-        <v>0.439142362662015</v>
+        <v>0.6165492852042074</v>
       </c>
       <c r="E261">
         <v>0.2190692996897143</v>
@@ -23039,7 +23039,7 @@
         <v>0.9493244855288842</v>
       </c>
       <c r="D262">
-        <v>0.4907369696475651</v>
+        <v>0.6214502879256836</v>
       </c>
       <c r="E262">
         <v>0.2198781487081119</v>
@@ -23065,7 +23065,7 @@
         <v>0.9500549755143355</v>
       </c>
       <c r="D263">
-        <v>0.46892192502063</v>
+        <v>0.6244219804101183</v>
       </c>
       <c r="E263">
         <v>0.2182876189509513</v>
@@ -23091,7 +23091,7 @@
         <v>0.9482910342400304</v>
       </c>
       <c r="D264">
-        <v>0.471050774830295</v>
+        <v>0.6167421383587559</v>
       </c>
       <c r="E264">
         <v>0.222108875935678</v>
@@ -23117,7 +23117,7 @@
         <v>0.9446800693617763</v>
       </c>
       <c r="D265">
-        <v>0.4287236388651984</v>
+        <v>0.6003802267290088</v>
       </c>
       <c r="E265">
         <v>0.2297332211255274</v>
@@ -23143,7 +23143,7 @@
         <v>0.9449191440745767</v>
       </c>
       <c r="D266">
-        <v>0.4737778087402543</v>
+        <v>0.6345617873169789</v>
       </c>
       <c r="E266">
         <v>0.2292362675677201</v>
@@ -23169,7 +23169,7 @@
         <v>0.9455679877291356</v>
       </c>
       <c r="D267">
-        <v>0.5004903384268425</v>
+        <v>0.6471492880049017</v>
       </c>
       <c r="E267">
         <v>0.2278820844933726</v>
@@ -23195,7 +23195,7 @@
         <v>0.8808006240321709</v>
       </c>
       <c r="D268">
-        <v>0.2573510044829582</v>
+        <v>0.3682836384212325</v>
       </c>
       <c r="E268">
         <v>0.3372251677505494</v>
@@ -23221,7 +23221,7 @@
         <v>0.8843699839486898</v>
       </c>
       <c r="D269">
-        <v>0.4545093806859548</v>
+        <v>0.5065984211634901</v>
       </c>
       <c r="E269">
         <v>0.3321377822340052</v>
@@ -23247,7 +23247,7 @@
         <v>0.8949366116432467</v>
       </c>
       <c r="D270">
-        <v>0.2773364872810933</v>
+        <v>0.4544254870150117</v>
       </c>
       <c r="E270">
         <v>0.316598381212132</v>
@@ -23273,7 +23273,7 @@
         <v>0.9189914281011855</v>
       </c>
       <c r="D271">
-        <v>0.34178638252769</v>
+        <v>0.5760030949684547</v>
       </c>
       <c r="E271">
         <v>0.2780023560258144</v>
@@ -23299,7 +23299,7 @@
         <v>0.931150112767256</v>
       </c>
       <c r="D272">
-        <v>0.3778679790310021</v>
+        <v>0.5918031154271552</v>
       </c>
       <c r="E272">
         <v>0.2562917373691827</v>
@@ -23325,7 +23325,7 @@
         <v>0.9415356826097864</v>
       </c>
       <c r="D273">
-        <v>0.2214807572520968</v>
+        <v>0.5078224343463494</v>
       </c>
       <c r="E273">
         <v>0.2361720123857688</v>
@@ -23351,7 +23351,7 @@
         <v>0.9449847064595723</v>
       </c>
       <c r="D274">
-        <v>0.147238925086094</v>
+        <v>0.4500793478881026</v>
       </c>
       <c r="E274">
         <v>0.2290997977257683</v>
@@ -23377,7 +23377,7 @@
         <v>0.9459179340407574</v>
       </c>
       <c r="D275">
-        <v>0.2373079907069754</v>
+        <v>0.511277678569992</v>
       </c>
       <c r="E275">
         <v>0.227148370278894</v>
@@ -23403,7 +23403,7 @@
         <v>0.9498225677106149</v>
       </c>
       <c r="D276">
-        <v>0.3795811464507552</v>
+        <v>0.6072340870029131</v>
       </c>
       <c r="E276">
         <v>0.2187949053761418</v>
@@ -23429,7 +23429,7 @@
         <v>0.9520501473493892</v>
       </c>
       <c r="D277">
-        <v>0.4445579142771349</v>
+        <v>0.6347511935152992</v>
       </c>
       <c r="E277">
         <v>0.2138831772467805</v>
@@ -23455,7 +23455,7 @@
         <v>0.9526473783242332</v>
       </c>
       <c r="D278">
-        <v>0.50474072400389</v>
+        <v>0.6392682386012349</v>
       </c>
       <c r="E278">
         <v>0.2125470114257135</v>
@@ -23481,7 +23481,7 @@
         <v>0.9511650792110576</v>
       </c>
       <c r="D279">
-        <v>0.440450063623424</v>
+        <v>0.6135169287522545</v>
       </c>
       <c r="E279">
         <v>0.2158481010714274</v>
@@ -23507,7 +23507,7 @@
         <v>0.9521312491952674</v>
       </c>
       <c r="D280">
-        <v>0.4911539895512723</v>
+        <v>0.6242691100761426</v>
       </c>
       <c r="E280">
         <v>0.2137022208874743</v>
@@ -23533,7 +23533,7 @@
         <v>0.9524387596902933</v>
       </c>
       <c r="D281">
-        <v>0.5553569954781952</v>
+        <v>0.6479033088487134</v>
       </c>
       <c r="E281">
         <v>0.2130146997496959</v>
@@ -23559,7 +23559,7 @@
         <v>0.953693020779781</v>
       </c>
       <c r="D282">
-        <v>0.5489235301370474</v>
+        <v>0.6517444182027718</v>
       </c>
       <c r="E282">
         <v>0.210187175468618</v>
@@ -23585,7 +23585,7 @@
         <v>0.9526333758054196</v>
       </c>
       <c r="D283">
-        <v>0.5345290094336776</v>
+        <v>0.6404205212434</v>
       </c>
       <c r="E283">
         <v>0.212578434960809</v>
@@ -23611,7 +23611,7 @@
         <v>0.9501512075404669</v>
       </c>
       <c r="D284">
-        <v>0.5012981400569231</v>
+        <v>0.6296669106867385</v>
       </c>
       <c r="E284">
         <v>0.2180772237381416</v>
@@ -23637,7 +23637,7 @@
         <v>0.9492745615364626</v>
       </c>
       <c r="D285">
-        <v>0.5328975374480209</v>
+        <v>0.6515102499346194</v>
       </c>
       <c r="E285">
         <v>0.2199864307144679</v>
@@ -23663,7 +23663,7 @@
         <v>0.9500249666994652</v>
       </c>
       <c r="D286">
-        <v>0.5321989409983408</v>
+        <v>0.6532425946434482</v>
       </c>
       <c r="E286">
         <v>0.2183531867342793</v>
@@ -23689,7 +23689,7 @@
         <v>0.8930162932196327</v>
       </c>
       <c r="D287">
-        <v>0.8081923339427795</v>
+        <v>0.800771797336556</v>
       </c>
       <c r="E287">
         <v>0.3194786268521958</v>
@@ -23715,7 +23715,7 @@
         <v>0.9083157923613314</v>
       </c>
       <c r="D288">
-        <v>0.6070282160237805</v>
+        <v>0.6757799374272075</v>
       </c>
       <c r="E288">
         <v>0.2957537476471267</v>
@@ -23741,7 +23741,7 @@
         <v>0.9069679470148293</v>
       </c>
       <c r="D289">
-        <v>0.5718402168779569</v>
+        <v>0.6918851686795853</v>
       </c>
       <c r="E289">
         <v>0.2979197472896332</v>
@@ -23767,7 +23767,7 @@
         <v>0.9267922943508695</v>
       </c>
       <c r="D290">
-        <v>0.695537584895874</v>
+        <v>0.7596236421890847</v>
       </c>
       <c r="E290">
         <v>0.2642782282312212</v>
@@ -23793,7 +23793,7 @@
         <v>0.9385899647316182</v>
       </c>
       <c r="D291">
-        <v>0.6572458412716287</v>
+        <v>0.7442510900579173</v>
       </c>
       <c r="E291">
         <v>0.2420486484002897</v>
@@ -23819,7 +23819,7 @@
         <v>0.9446178650261911</v>
       </c>
       <c r="D292">
-        <v>0.6693579664001561</v>
+        <v>0.7476627778386066</v>
       </c>
       <c r="E292">
         <v>0.2298623462642772</v>
@@ -23845,7 +23845,7 @@
         <v>0.9452495682858916</v>
       </c>
       <c r="D293">
-        <v>0.7139756821899704</v>
+        <v>0.760411021345315</v>
       </c>
       <c r="E293">
         <v>0.2285476512551541</v>
@@ -23871,7 +23871,7 @@
         <v>0.9444277880924131</v>
       </c>
       <c r="D294">
-        <v>0.7039779472149406</v>
+        <v>0.7544741593659967</v>
       </c>
       <c r="E294">
         <v>0.2302564634807489</v>
@@ -23897,7 +23897,7 @@
         <v>0.9475197203121719</v>
       </c>
       <c r="D295">
-        <v>0.7015932503487992</v>
+        <v>0.7546198448279094</v>
       </c>
       <c r="E295">
         <v>0.2237592815528329</v>
@@ -23923,7 +23923,7 @@
         <v>0.9478114194489337</v>
       </c>
       <c r="D296">
-        <v>0.7304970049947455</v>
+        <v>0.7595961974638253</v>
       </c>
       <c r="E296">
         <v>0.2231365586931401</v>
@@ -23949,7 +23949,7 @@
         <v>0.9498083690841678</v>
       </c>
       <c r="D297">
-        <v>0.7620757104073684</v>
+        <v>0.7750358064635327</v>
       </c>
       <c r="E297">
         <v>0.2188258592059101</v>
@@ -23975,7 +23975,7 @@
         <v>0.951769674732552</v>
       </c>
       <c r="D298">
-        <v>0.7377585950682379</v>
+        <v>0.7632667311588871</v>
       </c>
       <c r="E298">
         <v>0.2145077975988189</v>
@@ -24001,7 +24001,7 @@
         <v>0.9520666692913545</v>
       </c>
       <c r="D299">
-        <v>0.6924987999525098</v>
+        <v>0.7364698703906355</v>
       </c>
       <c r="E299">
         <v>0.2138463255183209</v>
@@ -24027,7 +24027,7 @@
         <v>0.9534228699410573</v>
       </c>
       <c r="D300">
-        <v>0.7029679480017131</v>
+        <v>0.738221820191821</v>
       </c>
       <c r="E300">
         <v>0.2107993906005435</v>
@@ -24053,7 +24053,7 @@
         <v>0.9542773725560714</v>
       </c>
       <c r="D301">
-        <v>0.6803149885764113</v>
+        <v>0.7235512096006493</v>
       </c>
       <c r="E301">
         <v>0.2088567799754687</v>
@@ -24079,7 +24079,7 @@
         <v>0.9533825725205637</v>
       </c>
       <c r="D302">
-        <v>0.7013061361248143</v>
+        <v>0.752681773871647</v>
       </c>
       <c r="E302">
         <v>0.2108905601844112</v>
@@ -24105,7 +24105,7 @@
         <v>0.949471688315537</v>
       </c>
       <c r="D303">
-        <v>0.6791014173465053</v>
+        <v>0.7492534098974136</v>
       </c>
       <c r="E303">
         <v>0.2195585642350093</v>
@@ -24131,7 +24131,7 @@
         <v>0.9503875685734569</v>
       </c>
       <c r="D304">
-        <v>0.6866805534187692</v>
+        <v>0.7524090087577588</v>
       </c>
       <c r="E304">
         <v>0.2175595963143744</v>
@@ -24157,7 +24157,7 @@
         <v>0.9502546097224627</v>
       </c>
       <c r="D305">
-        <v>0.6790545721159911</v>
+        <v>0.7419100805047196</v>
       </c>
       <c r="E305">
         <v>0.2178509257117162</v>
@@ -24183,7 +24183,7 @@
         <v>0.8909659028710455</v>
       </c>
       <c r="D306">
-        <v>0.7001690956326518</v>
+        <v>0.5749227176967329</v>
       </c>
       <c r="E306">
         <v>0.3225255721497319</v>
@@ -24209,7 +24209,7 @@
         <v>0.9171599491256477</v>
       </c>
       <c r="D307">
-        <v>0.5636360708570245</v>
+        <v>0.5246277286155447</v>
       </c>
       <c r="E307">
         <v>0.2811273941054119</v>
@@ -24235,7 +24235,7 @@
         <v>0.9190475633822356</v>
       </c>
       <c r="D308">
-        <v>0.5055190208093833</v>
+        <v>0.5584926682704214</v>
       </c>
       <c r="E308">
         <v>0.2779060177959355</v>
@@ -24261,7 +24261,7 @@
         <v>0.9327316827749793</v>
       </c>
       <c r="D309">
-        <v>0.6070373843117456</v>
+        <v>0.6419170822390778</v>
       </c>
       <c r="E309">
         <v>0.2533309608035735</v>
@@ -24287,7 +24287,7 @@
         <v>0.9379141993713997</v>
       </c>
       <c r="D310">
-        <v>0.587711978933092</v>
+        <v>0.6553104296793355</v>
       </c>
       <c r="E310">
         <v>0.2433767747257831</v>
@@ -24313,7 +24313,7 @@
         <v>0.9438691367240187</v>
       </c>
       <c r="D311">
-        <v>0.614013395854214</v>
+        <v>0.694422376125189</v>
       </c>
       <c r="E311">
         <v>0.2314109201864153</v>
@@ -24339,7 +24339,7 @@
         <v>0.947984378728381</v>
       </c>
       <c r="D312">
-        <v>0.6669488103393717</v>
+        <v>0.7121470095108837</v>
       </c>
       <c r="E312">
         <v>0.2227665010386328</v>
@@ -24365,7 +24365,7 @@
         <v>0.9406102618327985</v>
       </c>
       <c r="D313">
-        <v>0.6661961970473447</v>
+        <v>0.7239862301216051</v>
       </c>
       <c r="E313">
         <v>0.2380338350716212</v>
@@ -24391,7 +24391,7 @@
         <v>0.945519524621622</v>
       </c>
       <c r="D314">
-        <v>0.7166672784411454</v>
+        <v>0.7539355542516539</v>
       </c>
       <c r="E314">
         <v>0.2279835084201028</v>
@@ -24417,7 +24417,7 @@
         <v>0.94508446235091</v>
       </c>
       <c r="D315">
-        <v>0.7493790021820019</v>
+        <v>0.7650953497469472</v>
       </c>
       <c r="E315">
         <v>0.2288919971086436</v>
@@ -24443,7 +24443,7 @@
         <v>0.9474525670481631</v>
       </c>
       <c r="D316">
-        <v>0.7971142885024562</v>
+        <v>0.7986431315892505</v>
       </c>
       <c r="E316">
         <v>0.22390239590394</v>
@@ -24469,7 +24469,7 @@
         <v>0.9501349972574955</v>
       </c>
       <c r="D317">
-        <v>0.770274337853659</v>
+        <v>0.7801429518087507</v>
       </c>
       <c r="E317">
         <v>0.2181126790218633</v>
@@ -24495,7 +24495,7 @@
         <v>0.9513448452568476</v>
       </c>
       <c r="D318">
-        <v>0.7423414285687522</v>
+        <v>0.7679943069082527</v>
       </c>
       <c r="E318">
         <v>0.215450455969419</v>
@@ -24521,7 +24521,7 @@
         <v>0.9522387159062033</v>
       </c>
       <c r="D319">
-        <v>0.7616879634166147</v>
+        <v>0.7796023414861868</v>
       </c>
       <c r="E319">
         <v>0.2134622023089398</v>
@@ -24547,7 +24547,7 @@
         <v>0.9509035250022136</v>
       </c>
       <c r="D320">
-        <v>0.7318298403992053</v>
+        <v>0.7569248855127596</v>
       </c>
       <c r="E320">
         <v>0.2164253579526075</v>
@@ -24573,7 +24573,7 @@
         <v>0.9496570981122239</v>
       </c>
       <c r="D321">
-        <v>0.7205609928055395</v>
+        <v>0.7561955161289329</v>
       </c>
       <c r="E321">
         <v>0.2191553672937196</v>
@@ -24599,7 +24599,7 @@
         <v>0.9456841654531498</v>
       </c>
       <c r="D322">
-        <v>0.6886230495754866</v>
+        <v>0.7512662332752273</v>
       </c>
       <c r="E322">
         <v>0.2276387629383063</v>
@@ -24625,7 +24625,7 @@
         <v>0.9487730730305077</v>
       </c>
       <c r="D323">
-        <v>0.7041036515875103</v>
+        <v>0.765782949204281</v>
       </c>
       <c r="E323">
         <v>0.2210711856490246</v>
@@ -24651,7 +24651,7 @@
         <v>0.9489297552809064</v>
       </c>
       <c r="D324">
-        <v>0.697771570832054</v>
+        <v>0.7572559752666683</v>
       </c>
       <c r="E324">
         <v>0.2207328434985173</v>
@@ -24677,7 +24677,7 @@
         <v>0.8642828844697664</v>
       </c>
       <c r="D325">
-        <v>0.1563096056691409</v>
+        <v>0.2069145644594069</v>
       </c>
       <c r="E325">
         <v>0.3598324276654009</v>
@@ -24703,7 +24703,7 @@
         <v>0.880372218113656</v>
       </c>
       <c r="D326">
-        <v>-0.3067443650640174</v>
+        <v>0.02742507716476039</v>
       </c>
       <c r="E326">
         <v>0.3378306226141329</v>
@@ -24729,7 +24729,7 @@
         <v>0.878054112056086</v>
       </c>
       <c r="D327">
-        <v>-0.3019853062845679</v>
+        <v>0.2699604287247896</v>
       </c>
       <c r="E327">
         <v>0.3410881006267334</v>
@@ -24755,7 +24755,7 @@
         <v>0.9036222845006645</v>
       </c>
       <c r="D328">
-        <v>-0.1055466684625341</v>
+        <v>0.3718857107966973</v>
       </c>
       <c r="E328">
         <v>0.3032293970422587</v>
@@ -24781,7 +24781,7 @@
         <v>0.9133397190933021</v>
       </c>
       <c r="D329">
-        <v>-0.03006906672469079</v>
+        <v>0.3780263392931975</v>
       </c>
       <c r="E329">
         <v>0.2875365348690044</v>
@@ -24807,7 +24807,7 @@
         <v>0.9241540752171935</v>
       </c>
       <c r="D330">
-        <v>0.0855277942823387</v>
+        <v>0.4502496796680113</v>
       </c>
       <c r="E330">
         <v>0.2689980389942919</v>
@@ -24833,7 +24833,7 @@
         <v>0.9288908191520925</v>
       </c>
       <c r="D331">
-        <v>0.3176289460530975</v>
+        <v>0.5761082554143522</v>
       </c>
       <c r="E331">
         <v>0.2604628728107967</v>
@@ -24859,7 +24859,7 @@
         <v>0.930310527508036</v>
       </c>
       <c r="D332">
-        <v>0.2939445800729031</v>
+        <v>0.5686129582797359</v>
       </c>
       <c r="E332">
         <v>0.2578496683056142</v>
@@ -24885,7 +24885,7 @@
         <v>0.9350414855870118</v>
       </c>
       <c r="D333">
-        <v>0.3101066439273406</v>
+        <v>0.5536459907471704</v>
       </c>
       <c r="E333">
         <v>0.2489436372066311</v>
@@ -24911,7 +24911,7 @@
         <v>0.9396185765750447</v>
       </c>
       <c r="D334">
-        <v>0.4121275840352975</v>
+        <v>0.5882474019686765</v>
       </c>
       <c r="E334">
         <v>0.2400129428184406</v>
@@ -24937,7 +24937,7 @@
         <v>0.9434388899856951</v>
       </c>
       <c r="D335">
-        <v>0.4821002431548831</v>
+        <v>0.6518304025888859</v>
       </c>
       <c r="E335">
         <v>0.2322961170710062</v>
@@ -24963,7 +24963,7 @@
         <v>0.9438403427561639</v>
       </c>
       <c r="D336">
-        <v>0.3573722757834203</v>
+        <v>0.6141415991593412</v>
       </c>
       <c r="E336">
         <v>0.2314702670760015</v>
@@ -24989,7 +24989,7 @@
         <v>0.9444098016232141</v>
       </c>
       <c r="D337">
-        <v>0.2998342036859598</v>
+        <v>0.6143240659077982</v>
       </c>
       <c r="E337">
         <v>0.2302937228014725</v>
@@ -25015,7 +25015,7 @@
         <v>0.945661476650162</v>
       </c>
       <c r="D338">
-        <v>0.4005283198935948</v>
+        <v>0.6453820477452662</v>
       </c>
       <c r="E338">
         <v>0.227686302590741</v>
@@ -25041,7 +25041,7 @@
         <v>0.9465077946723243</v>
       </c>
       <c r="D339">
-        <v>0.4351953974776416</v>
+        <v>0.6756918472660558</v>
       </c>
       <c r="E339">
         <v>0.2259062466370908</v>
@@ -25067,7 +25067,7 @@
         <v>0.9447928964096028</v>
       </c>
       <c r="D340">
-        <v>0.4332656589706505</v>
+        <v>0.6750556013061748</v>
       </c>
       <c r="E340">
         <v>0.2294988268431718</v>
@@ -25093,7 +25093,7 @@
         <v>0.9412531637793905</v>
       </c>
       <c r="D341">
-        <v>0.4567811844068279</v>
+        <v>0.6834776376426275</v>
       </c>
       <c r="E341">
         <v>0.2367419551383275</v>
@@ -25119,7 +25119,7 @@
         <v>0.943351990371827</v>
       </c>
       <c r="D342">
-        <v>0.4671349498878373</v>
+        <v>0.6822834895384688</v>
       </c>
       <c r="E342">
         <v>0.2324744966615705</v>
@@ -25145,7 +25145,7 @@
         <v>0.9437577104020874</v>
       </c>
       <c r="D343">
-        <v>0.466915616461771</v>
+        <v>0.682731860454588</v>
       </c>
       <c r="E343">
         <v>0.2316404951669197</v>
@@ -25171,7 +25171,7 @@
         <v>0.8642828844697664</v>
       </c>
       <c r="D344">
-        <v>0.1563096056691409</v>
+        <v>0.2069145644594069</v>
       </c>
       <c r="E344">
         <v>0.3598324276654009</v>
@@ -25197,7 +25197,7 @@
         <v>0.880372218113656</v>
       </c>
       <c r="D345">
-        <v>-0.3067443650640174</v>
+        <v>0.02742507716476039</v>
       </c>
       <c r="E345">
         <v>0.3378306226141329</v>
@@ -25223,7 +25223,7 @@
         <v>0.878054112056086</v>
       </c>
       <c r="D346">
-        <v>-0.3019853062845679</v>
+        <v>0.2699604287247896</v>
       </c>
       <c r="E346">
         <v>0.3410881006267334</v>
@@ -25249,7 +25249,7 @@
         <v>0.9036222845006645</v>
       </c>
       <c r="D347">
-        <v>-0.1055466684625341</v>
+        <v>0.3718857107966973</v>
       </c>
       <c r="E347">
         <v>0.3032293970422587</v>
@@ -25275,7 +25275,7 @@
         <v>0.9133397190933021</v>
       </c>
       <c r="D348">
-        <v>-0.03006906672469079</v>
+        <v>0.3780263392931975</v>
       </c>
       <c r="E348">
         <v>0.2875365348690044</v>
@@ -25301,7 +25301,7 @@
         <v>0.9241540752171935</v>
       </c>
       <c r="D349">
-        <v>0.0855277942823387</v>
+        <v>0.4502496796680113</v>
       </c>
       <c r="E349">
         <v>0.2689980389942919</v>
@@ -25327,7 +25327,7 @@
         <v>0.9288908191520925</v>
       </c>
       <c r="D350">
-        <v>0.3176289460530975</v>
+        <v>0.5761082554143522</v>
       </c>
       <c r="E350">
         <v>0.2604628728107967</v>
@@ -25353,7 +25353,7 @@
         <v>0.930310527508036</v>
       </c>
       <c r="D351">
-        <v>0.2939445800729031</v>
+        <v>0.5686129582797359</v>
       </c>
       <c r="E351">
         <v>0.2578496683056142</v>
@@ -25379,7 +25379,7 @@
         <v>0.9350414855870118</v>
       </c>
       <c r="D352">
-        <v>0.3101066439273406</v>
+        <v>0.5536459907471704</v>
       </c>
       <c r="E352">
         <v>0.2489436372066311</v>
@@ -25405,7 +25405,7 @@
         <v>0.9396185765750447</v>
       </c>
       <c r="D353">
-        <v>0.4121275840352975</v>
+        <v>0.5882474019686765</v>
       </c>
       <c r="E353">
         <v>0.2400129428184406</v>
@@ -25431,7 +25431,7 @@
         <v>0.9434388899856951</v>
       </c>
       <c r="D354">
-        <v>0.4821002431548831</v>
+        <v>0.6518304025888859</v>
       </c>
       <c r="E354">
         <v>0.2322961170710062</v>
@@ -25457,7 +25457,7 @@
         <v>0.9438403427561639</v>
       </c>
       <c r="D355">
-        <v>0.3573722757834203</v>
+        <v>0.6141415991593412</v>
       </c>
       <c r="E355">
         <v>0.2314702670760015</v>
@@ -25483,7 +25483,7 @@
         <v>0.9444098016232141</v>
       </c>
       <c r="D356">
-        <v>0.2998342036859598</v>
+        <v>0.6143240659077982</v>
       </c>
       <c r="E356">
         <v>0.2302937228014725</v>
@@ -25509,7 +25509,7 @@
         <v>0.945661476650162</v>
       </c>
       <c r="D357">
-        <v>0.4005283198935948</v>
+        <v>0.6453820477452662</v>
       </c>
       <c r="E357">
         <v>0.227686302590741</v>
@@ -25535,7 +25535,7 @@
         <v>0.9465077946723243</v>
       </c>
       <c r="D358">
-        <v>0.4351953974776416</v>
+        <v>0.6756918472660558</v>
       </c>
       <c r="E358">
         <v>0.2259062466370908</v>
@@ -25561,7 +25561,7 @@
         <v>0.9447928964096028</v>
       </c>
       <c r="D359">
-        <v>0.4332656589706505</v>
+        <v>0.6750556013061748</v>
       </c>
       <c r="E359">
         <v>0.2294988268431718</v>
@@ -25587,7 +25587,7 @@
         <v>0.9412531637793905</v>
       </c>
       <c r="D360">
-        <v>0.4567811844068279</v>
+        <v>0.6834776376426275</v>
       </c>
       <c r="E360">
         <v>0.2367419551383275</v>
@@ -25613,7 +25613,7 @@
         <v>0.943351990371827</v>
       </c>
       <c r="D361">
-        <v>0.4671349498878373</v>
+        <v>0.6822834895384688</v>
       </c>
       <c r="E361">
         <v>0.2324744966615705</v>
@@ -25639,7 +25639,7 @@
         <v>0.9437577104020874</v>
       </c>
       <c r="D362">
-        <v>0.466915616461771</v>
+        <v>0.682731860454588</v>
       </c>
       <c r="E362">
         <v>0.2316404951669197</v>
@@ -25665,7 +25665,7 @@
         <v>0.8177061499391195</v>
       </c>
       <c r="D363">
-        <v>0.1028126770913761</v>
+        <v>-0.1646177586937694</v>
       </c>
       <c r="E363">
         <v>0.4170316315674968</v>
@@ -25691,7 +25691,7 @@
         <v>0.8609780870067716</v>
       </c>
       <c r="D364">
-        <v>0.1278999103341465</v>
+        <v>-0.03489335873695354</v>
       </c>
       <c r="E364">
         <v>0.3641871504681635</v>
@@ -25717,7 +25717,7 @@
         <v>0.8625376289814604</v>
       </c>
       <c r="D365">
-        <v>0.1948835110588772</v>
+        <v>0.09162945869464589</v>
       </c>
       <c r="E365">
         <v>0.3621386712563888</v>
@@ -25743,7 +25743,7 @@
         <v>0.8862919813248422</v>
       </c>
       <c r="D366">
-        <v>0.1453625993599876</v>
+        <v>0.06820408986973414</v>
       </c>
       <c r="E366">
         <v>0.3293658248398876</v>
@@ -25769,7 +25769,7 @@
         <v>0.9053015571663311</v>
       </c>
       <c r="D367">
-        <v>0.2176355432376577</v>
+        <v>0.2712707856235367</v>
       </c>
       <c r="E367">
         <v>0.3005760738565291</v>
@@ -25795,7 +25795,7 @@
         <v>0.9087689749464293</v>
       </c>
       <c r="D368">
-        <v>0.1582413680598098</v>
+        <v>0.3006968204712487</v>
       </c>
       <c r="E368">
         <v>0.2950219068779342</v>
@@ -25821,7 +25821,7 @@
         <v>0.9105620556005821</v>
       </c>
       <c r="D369">
-        <v>0.2763221703997158</v>
+        <v>0.3876927662974596</v>
       </c>
       <c r="E369">
         <v>0.2921082971444812</v>
@@ -25847,7 +25847,7 @@
         <v>0.9084629375226223</v>
       </c>
       <c r="D370">
-        <v>0.2612396332906189</v>
+        <v>0.4274302370446006</v>
       </c>
       <c r="E370">
         <v>0.2955163228550598</v>
@@ -25873,7 +25873,7 @@
         <v>0.9151066415500905</v>
       </c>
       <c r="D371">
-        <v>0.3021816399037472</v>
+        <v>0.4186351914574891</v>
       </c>
       <c r="E371">
         <v>0.2845901378104605</v>
@@ -25899,7 +25899,7 @@
         <v>0.9151083885204983</v>
       </c>
       <c r="D372">
-        <v>0.3219311797865684</v>
+        <v>0.4034421228913965</v>
       </c>
       <c r="E372">
         <v>0.2845872095890075</v>
@@ -25925,7 +25925,7 @@
         <v>0.920595763775275</v>
       </c>
       <c r="D373">
-        <v>0.2858826608986135</v>
+        <v>0.4356823382400259</v>
       </c>
       <c r="E373">
         <v>0.2752357383913946</v>
@@ -25951,7 +25951,7 @@
         <v>0.9224993287339528</v>
       </c>
       <c r="D374">
-        <v>0.2920350367918781</v>
+        <v>0.4273559828964646</v>
       </c>
       <c r="E374">
         <v>0.271916599552125</v>
@@ -25977,7 +25977,7 @@
         <v>0.9264451053001137</v>
       </c>
       <c r="D375">
-        <v>0.2398114909773602</v>
+        <v>0.4589501043749018</v>
       </c>
       <c r="E375">
         <v>0.2649041594543945</v>
@@ -26003,7 +26003,7 @@
         <v>0.9233925818839266</v>
       </c>
       <c r="D376">
-        <v>0.2209369417340897</v>
+        <v>0.4464551558834574</v>
       </c>
       <c r="E376">
         <v>0.2703450370682439</v>
@@ -26029,7 +26029,7 @@
         <v>0.9219606638492172</v>
       </c>
       <c r="D377">
-        <v>0.2375664678390218</v>
+        <v>0.4798077909118329</v>
       </c>
       <c r="E377">
         <v>0.2728599352060016</v>
@@ -26055,7 +26055,7 @@
         <v>0.9230107946290068</v>
       </c>
       <c r="D378">
-        <v>0.1637655832248721</v>
+        <v>0.4630710014750642</v>
       </c>
       <c r="E378">
         <v>0.2710178571076445</v>
@@ -26081,7 +26081,7 @@
         <v>0.9195287115581332</v>
       </c>
       <c r="D379">
-        <v>0.1333213133714656</v>
+        <v>0.4576841395042947</v>
       </c>
       <c r="E379">
         <v>0.2770789071055326</v>
@@ -26107,7 +26107,7 @@
         <v>0.9202351401432818</v>
       </c>
       <c r="D380">
-        <v>0.095714128381993</v>
+        <v>0.4587702881330479</v>
       </c>
       <c r="E380">
         <v>0.2758600380211647</v>
@@ -26133,7 +26133,7 @@
         <v>0.9195753017613292</v>
       </c>
       <c r="D381">
-        <v>0.07703177473589295</v>
+        <v>0.4621327973412287</v>
       </c>
       <c r="E381">
         <v>0.2769986857503852</v>
@@ -26159,7 +26159,7 @@
         <v>0.8683717674060216</v>
       </c>
       <c r="D382">
-        <v>-0.02936684551551072</v>
+        <v>-0.2945580606940694</v>
       </c>
       <c r="E382">
         <v>0.3543704609208418</v>
@@ -26185,7 +26185,7 @@
         <v>0.8707131286766077</v>
       </c>
       <c r="D383">
-        <v>-0.03839478635667137</v>
+        <v>-0.1617298550212711</v>
       </c>
       <c r="E383">
         <v>0.3512046047356464</v>
@@ -26211,7 +26211,7 @@
         <v>0.8577659188867539</v>
       </c>
       <c r="D384">
-        <v>0.0805026922042178</v>
+        <v>-0.02773823135787556</v>
       </c>
       <c r="E384">
         <v>0.3683704835593639</v>
@@ -26237,7 +26237,7 @@
         <v>0.8822213338076274</v>
       </c>
       <c r="D385">
-        <v>0.04072564930139289</v>
+        <v>0.05626705379892616</v>
       </c>
       <c r="E385">
         <v>0.3352094892808238</v>
@@ -26263,7 +26263,7 @@
         <v>0.8907284413516204</v>
       </c>
       <c r="D386">
-        <v>0.06292789996179105</v>
+        <v>0.2152672400393828</v>
       </c>
       <c r="E386">
         <v>0.3228765896778295</v>
@@ -26289,7 +26289,7 @@
         <v>0.8947650928089589</v>
       </c>
       <c r="D387">
-        <v>0.05546093488125126</v>
+        <v>0.2562798811753816</v>
       </c>
       <c r="E387">
         <v>0.3168567035525436</v>
@@ -26315,7 +26315,7 @@
         <v>0.8979320758226956</v>
       </c>
       <c r="D388">
-        <v>0.1709918816820306</v>
+        <v>0.350733132559818</v>
       </c>
       <c r="E388">
         <v>0.3120524736852976</v>
@@ -26341,7 +26341,7 @@
         <v>0.8954707524964568</v>
       </c>
       <c r="D389">
-        <v>0.1711945287844946</v>
+        <v>0.3635553119838865</v>
       </c>
       <c r="E389">
         <v>0.3157925647612942</v>
@@ -26367,7 +26367,7 @@
         <v>0.9032985689655839</v>
       </c>
       <c r="D390">
-        <v>0.09928105032249668</v>
+        <v>0.3705334632976616</v>
       </c>
       <c r="E390">
         <v>0.3037382168384662</v>
@@ -26393,7 +26393,7 @@
         <v>0.9031674475128961</v>
       </c>
       <c r="D391">
-        <v>-0.02339946103953738</v>
+        <v>0.3463740595273999</v>
       </c>
       <c r="E391">
         <v>0.3039440726583729</v>
@@ -26419,7 +26419,7 @@
         <v>0.9086507988613308</v>
       </c>
       <c r="D392">
-        <v>-0.0329991120217159</v>
+        <v>0.3319523391036657</v>
       </c>
       <c r="E392">
         <v>0.2952129233156974</v>
@@ -26445,7 +26445,7 @@
         <v>0.9115321043123047</v>
       </c>
       <c r="D393">
-        <v>-0.01314849756595993</v>
+        <v>0.3447615520680193</v>
       </c>
       <c r="E393">
         <v>0.2905198672736857</v>
@@ -26471,7 +26471,7 @@
         <v>0.9151312638470289</v>
       </c>
       <c r="D394">
-        <v>0.00805395419829591</v>
+        <v>0.3626861609774156</v>
       </c>
       <c r="E394">
         <v>0.284548863845255</v>
@@ -26497,7 +26497,7 @@
         <v>0.9147609992429911</v>
       </c>
       <c r="D395">
-        <v>-0.006949213010905009</v>
+        <v>0.3640413062137132</v>
       </c>
       <c r="E395">
         <v>0.2851689019948113</v>
@@ -26523,7 +26523,7 @@
         <v>0.9120207867645094</v>
       </c>
       <c r="D396">
-        <v>0.006719963928368267</v>
+        <v>0.3720152691317167</v>
       </c>
       <c r="E396">
         <v>0.2897163635789257</v>
@@ -26549,7 +26549,7 @@
         <v>0.9125596393141691</v>
       </c>
       <c r="D397">
-        <v>-0.06411103040950139</v>
+        <v>0.3550438384340421</v>
       </c>
       <c r="E397">
         <v>0.2888277776758489</v>
@@ -26575,7 +26575,7 @@
         <v>0.9068534790486129</v>
       </c>
       <c r="D398">
-        <v>-0.08640957276970118</v>
+        <v>0.3638679777129086</v>
       </c>
       <c r="E398">
         <v>0.2981029733012248</v>
@@ -26601,7 +26601,7 @@
         <v>0.9082246237673972</v>
       </c>
       <c r="D399">
-        <v>-0.05797461225475686</v>
+        <v>0.3920277754927112</v>
       </c>
       <c r="E399">
         <v>0.295900756354485</v>
@@ -26627,7 +26627,7 @@
         <v>0.909537473455692</v>
       </c>
       <c r="D400">
-        <v>-0.09677747382079938</v>
+        <v>0.3854131939230525</v>
       </c>
       <c r="E400">
         <v>0.2937766979262773</v>
@@ -26686,7 +26686,7 @@
         <v>0.4200168781140204</v>
       </c>
       <c r="D2">
-        <v>-0.1741766404616552</v>
+        <v>0.3430143817881439</v>
       </c>
       <c r="E2">
         <v>0.7438590757189485</v>
@@ -26709,7 +26709,7 @@
         <v>0.6193628098257175</v>
       </c>
       <c r="D3">
-        <v>-0.4119192898869366</v>
+        <v>-0.1024206215736769</v>
       </c>
       <c r="E3">
         <v>0.6026131408728322</v>
@@ -26732,7 +26732,7 @@
         <v>0.6115023808647094</v>
       </c>
       <c r="D4">
-        <v>-0.3856501370171275</v>
+        <v>-0.1155250373994983</v>
       </c>
       <c r="E4">
         <v>0.6088035403323546</v>
@@ -26755,7 +26755,7 @@
         <v>0.6024049612574447</v>
       </c>
       <c r="D5">
-        <v>-0.413571088013156</v>
+        <v>-0.1030763564325932</v>
       </c>
       <c r="E5">
         <v>0.6158904454504353</v>
@@ -26778,7 +26778,7 @@
         <v>0.6167060961435614</v>
       </c>
       <c r="D6">
-        <v>-0.3845294502467005</v>
+        <v>-0.1102094892778809</v>
       </c>
       <c r="E6">
         <v>0.6047124979134638</v>
@@ -26801,7 +26801,7 @@
         <v>0.6916900194249432</v>
       </c>
       <c r="D7">
-        <v>0.2652864069722426</v>
+        <v>0.281518520536669</v>
       </c>
       <c r="E7">
         <v>0.5423464233434211</v>
@@ -26824,7 +26824,7 @@
         <v>0.6685969422734885</v>
       </c>
       <c r="D8">
-        <v>0.2772122753566284</v>
+        <v>0.2920289904366536</v>
       </c>
       <c r="E8">
         <v>0.5622911447440815</v>
@@ -26847,7 +26847,7 @@
         <v>0.6345975656890801</v>
       </c>
       <c r="D9">
-        <v>0.08284074916945783</v>
+        <v>0.1936577761510836</v>
       </c>
       <c r="E9">
         <v>0.5904303950302198</v>
@@ -26870,7 +26870,7 @@
         <v>0.6345975656890801</v>
       </c>
       <c r="D10">
-        <v>0.08284074916945783</v>
+        <v>0.1936577761510836</v>
       </c>
       <c r="E10">
         <v>0.5904303950302198</v>
@@ -26893,7 +26893,7 @@
         <v>0.6301243621054937</v>
       </c>
       <c r="D11">
-        <v>0.06586984408356888</v>
+        <v>0.1845322983172262</v>
       </c>
       <c r="E11">
         <v>0.5940333833716556</v>
@@ -26916,7 +26916,7 @@
         <v>0.6427875519708344</v>
       </c>
       <c r="D12">
-        <v>0.1515268162601785</v>
+        <v>0.2249687817758743</v>
       </c>
       <c r="E12">
         <v>0.5837760596152802</v>
@@ -26939,7 +26939,7 @@
         <v>0.6416978230766357</v>
       </c>
       <c r="D13">
-        <v>0.1555967189298578</v>
+        <v>0.2243444499275659</v>
       </c>
       <c r="E13">
         <v>0.5846658287275189</v>
@@ -26962,7 +26962,7 @@
         <v>0.6416978230766357</v>
       </c>
       <c r="D14">
-        <v>0.1555967189298578</v>
+        <v>0.2243444499275659</v>
       </c>
       <c r="E14">
         <v>0.5846658287275189</v>
@@ -26985,7 +26985,7 @@
         <v>0.5697566890438573</v>
       </c>
       <c r="D15">
-        <v>-0.8856977732226272</v>
+        <v>-0.09773573549692927</v>
       </c>
       <c r="E15">
         <v>0.6406783552626479</v>
@@ -27008,7 +27008,7 @@
         <v>0.5554398917557302</v>
       </c>
       <c r="D16">
-        <v>-0.7377146218737349</v>
+        <v>-0.04081187729551217</v>
       </c>
       <c r="E16">
         <v>0.6512507451846666</v>
@@ -27031,7 +27031,7 @@
         <v>0.6790766967915924</v>
       </c>
       <c r="D17">
-        <v>0.207726778163229</v>
+        <v>0.1008539619720636</v>
       </c>
       <c r="E17">
         <v>0.5533292333013828</v>
@@ -27054,7 +27054,7 @@
         <v>0.644649154833916</v>
       </c>
       <c r="D18">
-        <v>0.2560420885759919</v>
+        <v>0.06437703388626004</v>
       </c>
       <c r="E18">
         <v>0.5822529061033769</v>
@@ -27077,7 +27077,7 @@
         <v>0.6331583890645831</v>
       </c>
       <c r="D19">
-        <v>0.2206474709511692</v>
+        <v>0.04184254994027059</v>
       </c>
       <c r="E19">
         <v>0.5915919890634596</v>
@@ -27100,7 +27100,7 @@
         <v>0.6331583890645831</v>
       </c>
       <c r="D20">
-        <v>0.2206474709511692</v>
+        <v>0.04184254994027059</v>
       </c>
       <c r="E20">
         <v>0.5915919890634596</v>
@@ -27123,7 +27123,7 @@
         <v>0.6450606977574133</v>
       </c>
       <c r="D21">
-        <v>0.0509073693851757</v>
+        <v>-0.235118160156899</v>
       </c>
       <c r="E21">
         <v>0.5819156457800829</v>
@@ -27146,7 +27146,7 @@
         <v>0.62432839102923</v>
       </c>
       <c r="D22">
-        <v>0.001560817656967028</v>
+        <v>-0.2704098221358722</v>
       </c>
       <c r="E22">
         <v>0.5986695591726489</v>
@@ -27202,7 +27202,7 @@
         <v>0.8157171696744995</v>
       </c>
       <c r="D2">
-        <v>-0.1371102210551762</v>
+        <v>-0.376776393877287</v>
       </c>
       <c r="E2">
         <v>0.4193005435345186</v>
@@ -27225,7 +27225,7 @@
         <v>0.7772007327355296</v>
       </c>
       <c r="D3">
-        <v>-0.04336564019462275</v>
+        <v>-0.3585942945433362</v>
       </c>
       <c r="E3">
         <v>0.4610413386736951</v>
@@ -27248,7 +27248,7 @@
         <v>0.7776643631349442</v>
       </c>
       <c r="D4">
-        <v>-0.1710321554714644</v>
+        <v>-0.3062933091327968</v>
       </c>
       <c r="E4">
         <v>0.4605613907371744</v>
@@ -27271,7 +27271,7 @@
         <v>0.7556865327186988</v>
       </c>
       <c r="D5">
-        <v>-0.265681578149048</v>
+        <v>-0.4800173995495287</v>
       </c>
       <c r="E5">
         <v>0.4827882503471382</v>
@@ -27294,7 +27294,7 @@
         <v>0.7446214695605128</v>
       </c>
       <c r="D6">
-        <v>-0.197148763466761</v>
+        <v>-0.5130893838272319</v>
       </c>
       <c r="E6">
         <v>0.4936000332047953</v>
@@ -27317,7 +27317,7 @@
         <v>0.6885599878531869</v>
       </c>
       <c r="D7">
-        <v>-0.9142051424382864</v>
+        <v>0.09971800306425482</v>
       </c>
       <c r="E7">
         <v>0.545092482118419</v>
@@ -27340,7 +27340,7 @@
         <v>0.6297868369700405</v>
       </c>
       <c r="D8">
-        <v>-0.266898623855587</v>
+        <v>0.2824368972349292</v>
       </c>
       <c r="E8">
         <v>0.594304360231614</v>
@@ -27363,7 +27363,7 @@
         <v>0.6173053429734767</v>
       </c>
       <c r="D9">
-        <v>-0.4216505006335058</v>
+        <v>0.2282479090852483</v>
       </c>
       <c r="E9">
         <v>0.6042396051947277</v>
@@ -27386,7 +27386,7 @@
         <v>0.6198347904966832</v>
       </c>
       <c r="D10">
-        <v>-0.4490596730545116</v>
+        <v>0.2060957710741864</v>
       </c>
       <c r="E10">
         <v>0.6022394123124185</v>
@@ -27409,7 +27409,7 @@
         <v>0.6033646475581325</v>
       </c>
       <c r="D11">
-        <v>-0.4327350932453979</v>
+        <v>0.2142601896312323</v>
       </c>
       <c r="E11">
         <v>0.6151467003553042</v>
@@ -27432,7 +27432,7 @@
         <v>0.589163187112132</v>
       </c>
       <c r="D12">
-        <v>-0.3534642618819979</v>
+        <v>0.2914679441171465</v>
       </c>
       <c r="E12">
         <v>0.6260624612228585</v>
@@ -27455,7 +27455,7 @@
         <v>0.5873847136810662</v>
       </c>
       <c r="D13">
-        <v>-0.2817677131125171</v>
+        <v>0.3611843536812658</v>
       </c>
       <c r="E13">
         <v>0.6274160802641446</v>
@@ -27478,7 +27478,7 @@
         <v>0.5873847136810662</v>
       </c>
       <c r="D14">
-        <v>-0.2817677131125171</v>
+        <v>0.3611843536812658</v>
       </c>
       <c r="E14">
         <v>0.6274160802641446</v>
@@ -27501,7 +27501,7 @@
         <v>0.5623179968936241</v>
       </c>
       <c r="D15">
-        <v>-0.2272032495804031</v>
+        <v>0.3827664693435633</v>
       </c>
       <c r="E15">
         <v>0.6461931250375798</v>
@@ -27524,7 +27524,7 @@
         <v>0.5318562039704962</v>
       </c>
       <c r="D16">
-        <v>-0.0109723539525648</v>
+        <v>0.4815500199461575</v>
       </c>
       <c r="E16">
         <v>0.6683017904830831</v>
@@ -27547,7 +27547,7 @@
         <v>0.4984934257197747</v>
       </c>
       <c r="D17">
-        <v>0.05421738479450799</v>
+        <v>0.4089742856265142</v>
       </c>
       <c r="E17">
         <v>0.6917056192160755</v>
@@ -27570,7 +27570,7 @@
         <v>0.4589007925448786</v>
       </c>
       <c r="D18">
-        <v>-0.1873389188606023</v>
+        <v>0.3512593216489175</v>
       </c>
       <c r="E18">
         <v>0.718491173665493</v>
@@ -27593,7 +27593,7 @@
         <v>0.4573475315241848</v>
       </c>
       <c r="D19">
-        <v>-0.1559218506374807</v>
+        <v>0.3285112254944424</v>
       </c>
       <c r="E19">
         <v>0.7195216728556674</v>
@@ -27616,7 +27616,7 @@
         <v>0.4573475315241848</v>
       </c>
       <c r="D20">
-        <v>-0.1559218506374807</v>
+        <v>0.3285112254944424</v>
       </c>
       <c r="E20">
         <v>0.7195216728556674</v>
@@ -27639,7 +27639,7 @@
         <v>0.4529751313980411</v>
       </c>
       <c r="D21">
-        <v>-0.1847819116460081</v>
+        <v>0.2857372324065245</v>
       </c>
       <c r="E21">
         <v>0.7224146153679879</v>
@@ -27662,7 +27662,7 @@
         <v>0.4363199409931645</v>
       </c>
       <c r="D22">
-        <v>-0.3857711641722337</v>
+        <v>0.284990465060513</v>
       </c>
       <c r="E22">
         <v>0.7333297840337647</v>
